--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_100ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2652.201770773345</v>
+        <v>2926.212035505537</v>
       </c>
       <c r="AB2" t="n">
-        <v>3628.859469656492</v>
+        <v>4003.772402342818</v>
       </c>
       <c r="AC2" t="n">
-        <v>3282.526215008594</v>
+        <v>3621.657983592928</v>
       </c>
       <c r="AD2" t="n">
-        <v>2652201.770773345</v>
+        <v>2926212.035505537</v>
       </c>
       <c r="AE2" t="n">
-        <v>3628859.469656493</v>
+        <v>4003772.402342818</v>
       </c>
       <c r="AF2" t="n">
         <v>2.925332199223525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.65</v>
       </c>
       <c r="AH2" t="n">
-        <v>3282526.215008594</v>
+        <v>3621657.983592928</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>991.2204843811874</v>
+        <v>1138.014138017632</v>
       </c>
       <c r="AB3" t="n">
-        <v>1356.231596291834</v>
+        <v>1557.081149276157</v>
       </c>
       <c r="AC3" t="n">
-        <v>1226.794756224741</v>
+        <v>1408.475509766359</v>
       </c>
       <c r="AD3" t="n">
-        <v>991220.4843811874</v>
+        <v>1138014.138017632</v>
       </c>
       <c r="AE3" t="n">
-        <v>1356231.596291834</v>
+        <v>1557081.149276157</v>
       </c>
       <c r="AF3" t="n">
         <v>5.434804657532453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.87916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1226794.756224741</v>
+        <v>1408475.509766359</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>789.0078656858855</v>
+        <v>916.224476781633</v>
       </c>
       <c r="AB4" t="n">
-        <v>1079.555370401797</v>
+        <v>1253.618750103778</v>
       </c>
       <c r="AC4" t="n">
-        <v>976.5241210161275</v>
+        <v>1133.975136058839</v>
       </c>
       <c r="AD4" t="n">
-        <v>789007.8656858854</v>
+        <v>916224.476781633</v>
       </c>
       <c r="AE4" t="n">
-        <v>1079555.370401797</v>
+        <v>1253618.750103778</v>
       </c>
       <c r="AF4" t="n">
         <v>6.345627894426927e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>976524.1210161275</v>
+        <v>1133975.136058839</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>705.271952948783</v>
+        <v>822.7000427741824</v>
       </c>
       <c r="AB5" t="n">
-        <v>964.9842004271454</v>
+        <v>1125.654493487954</v>
       </c>
       <c r="AC5" t="n">
-        <v>872.8874627022094</v>
+        <v>1018.223608495467</v>
       </c>
       <c r="AD5" t="n">
-        <v>705271.9529487829</v>
+        <v>822700.0427741824</v>
       </c>
       <c r="AE5" t="n">
-        <v>964984.2004271455</v>
+        <v>1125654.493487954</v>
       </c>
       <c r="AF5" t="n">
         <v>6.834187753091994e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.96666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>872887.4627022094</v>
+        <v>1018223.608495467</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>671.8945477262055</v>
+        <v>779.5009618923327</v>
       </c>
       <c r="AB6" t="n">
-        <v>919.3157620944206</v>
+        <v>1066.547605216464</v>
       </c>
       <c r="AC6" t="n">
-        <v>831.5775560279042</v>
+        <v>964.7577986835695</v>
       </c>
       <c r="AD6" t="n">
-        <v>671894.5477262054</v>
+        <v>779500.9618923328</v>
       </c>
       <c r="AE6" t="n">
-        <v>919315.7620944206</v>
+        <v>1066547.605216464</v>
       </c>
       <c r="AF6" t="n">
         <v>7.130261807764888e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.0125</v>
       </c>
       <c r="AH6" t="n">
-        <v>831577.5560279042</v>
+        <v>964757.7986835695</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>640.4299137177644</v>
+        <v>748.0021624651112</v>
       </c>
       <c r="AB7" t="n">
-        <v>876.2644617223881</v>
+        <v>1023.449558211184</v>
       </c>
       <c r="AC7" t="n">
-        <v>792.635011340499</v>
+        <v>925.7729687959845</v>
       </c>
       <c r="AD7" t="n">
-        <v>640429.9137177644</v>
+        <v>748002.1624651111</v>
       </c>
       <c r="AE7" t="n">
-        <v>876264.461722388</v>
+        <v>1023449.558211184</v>
       </c>
       <c r="AF7" t="n">
         <v>7.334048148194958e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.4</v>
       </c>
       <c r="AH7" t="n">
-        <v>792635.0113404989</v>
+        <v>925772.9687959845</v>
       </c>
     </row>
     <row r="8">
@@ -7988,28 +7988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>614.7750006843971</v>
+        <v>722.4145692394483</v>
       </c>
       <c r="AB8" t="n">
-        <v>841.1622778952516</v>
+        <v>988.439484314889</v>
       </c>
       <c r="AC8" t="n">
-        <v>760.8829306715999</v>
+        <v>894.1042072154042</v>
       </c>
       <c r="AD8" t="n">
-        <v>614775.0006843972</v>
+        <v>722414.5692394483</v>
       </c>
       <c r="AE8" t="n">
-        <v>841162.2778952515</v>
+        <v>988439.4843148889</v>
       </c>
       <c r="AF8" t="n">
         <v>7.487735443750354e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.9625</v>
       </c>
       <c r="AH8" t="n">
-        <v>760882.9306715998</v>
+        <v>894104.2072154043</v>
       </c>
     </row>
     <row r="9">
@@ -8094,28 +8094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>603.3663676725023</v>
+        <v>711.0059362275533</v>
       </c>
       <c r="AB9" t="n">
-        <v>825.5524828950105</v>
+        <v>972.8296893146478</v>
       </c>
       <c r="AC9" t="n">
-        <v>746.7629125976969</v>
+        <v>879.9841891415015</v>
       </c>
       <c r="AD9" t="n">
-        <v>603366.3676725023</v>
+        <v>711005.9362275533</v>
       </c>
       <c r="AE9" t="n">
-        <v>825552.4828950105</v>
+        <v>972829.6893146478</v>
       </c>
       <c r="AF9" t="n">
         <v>7.59998743903346e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.65</v>
       </c>
       <c r="AH9" t="n">
-        <v>746762.9125976969</v>
+        <v>879984.1891415014</v>
       </c>
     </row>
     <row r="10">
@@ -8200,28 +8200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>595.2590954193464</v>
+        <v>693.0769883151254</v>
       </c>
       <c r="AB10" t="n">
-        <v>814.4597553306335</v>
+        <v>948.2985118115058</v>
       </c>
       <c r="AC10" t="n">
-        <v>736.7288593833231</v>
+        <v>857.7942327895353</v>
       </c>
       <c r="AD10" t="n">
-        <v>595259.0954193464</v>
+        <v>693076.9883151253</v>
       </c>
       <c r="AE10" t="n">
-        <v>814459.7553306335</v>
+        <v>948298.5118115058</v>
       </c>
       <c r="AF10" t="n">
         <v>7.679467878646668e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.4375</v>
       </c>
       <c r="AH10" t="n">
-        <v>736728.8593833231</v>
+        <v>857794.2327895353</v>
       </c>
     </row>
     <row r="11">
@@ -8306,28 +8306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>588.7097000207765</v>
+        <v>686.5275929165555</v>
       </c>
       <c r="AB11" t="n">
-        <v>805.4985836073776</v>
+        <v>939.3373400882499</v>
       </c>
       <c r="AC11" t="n">
-        <v>728.6229293122512</v>
+        <v>849.6883027184634</v>
       </c>
       <c r="AD11" t="n">
-        <v>588709.7000207765</v>
+        <v>686527.5929165555</v>
       </c>
       <c r="AE11" t="n">
-        <v>805498.5836073776</v>
+        <v>939337.3400882499</v>
       </c>
       <c r="AF11" t="n">
         <v>7.743127567246819e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.27083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>728622.9293122513</v>
+        <v>849688.3027184635</v>
       </c>
     </row>
     <row r="12">
@@ -8412,28 +8412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>580.9520380651816</v>
+        <v>678.7699309609604</v>
       </c>
       <c r="AB12" t="n">
-        <v>794.8842082758414</v>
+        <v>928.7229647567137</v>
       </c>
       <c r="AC12" t="n">
-        <v>719.0215750649875</v>
+        <v>840.0869484711999</v>
       </c>
       <c r="AD12" t="n">
-        <v>580952.0380651816</v>
+        <v>678769.9309609605</v>
       </c>
       <c r="AE12" t="n">
-        <v>794884.2082758414</v>
+        <v>928722.9647567137</v>
       </c>
       <c r="AF12" t="n">
         <v>7.815074315901427e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.08333333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>719021.5750649875</v>
+        <v>840086.9484711998</v>
       </c>
     </row>
     <row r="13">
@@ -8518,28 +8518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>567.0123098643789</v>
+        <v>674.6177130006491</v>
       </c>
       <c r="AB13" t="n">
-        <v>775.8112571740982</v>
+        <v>923.0417169604876</v>
       </c>
       <c r="AC13" t="n">
-        <v>701.7689196473395</v>
+        <v>834.9479109909641</v>
       </c>
       <c r="AD13" t="n">
-        <v>567012.309864379</v>
+        <v>674617.7130006491</v>
       </c>
       <c r="AE13" t="n">
-        <v>775811.2571740982</v>
+        <v>923041.7169604877</v>
       </c>
       <c r="AF13" t="n">
         <v>7.855002877981997e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.98333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>701768.9196473395</v>
+        <v>834947.9109909642</v>
       </c>
     </row>
     <row r="14">
@@ -8624,28 +8624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>562.1507837856676</v>
+        <v>669.7561869219379</v>
       </c>
       <c r="AB14" t="n">
-        <v>769.1595027178116</v>
+        <v>916.3899625042011</v>
       </c>
       <c r="AC14" t="n">
-        <v>695.7519993005651</v>
+        <v>828.9309906441897</v>
       </c>
       <c r="AD14" t="n">
-        <v>562150.7837856676</v>
+        <v>669756.1869219379</v>
       </c>
       <c r="AE14" t="n">
-        <v>769159.5027178116</v>
+        <v>916389.9625042011</v>
       </c>
       <c r="AF14" t="n">
         <v>7.897191547350143e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.875</v>
       </c>
       <c r="AH14" t="n">
-        <v>695751.9993005651</v>
+        <v>828930.9906441898</v>
       </c>
     </row>
     <row r="15">
@@ -8730,28 +8730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>557.2903686488107</v>
+        <v>655.1755813522943</v>
       </c>
       <c r="AB15" t="n">
-        <v>762.5092683011817</v>
+        <v>896.4401347128954</v>
       </c>
       <c r="AC15" t="n">
-        <v>689.7364539229956</v>
+        <v>810.885146417527</v>
       </c>
       <c r="AD15" t="n">
-        <v>557290.3686488108</v>
+        <v>655175.5813522943</v>
       </c>
       <c r="AE15" t="n">
-        <v>762509.2683011817</v>
+        <v>896440.1347128954</v>
       </c>
       <c r="AF15" t="n">
         <v>7.94013358581415e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.76666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>689736.4539229956</v>
+        <v>810885.146417527</v>
       </c>
     </row>
     <row r="16">
@@ -8836,28 +8836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>553.9172246434473</v>
+        <v>651.8024373469309</v>
       </c>
       <c r="AB16" t="n">
-        <v>757.8939838604325</v>
+        <v>891.8248502721463</v>
       </c>
       <c r="AC16" t="n">
-        <v>685.5616457516792</v>
+        <v>806.7103382462104</v>
       </c>
       <c r="AD16" t="n">
-        <v>553917.2246434473</v>
+        <v>651802.4373469308</v>
       </c>
       <c r="AE16" t="n">
-        <v>757893.9838604325</v>
+        <v>891824.8502721463</v>
       </c>
       <c r="AF16" t="n">
         <v>7.967254873265104e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="AH16" t="n">
-        <v>685561.6457516792</v>
+        <v>806710.3382462105</v>
       </c>
     </row>
     <row r="17">
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>550.0168383316362</v>
+        <v>647.9020510351198</v>
       </c>
       <c r="AB17" t="n">
-        <v>752.5573032357129</v>
+        <v>886.4881696474266</v>
       </c>
       <c r="AC17" t="n">
-        <v>680.7342904357047</v>
+        <v>801.8829829302359</v>
       </c>
       <c r="AD17" t="n">
-        <v>550016.8383316363</v>
+        <v>647902.0510351198</v>
       </c>
       <c r="AE17" t="n">
-        <v>752557.3032357129</v>
+        <v>886488.1696474266</v>
       </c>
       <c r="AF17" t="n">
         <v>7.995129529811916e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.62916666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>680734.2904357046</v>
+        <v>801882.9829302359</v>
       </c>
     </row>
     <row r="18">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>545.3970622728773</v>
+        <v>643.2822749763609</v>
       </c>
       <c r="AB18" t="n">
-        <v>746.2363218219833</v>
+        <v>880.1671882336971</v>
       </c>
       <c r="AC18" t="n">
-        <v>675.0165746165482</v>
+        <v>796.1652671110795</v>
       </c>
       <c r="AD18" t="n">
-        <v>545397.0622728773</v>
+        <v>643282.2749763608</v>
       </c>
       <c r="AE18" t="n">
-        <v>746236.3218219833</v>
+        <v>880167.1882336971</v>
       </c>
       <c r="AF18" t="n">
         <v>8.029407823673536e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.54583333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>675016.5746165481</v>
+        <v>796165.2671110795</v>
       </c>
     </row>
     <row r="19">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>543.6168371726261</v>
+        <v>641.5020498761097</v>
       </c>
       <c r="AB19" t="n">
-        <v>743.8005393018311</v>
+        <v>877.731405713545</v>
       </c>
       <c r="AC19" t="n">
-        <v>672.8132597614771</v>
+        <v>793.9619522560085</v>
       </c>
       <c r="AD19" t="n">
-        <v>543616.8371726261</v>
+        <v>641502.0498761097</v>
       </c>
       <c r="AE19" t="n">
-        <v>743800.5393018312</v>
+        <v>877731.4057135449</v>
       </c>
       <c r="AF19" t="n">
         <v>8.04070836011143e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.52083333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>672813.2597614771</v>
+        <v>793961.9522560085</v>
       </c>
     </row>
     <row r="20">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>540.5432728041951</v>
+        <v>638.3270002811932</v>
       </c>
       <c r="AB20" t="n">
-        <v>739.5951529368537</v>
+        <v>873.3871627844782</v>
       </c>
       <c r="AC20" t="n">
-        <v>669.0092295688763</v>
+        <v>790.0323177749086</v>
       </c>
       <c r="AD20" t="n">
-        <v>540543.2728041951</v>
+        <v>638327.0002811933</v>
       </c>
       <c r="AE20" t="n">
-        <v>739595.1529368537</v>
+        <v>873387.1627844782</v>
       </c>
       <c r="AF20" t="n">
         <v>8.053138950193119e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.4875</v>
       </c>
       <c r="AH20" t="n">
-        <v>669009.2295688763</v>
+        <v>790032.3177749086</v>
       </c>
     </row>
     <row r="21">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>537.8974175223346</v>
+        <v>635.681144999333</v>
       </c>
       <c r="AB21" t="n">
-        <v>735.9749770133154</v>
+        <v>869.7669868609399</v>
       </c>
       <c r="AC21" t="n">
-        <v>665.7345581545318</v>
+        <v>786.7576463605641</v>
       </c>
       <c r="AD21" t="n">
-        <v>537897.4175223346</v>
+        <v>635681.144999333</v>
       </c>
       <c r="AE21" t="n">
-        <v>735974.9770133154</v>
+        <v>869766.9868609399</v>
       </c>
       <c r="AF21" t="n">
         <v>8.068583016658244e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.45</v>
       </c>
       <c r="AH21" t="n">
-        <v>665734.5581545318</v>
+        <v>786757.646360564</v>
       </c>
     </row>
     <row r="22">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>533.6517725639441</v>
+        <v>631.4355000409423</v>
       </c>
       <c r="AB22" t="n">
-        <v>730.1658982766094</v>
+        <v>863.9579081242339</v>
       </c>
       <c r="AC22" t="n">
-        <v>660.4798897393637</v>
+        <v>781.502977945396</v>
       </c>
       <c r="AD22" t="n">
-        <v>533651.7725639441</v>
+        <v>631435.5000409423</v>
       </c>
       <c r="AE22" t="n">
-        <v>730165.8982766094</v>
+        <v>863957.9081242338</v>
       </c>
       <c r="AF22" t="n">
         <v>8.099094465040565e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.37916666666667</v>
       </c>
       <c r="AH22" t="n">
-        <v>660479.8897393637</v>
+        <v>781502.977945396</v>
       </c>
     </row>
     <row r="23">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>531.1446162415428</v>
+        <v>628.9283437185411</v>
       </c>
       <c r="AB23" t="n">
-        <v>726.7354963883693</v>
+        <v>860.5275062359937</v>
       </c>
       <c r="AC23" t="n">
-        <v>657.3768805927378</v>
+        <v>778.3999687987703</v>
       </c>
       <c r="AD23" t="n">
-        <v>531144.6162415429</v>
+        <v>628928.3437185411</v>
       </c>
       <c r="AE23" t="n">
-        <v>726735.4963883692</v>
+        <v>860527.5062359937</v>
       </c>
       <c r="AF23" t="n">
         <v>8.115291900601549e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.34166666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>657376.8805927378</v>
+        <v>778399.9687987702</v>
       </c>
     </row>
     <row r="24">
@@ -9684,28 +9684,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>529.6476347288746</v>
+        <v>627.4313622058728</v>
       </c>
       <c r="AB24" t="n">
-        <v>724.6872602405732</v>
+        <v>858.4792700881976</v>
       </c>
       <c r="AC24" t="n">
-        <v>655.5241252281699</v>
+        <v>776.5472134342024</v>
       </c>
       <c r="AD24" t="n">
-        <v>529647.6347288745</v>
+        <v>627431.3622058728</v>
       </c>
       <c r="AE24" t="n">
-        <v>724687.2602405732</v>
+        <v>858479.2700881977</v>
       </c>
       <c r="AF24" t="n">
         <v>8.114538531505691e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19.34166666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>655524.1252281698</v>
+        <v>776547.2134342024</v>
       </c>
     </row>
     <row r="25">
@@ -9790,28 +9790,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>525.9430528894349</v>
+        <v>623.7267803664331</v>
       </c>
       <c r="AB25" t="n">
-        <v>719.6184879332357</v>
+        <v>853.4104977808602</v>
       </c>
       <c r="AC25" t="n">
-        <v>650.9391094357782</v>
+        <v>771.9621976418103</v>
       </c>
       <c r="AD25" t="n">
-        <v>525943.0528894349</v>
+        <v>623726.7803664331</v>
       </c>
       <c r="AE25" t="n">
-        <v>719618.4879332357</v>
+        <v>853410.4977808602</v>
       </c>
       <c r="AF25" t="n">
         <v>8.130735967066676e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>19.30416666666666</v>
       </c>
       <c r="AH25" t="n">
-        <v>650939.1094357781</v>
+        <v>771962.1976418104</v>
       </c>
     </row>
     <row r="26">
@@ -9896,28 +9896,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>524.6348546898458</v>
+        <v>622.4185821668442</v>
       </c>
       <c r="AB26" t="n">
-        <v>717.8285534429266</v>
+        <v>851.6205632905511</v>
       </c>
       <c r="AC26" t="n">
-        <v>649.3200037810353</v>
+        <v>770.3430919870677</v>
       </c>
       <c r="AD26" t="n">
-        <v>524634.8546898458</v>
+        <v>622418.5821668442</v>
       </c>
       <c r="AE26" t="n">
-        <v>717828.5534429266</v>
+        <v>851620.5632905511</v>
       </c>
       <c r="AF26" t="n">
         <v>8.140529765312852e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19.27916666666667</v>
       </c>
       <c r="AH26" t="n">
-        <v>649320.0037810353</v>
+        <v>770343.0919870677</v>
       </c>
     </row>
     <row r="27">
@@ -10002,28 +10002,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>521.1651461557253</v>
+        <v>618.9488736327237</v>
       </c>
       <c r="AB27" t="n">
-        <v>713.0811451538058</v>
+        <v>846.8731550014301</v>
       </c>
       <c r="AC27" t="n">
-        <v>645.0256814759987</v>
+        <v>766.0487696820311</v>
       </c>
       <c r="AD27" t="n">
-        <v>521165.1461557253</v>
+        <v>618948.8736327237</v>
       </c>
       <c r="AE27" t="n">
-        <v>713081.1451538057</v>
+        <v>846873.1550014301</v>
       </c>
       <c r="AF27" t="n">
         <v>8.156727200873838e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>20</v>
+        <v>19.24166666666667</v>
       </c>
       <c r="AH27" t="n">
-        <v>645025.6814759987</v>
+        <v>766048.7696820311</v>
       </c>
     </row>
     <row r="28">
@@ -10108,28 +10108,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>520.1382380323145</v>
+        <v>617.9219655093128</v>
       </c>
       <c r="AB28" t="n">
-        <v>711.6760841553661</v>
+        <v>845.4680940029905</v>
       </c>
       <c r="AC28" t="n">
-        <v>643.7547175272347</v>
+        <v>764.7778057332671</v>
       </c>
       <c r="AD28" t="n">
-        <v>520138.2380323145</v>
+        <v>617921.9655093128</v>
       </c>
       <c r="AE28" t="n">
-        <v>711676.0841553661</v>
+        <v>845468.0940029905</v>
       </c>
       <c r="AF28" t="n">
         <v>8.157480569969698e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>19.24166666666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>643754.7175272347</v>
+        <v>764777.8057332671</v>
       </c>
     </row>
     <row r="29">
@@ -10214,28 +10214,28 @@
         <v>10</v>
       </c>
       <c r="AA29" t="n">
-        <v>517.8710523377151</v>
+        <v>615.6547798147134</v>
       </c>
       <c r="AB29" t="n">
-        <v>708.5740206668414</v>
+        <v>842.3660305144659</v>
       </c>
       <c r="AC29" t="n">
-        <v>640.9487106242813</v>
+        <v>761.9717988303138</v>
       </c>
       <c r="AD29" t="n">
-        <v>517871.0523377151</v>
+        <v>615654.7798147134</v>
       </c>
       <c r="AE29" t="n">
-        <v>708574.0206668414</v>
+        <v>842366.0305144659</v>
       </c>
       <c r="AF29" t="n">
         <v>8.173301320982752e-06</v>
       </c>
       <c r="AG29" t="n">
-        <v>20</v>
+        <v>19.20416666666667</v>
       </c>
       <c r="AH29" t="n">
-        <v>640948.7106242813</v>
+        <v>761971.7988303138</v>
       </c>
     </row>
     <row r="30">
@@ -10320,28 +10320,28 @@
         <v>10</v>
       </c>
       <c r="AA30" t="n">
-        <v>519.6130330157015</v>
+        <v>617.3967604926999</v>
       </c>
       <c r="AB30" t="n">
-        <v>710.9574754812261</v>
+        <v>844.7494853288506</v>
       </c>
       <c r="AC30" t="n">
-        <v>643.104691856381</v>
+        <v>764.1277800624134</v>
       </c>
       <c r="AD30" t="n">
-        <v>519613.0330157015</v>
+        <v>617396.7604926998</v>
       </c>
       <c r="AE30" t="n">
-        <v>710957.4754812261</v>
+        <v>844749.4853288506</v>
       </c>
       <c r="AF30" t="n">
         <v>8.171041213695173e-06</v>
       </c>
       <c r="AG30" t="n">
-        <v>20</v>
+        <v>19.20833333333333</v>
       </c>
       <c r="AH30" t="n">
-        <v>643104.691856381</v>
+        <v>764127.7800624134</v>
       </c>
     </row>
     <row r="31">
@@ -10426,28 +10426,28 @@
         <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>520.9332929132638</v>
+        <v>618.7170203902622</v>
       </c>
       <c r="AB31" t="n">
-        <v>712.7639133188267</v>
+        <v>846.5559231664512</v>
       </c>
       <c r="AC31" t="n">
-        <v>644.7387258021125</v>
+        <v>765.7618140081449</v>
       </c>
       <c r="AD31" t="n">
-        <v>520933.2929132638</v>
+        <v>618717.0203902621</v>
       </c>
       <c r="AE31" t="n">
-        <v>712763.9133188267</v>
+        <v>846555.9231664512</v>
       </c>
       <c r="AF31" t="n">
         <v>8.172171267338963e-06</v>
       </c>
       <c r="AG31" t="n">
-        <v>20</v>
+        <v>19.20416666666667</v>
       </c>
       <c r="AH31" t="n">
-        <v>644738.7258021125</v>
+        <v>765761.8140081449</v>
       </c>
     </row>
   </sheetData>
@@ -10723,28 +10723,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1690.024945598728</v>
+        <v>1902.86137625584</v>
       </c>
       <c r="AB2" t="n">
-        <v>2312.366689206695</v>
+        <v>2603.578883312387</v>
       </c>
       <c r="AC2" t="n">
-        <v>2091.677657815839</v>
+        <v>2355.096968834965</v>
       </c>
       <c r="AD2" t="n">
-        <v>1690024.945598728</v>
+        <v>1902861.376255841</v>
       </c>
       <c r="AE2" t="n">
-        <v>2312366.689206695</v>
+        <v>2603578.883312386</v>
       </c>
       <c r="AF2" t="n">
         <v>4.058149441001933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.31666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2091677.657815839</v>
+        <v>2355096.968834965</v>
       </c>
     </row>
     <row r="3">
@@ -10829,28 +10829,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>813.6412975792953</v>
+        <v>949.0333350355427</v>
       </c>
       <c r="AB3" t="n">
-        <v>1113.259918668677</v>
+        <v>1298.509277391449</v>
       </c>
       <c r="AC3" t="n">
-        <v>1007.011954501047</v>
+        <v>1174.581374426425</v>
       </c>
       <c r="AD3" t="n">
-        <v>813641.2975792952</v>
+        <v>949033.3350355427</v>
       </c>
       <c r="AE3" t="n">
-        <v>1113259.918668677</v>
+        <v>1298509.277391449</v>
       </c>
       <c r="AF3" t="n">
         <v>6.493616132742784e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.44583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1007011.954501047</v>
+        <v>1174581.374426425</v>
       </c>
     </row>
     <row r="4">
@@ -10935,28 +10935,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>675.6294754931682</v>
+        <v>791.6945800679804</v>
       </c>
       <c r="AB4" t="n">
-        <v>924.426055038563</v>
+        <v>1083.231451548853</v>
       </c>
       <c r="AC4" t="n">
-        <v>836.2001297857989</v>
+        <v>979.8493621379206</v>
       </c>
       <c r="AD4" t="n">
-        <v>675629.4754931682</v>
+        <v>791694.5800679803</v>
       </c>
       <c r="AE4" t="n">
-        <v>924426.0550385631</v>
+        <v>1083231.451548853</v>
       </c>
       <c r="AF4" t="n">
         <v>7.36863657386071e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.30416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>836200.129785799</v>
+        <v>979849.3621379206</v>
       </c>
     </row>
     <row r="5">
@@ -11041,28 +11041,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>623.2456456234953</v>
+        <v>729.66436646698</v>
       </c>
       <c r="AB5" t="n">
-        <v>852.7521879994059</v>
+        <v>998.3589767200784</v>
       </c>
       <c r="AC5" t="n">
-        <v>771.3667160219545</v>
+        <v>903.0769971875377</v>
       </c>
       <c r="AD5" t="n">
-        <v>623245.6456234953</v>
+        <v>729664.3664669801</v>
       </c>
       <c r="AE5" t="n">
-        <v>852752.1879994059</v>
+        <v>998358.9767200784</v>
       </c>
       <c r="AF5" t="n">
         <v>7.804704226570445e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.00416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>771366.7160219545</v>
+        <v>903076.9971875377</v>
       </c>
     </row>
     <row r="6">
@@ -11147,28 +11147,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>588.4351755436498</v>
+        <v>694.8197309683538</v>
       </c>
       <c r="AB6" t="n">
-        <v>805.1229671066077</v>
+        <v>950.6830091940327</v>
       </c>
       <c r="AC6" t="n">
-        <v>728.2831611231337</v>
+        <v>859.951157088537</v>
       </c>
       <c r="AD6" t="n">
-        <v>588435.1755436498</v>
+        <v>694819.7309683538</v>
       </c>
       <c r="AE6" t="n">
-        <v>805122.9671066077</v>
+        <v>950683.0091940328</v>
       </c>
       <c r="AF6" t="n">
         <v>8.084562389320832e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.24166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>728283.1611231337</v>
+        <v>859951.157088537</v>
       </c>
     </row>
     <row r="7">
@@ -11253,28 +11253,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>562.0148382001798</v>
+        <v>668.4667134325882</v>
       </c>
       <c r="AB7" t="n">
-        <v>768.9734959702512</v>
+        <v>914.6256479885177</v>
       </c>
       <c r="AC7" t="n">
-        <v>695.5837447759297</v>
+        <v>827.3350598296521</v>
       </c>
       <c r="AD7" t="n">
-        <v>562014.8382001799</v>
+        <v>668466.7134325883</v>
       </c>
       <c r="AE7" t="n">
-        <v>768973.4959702512</v>
+        <v>914625.6479885177</v>
       </c>
       <c r="AF7" t="n">
         <v>8.276217832146945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>695583.7447759297</v>
+        <v>827335.0598296521</v>
       </c>
     </row>
     <row r="8">
@@ -11359,28 +11359,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>550.7085594816294</v>
+        <v>647.4467311750062</v>
       </c>
       <c r="AB8" t="n">
-        <v>753.5037466297169</v>
+        <v>885.8651809275248</v>
       </c>
       <c r="AC8" t="n">
-        <v>681.5904066005265</v>
+        <v>801.3194513793911</v>
       </c>
       <c r="AD8" t="n">
-        <v>550708.5594816294</v>
+        <v>647446.7311750063</v>
       </c>
       <c r="AE8" t="n">
-        <v>753503.7466297169</v>
+        <v>885865.1809275248</v>
       </c>
       <c r="AF8" t="n">
         <v>8.410994885489178e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.41666666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>681590.4066005265</v>
+        <v>801319.4513793911</v>
       </c>
     </row>
     <row r="9">
@@ -11465,28 +11465,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>541.2368381945118</v>
+        <v>637.9750098878885</v>
       </c>
       <c r="AB9" t="n">
-        <v>740.5441197018308</v>
+        <v>872.9055539996386</v>
       </c>
       <c r="AC9" t="n">
-        <v>669.8676282776871</v>
+        <v>789.5966730565519</v>
       </c>
       <c r="AD9" t="n">
-        <v>541236.8381945118</v>
+        <v>637975.0098878886</v>
       </c>
       <c r="AE9" t="n">
-        <v>740544.1197018308</v>
+        <v>872905.5539996387</v>
       </c>
       <c r="AF9" t="n">
         <v>8.52021787978793e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.15416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>669867.6282776871</v>
+        <v>789596.673056552</v>
       </c>
     </row>
     <row r="10">
@@ -11571,28 +11571,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>523.9576709745096</v>
+        <v>630.3753807881372</v>
       </c>
       <c r="AB10" t="n">
-        <v>716.9020008083664</v>
+        <v>862.5074061933851</v>
       </c>
       <c r="AC10" t="n">
-        <v>648.4818800294928</v>
+        <v>780.1909098830353</v>
       </c>
       <c r="AD10" t="n">
-        <v>523957.6709745096</v>
+        <v>630375.3807881372</v>
       </c>
       <c r="AE10" t="n">
-        <v>716902.0008083665</v>
+        <v>862507.4061933851</v>
       </c>
       <c r="AF10" t="n">
         <v>8.597704381403647e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.975</v>
       </c>
       <c r="AH10" t="n">
-        <v>648481.8800294928</v>
+        <v>780190.9098830352</v>
       </c>
     </row>
     <row r="11">
@@ -11677,28 +11677,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>517.4092348469788</v>
+        <v>623.8269446606066</v>
       </c>
       <c r="AB11" t="n">
-        <v>707.9421416020664</v>
+        <v>853.547546987085</v>
       </c>
       <c r="AC11" t="n">
-        <v>640.3771372106005</v>
+        <v>772.0861670641428</v>
       </c>
       <c r="AD11" t="n">
-        <v>517409.2348469789</v>
+        <v>623826.9446606066</v>
       </c>
       <c r="AE11" t="n">
-        <v>707942.1416020663</v>
+        <v>853547.5469870849</v>
       </c>
       <c r="AF11" t="n">
         <v>8.659528717799168e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>640377.1372106005</v>
+        <v>772086.1670641429</v>
       </c>
     </row>
     <row r="12">
@@ -11783,28 +11783,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>511.3872831067938</v>
+        <v>608.1927746078749</v>
       </c>
       <c r="AB12" t="n">
-        <v>699.7026415613844</v>
+        <v>832.1561857900338</v>
       </c>
       <c r="AC12" t="n">
-        <v>632.9240034895905</v>
+        <v>752.7363673567743</v>
       </c>
       <c r="AD12" t="n">
-        <v>511387.2831067938</v>
+        <v>608192.7746078749</v>
       </c>
       <c r="AE12" t="n">
-        <v>699702.6415613844</v>
+        <v>832156.1857900338</v>
       </c>
       <c r="AF12" t="n">
         <v>8.721765216437324e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.69166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>632924.0034895905</v>
+        <v>752736.3673567743</v>
       </c>
     </row>
     <row r="13">
@@ -11889,28 +11889,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>507.0271418312284</v>
+        <v>603.8326333323097</v>
       </c>
       <c r="AB13" t="n">
-        <v>693.7369039122988</v>
+        <v>826.190448140948</v>
       </c>
       <c r="AC13" t="n">
-        <v>627.5276274687681</v>
+        <v>747.3399913359519</v>
       </c>
       <c r="AD13" t="n">
-        <v>507027.1418312285</v>
+        <v>603832.6333323097</v>
       </c>
       <c r="AE13" t="n">
-        <v>693736.9039122987</v>
+        <v>826190.448140948</v>
       </c>
       <c r="AF13" t="n">
         <v>8.758035493789363e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.60833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>627527.627468768</v>
+        <v>747339.991335952</v>
       </c>
     </row>
     <row r="14">
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>501.6150096100332</v>
+        <v>598.4205011111144</v>
       </c>
       <c r="AB14" t="n">
-        <v>686.3317858408369</v>
+        <v>818.785330069486</v>
       </c>
       <c r="AC14" t="n">
-        <v>620.829243472898</v>
+        <v>740.6416073400818</v>
       </c>
       <c r="AD14" t="n">
-        <v>501615.0096100331</v>
+        <v>598420.5011111144</v>
       </c>
       <c r="AE14" t="n">
-        <v>686331.7858408369</v>
+        <v>818785.3300694861</v>
       </c>
       <c r="AF14" t="n">
         <v>8.802549015994137e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.50833333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>620829.243472898</v>
+        <v>740641.6073400818</v>
       </c>
     </row>
     <row r="15">
@@ -12101,28 +12101,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>497.2853606399091</v>
+        <v>593.989366914505</v>
       </c>
       <c r="AB15" t="n">
-        <v>680.4077691092816</v>
+        <v>812.7224567738415</v>
       </c>
       <c r="AC15" t="n">
-        <v>615.4706065837927</v>
+        <v>735.1573661624775</v>
       </c>
       <c r="AD15" t="n">
-        <v>497285.3606399091</v>
+        <v>593989.366914505</v>
       </c>
       <c r="AE15" t="n">
-        <v>680407.7691092816</v>
+        <v>812722.4567738415</v>
       </c>
       <c r="AF15" t="n">
         <v>8.832636859706623e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.44166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>615470.6065837927</v>
+        <v>735157.3661624775</v>
       </c>
     </row>
     <row r="16">
@@ -12207,28 +12207,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>493.6264310064359</v>
+        <v>590.3304372810319</v>
       </c>
       <c r="AB16" t="n">
-        <v>675.4014601641807</v>
+        <v>807.7161478287405</v>
       </c>
       <c r="AC16" t="n">
-        <v>610.9420927380133</v>
+        <v>730.6288523166983</v>
       </c>
       <c r="AD16" t="n">
-        <v>493626.4310064359</v>
+        <v>590330.4372810319</v>
       </c>
       <c r="AE16" t="n">
-        <v>675401.4601641806</v>
+        <v>807716.1478287405</v>
       </c>
       <c r="AF16" t="n">
         <v>8.86272470341911e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.37916666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>610942.0927380134</v>
+        <v>730628.8523166983</v>
       </c>
     </row>
     <row r="17">
@@ -12313,28 +12313,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>488.4607609813754</v>
+        <v>585.1647672559715</v>
       </c>
       <c r="AB17" t="n">
-        <v>668.3335625426154</v>
+        <v>800.6482502071752</v>
       </c>
       <c r="AC17" t="n">
-        <v>604.5487453455937</v>
+        <v>724.2355049242785</v>
       </c>
       <c r="AD17" t="n">
-        <v>488460.7609813754</v>
+        <v>585164.7672559714</v>
       </c>
       <c r="AE17" t="n">
-        <v>668333.5625426153</v>
+        <v>800648.2502071753</v>
       </c>
       <c r="AF17" t="n">
         <v>8.890339573675776e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.31666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>604548.7453455937</v>
+        <v>724235.5049242785</v>
       </c>
     </row>
     <row r="18">
@@ -12419,28 +12419,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>486.3197510344171</v>
+        <v>583.023757309013</v>
       </c>
       <c r="AB18" t="n">
-        <v>665.4041382784942</v>
+        <v>797.7188259430542</v>
       </c>
       <c r="AC18" t="n">
-        <v>601.8989012217676</v>
+        <v>721.5856608004524</v>
       </c>
       <c r="AD18" t="n">
-        <v>486319.7510344171</v>
+        <v>583023.757309013</v>
       </c>
       <c r="AE18" t="n">
-        <v>665404.1382784942</v>
+        <v>797718.8259430542</v>
       </c>
       <c r="AF18" t="n">
         <v>8.906001738895975e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.28333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>601898.9012217675</v>
+        <v>721585.6608004523</v>
       </c>
     </row>
     <row r="19">
@@ -12525,28 +12525,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>481.5426571380554</v>
+        <v>578.2466634126513</v>
       </c>
       <c r="AB19" t="n">
-        <v>658.8679076589835</v>
+        <v>791.1825953235435</v>
       </c>
       <c r="AC19" t="n">
-        <v>595.9864792789256</v>
+        <v>715.6732388576105</v>
       </c>
       <c r="AD19" t="n">
-        <v>481542.6571380554</v>
+        <v>578246.6634126513</v>
       </c>
       <c r="AE19" t="n">
-        <v>658867.9076589835</v>
+        <v>791182.5953235435</v>
       </c>
       <c r="AF19" t="n">
         <v>8.922900390844082e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.24583333333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>595986.4792789256</v>
+        <v>715673.2388576105</v>
       </c>
     </row>
     <row r="20">
@@ -12631,28 +12631,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>480.0812248807626</v>
+        <v>576.7852311553586</v>
       </c>
       <c r="AB20" t="n">
-        <v>656.8683115707147</v>
+        <v>789.1829992352748</v>
       </c>
       <c r="AC20" t="n">
-        <v>594.1777218348705</v>
+        <v>713.8644814135554</v>
       </c>
       <c r="AD20" t="n">
-        <v>480081.2248807626</v>
+        <v>576785.2311553586</v>
       </c>
       <c r="AE20" t="n">
-        <v>656868.3115707147</v>
+        <v>789182.9992352747</v>
       </c>
       <c r="AF20" t="n">
         <v>8.936089582608461e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.21666666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>594177.7218348704</v>
+        <v>713864.4814135553</v>
       </c>
     </row>
     <row r="21">
@@ -12737,28 +12737,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>478.5732634114963</v>
+        <v>575.2772696860922</v>
       </c>
       <c r="AB21" t="n">
-        <v>654.8050521618997</v>
+        <v>787.1197398264595</v>
       </c>
       <c r="AC21" t="n">
-        <v>592.31137700823</v>
+        <v>711.9981365869148</v>
       </c>
       <c r="AD21" t="n">
-        <v>478573.2634114963</v>
+        <v>575277.2696860922</v>
       </c>
       <c r="AE21" t="n">
-        <v>654805.0521618996</v>
+        <v>787119.7398264596</v>
       </c>
       <c r="AF21" t="n">
         <v>8.952576072313933e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.18333333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>592311.37700823</v>
+        <v>711998.1365869148</v>
       </c>
     </row>
     <row r="22">
@@ -12843,28 +12843,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>480.0053691318628</v>
+        <v>576.7093754064588</v>
       </c>
       <c r="AB22" t="n">
-        <v>656.7645223885503</v>
+        <v>789.0792100531104</v>
       </c>
       <c r="AC22" t="n">
-        <v>594.0838381465829</v>
+        <v>713.7705977252677</v>
       </c>
       <c r="AD22" t="n">
-        <v>480005.3691318628</v>
+        <v>576709.3754064587</v>
       </c>
       <c r="AE22" t="n">
-        <v>656764.5223885503</v>
+        <v>789079.2100531104</v>
       </c>
       <c r="AF22" t="n">
         <v>8.952163910071297e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.18333333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>594083.8381465829</v>
+        <v>713770.5977252678</v>
       </c>
     </row>
   </sheetData>
@@ -13140,28 +13140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.8231924464872</v>
+        <v>801.6984515761733</v>
       </c>
       <c r="AB2" t="n">
-        <v>917.8498865358511</v>
+        <v>1096.919189886025</v>
       </c>
       <c r="AC2" t="n">
-        <v>830.2515815752752</v>
+        <v>992.2307619390544</v>
       </c>
       <c r="AD2" t="n">
-        <v>670823.1924464871</v>
+        <v>801698.4515761733</v>
       </c>
       <c r="AE2" t="n">
-        <v>917849.8865358511</v>
+        <v>1096919.189886025</v>
       </c>
       <c r="AF2" t="n">
         <v>8.797896725168545e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.24583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>830251.5815752752</v>
+        <v>992230.7619390545</v>
       </c>
     </row>
     <row r="3">
@@ -13246,28 +13246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>475.6787750987917</v>
+        <v>587.8762251379483</v>
       </c>
       <c r="AB3" t="n">
-        <v>650.8446855566451</v>
+        <v>804.3581865023754</v>
       </c>
       <c r="AC3" t="n">
-        <v>588.7289822333715</v>
+        <v>727.5913701063931</v>
       </c>
       <c r="AD3" t="n">
-        <v>475678.7750987917</v>
+        <v>587876.2251379483</v>
       </c>
       <c r="AE3" t="n">
-        <v>650844.6855566452</v>
+        <v>804358.1865023754</v>
       </c>
       <c r="AF3" t="n">
         <v>1.093969817078435e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.9125</v>
       </c>
       <c r="AH3" t="n">
-        <v>588728.9822333716</v>
+        <v>727591.3701063931</v>
       </c>
     </row>
     <row r="4">
@@ -13352,28 +13352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>432.5838510549028</v>
+        <v>535.4599847731138</v>
       </c>
       <c r="AB4" t="n">
-        <v>591.8803092659285</v>
+        <v>732.6399739938879</v>
       </c>
       <c r="AC4" t="n">
-        <v>535.392083258819</v>
+        <v>662.717843142572</v>
       </c>
       <c r="AD4" t="n">
-        <v>432583.8510549028</v>
+        <v>535459.9847731137</v>
       </c>
       <c r="AE4" t="n">
-        <v>591880.3092659286</v>
+        <v>732639.9739938879</v>
       </c>
       <c r="AF4" t="n">
         <v>1.163752389023962e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.59583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>535392.083258819</v>
+        <v>662717.843142572</v>
       </c>
     </row>
     <row r="5">
@@ -13458,28 +13458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>404.5080756924694</v>
+        <v>507.3500439918994</v>
       </c>
       <c r="AB5" t="n">
-        <v>553.4657947992553</v>
+        <v>694.1787128939668</v>
       </c>
       <c r="AC5" t="n">
-        <v>500.6437961377354</v>
+        <v>627.9272708213085</v>
       </c>
       <c r="AD5" t="n">
-        <v>404508.0756924694</v>
+        <v>507350.0439918995</v>
       </c>
       <c r="AE5" t="n">
-        <v>553465.7947992552</v>
+        <v>694178.7128939668</v>
       </c>
       <c r="AF5" t="n">
         <v>1.201318769469493e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.95416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>500643.7961377354</v>
+        <v>627927.2708213085</v>
       </c>
     </row>
     <row r="6">
@@ -13564,28 +13564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>391.2725927796534</v>
+        <v>484.8274101769186</v>
       </c>
       <c r="AB6" t="n">
-        <v>535.3564231696446</v>
+        <v>663.3622516798329</v>
       </c>
       <c r="AC6" t="n">
-        <v>484.2627575197919</v>
+        <v>600.0518894142765</v>
       </c>
       <c r="AD6" t="n">
-        <v>391272.5927796534</v>
+        <v>484827.4101769186</v>
       </c>
       <c r="AE6" t="n">
-        <v>535356.4231696445</v>
+        <v>663362.2516798328</v>
       </c>
       <c r="AF6" t="n">
         <v>1.223697516779311e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.5875</v>
       </c>
       <c r="AH6" t="n">
-        <v>484262.757519792</v>
+        <v>600051.8894142765</v>
       </c>
     </row>
     <row r="7">
@@ -13670,28 +13670,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>387.1297771489253</v>
+        <v>480.5831093197052</v>
       </c>
       <c r="AB7" t="n">
-        <v>529.6880400555558</v>
+        <v>657.5550120016546</v>
       </c>
       <c r="AC7" t="n">
-        <v>479.1353569344861</v>
+        <v>594.7988845404716</v>
       </c>
       <c r="AD7" t="n">
-        <v>387129.7771489252</v>
+        <v>480583.1093197052</v>
       </c>
       <c r="AE7" t="n">
-        <v>529688.0400555558</v>
+        <v>657555.0120016546</v>
       </c>
       <c r="AF7" t="n">
         <v>1.231866622481096e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.45833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>479135.3569344861</v>
+        <v>594798.8845404716</v>
       </c>
     </row>
     <row r="8">
@@ -13776,28 +13776,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>388.4426612796216</v>
+        <v>481.8959934504016</v>
       </c>
       <c r="AB8" t="n">
-        <v>531.4843860435346</v>
+        <v>659.3513579896335</v>
       </c>
       <c r="AC8" t="n">
-        <v>480.7602621825597</v>
+        <v>596.4237897885454</v>
       </c>
       <c r="AD8" t="n">
-        <v>388442.6612796217</v>
+        <v>481895.9934504016</v>
       </c>
       <c r="AE8" t="n">
-        <v>531484.3860435346</v>
+        <v>659351.3579896335</v>
       </c>
       <c r="AF8" t="n">
         <v>1.231981680307882e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.45833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>480760.2621825597</v>
+        <v>596423.7897885453</v>
       </c>
     </row>
   </sheetData>
@@ -14073,28 +14073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>920.034530014705</v>
+        <v>1071.654166843882</v>
       </c>
       <c r="AB2" t="n">
-        <v>1258.831833024952</v>
+        <v>1466.284509120924</v>
       </c>
       <c r="AC2" t="n">
-        <v>1138.690689662624</v>
+        <v>1326.344373513656</v>
       </c>
       <c r="AD2" t="n">
-        <v>920034.5300147049</v>
+        <v>1071654.166843882</v>
       </c>
       <c r="AE2" t="n">
-        <v>1258831.833024952</v>
+        <v>1466284.509120923</v>
       </c>
       <c r="AF2" t="n">
         <v>6.619084476334179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1138690.689662624</v>
+        <v>1326344.373513656</v>
       </c>
     </row>
     <row r="3">
@@ -14179,28 +14179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>587.4100774367255</v>
+        <v>701.0994337519868</v>
       </c>
       <c r="AB3" t="n">
-        <v>803.720382652577</v>
+        <v>959.2751755835337</v>
       </c>
       <c r="AC3" t="n">
-        <v>727.0144373608562</v>
+        <v>867.7232991770052</v>
       </c>
       <c r="AD3" t="n">
-        <v>587410.0774367255</v>
+        <v>701099.4337519868</v>
       </c>
       <c r="AE3" t="n">
-        <v>803720.382652577</v>
+        <v>959275.1755835337</v>
       </c>
       <c r="AF3" t="n">
         <v>8.887887028285545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.35833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>727014.4373608562</v>
+        <v>867723.2991770052</v>
       </c>
     </row>
     <row r="4">
@@ -14285,28 +14285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>515.3981902269267</v>
+        <v>619.6049764137091</v>
       </c>
       <c r="AB4" t="n">
-        <v>705.1905416318839</v>
+        <v>847.7708637715866</v>
       </c>
       <c r="AC4" t="n">
-        <v>637.8881460796775</v>
+        <v>766.8608023871059</v>
       </c>
       <c r="AD4" t="n">
-        <v>515398.1902269266</v>
+        <v>619604.9764137091</v>
       </c>
       <c r="AE4" t="n">
-        <v>705190.5416318839</v>
+        <v>847770.8637715866</v>
       </c>
       <c r="AF4" t="n">
         <v>9.667071743097124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.475</v>
       </c>
       <c r="AH4" t="n">
-        <v>637888.1460796775</v>
+        <v>766860.8023871059</v>
       </c>
     </row>
     <row r="5">
@@ -14391,28 +14391,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>480.799978367028</v>
+        <v>585.0740843615148</v>
       </c>
       <c r="AB5" t="n">
-        <v>657.8517417997888</v>
+        <v>800.5241738703329</v>
       </c>
       <c r="AC5" t="n">
-        <v>595.0672948631346</v>
+        <v>724.1232702588821</v>
       </c>
       <c r="AD5" t="n">
-        <v>480799.9783670279</v>
+        <v>585074.0843615148</v>
       </c>
       <c r="AE5" t="n">
-        <v>657851.7417997888</v>
+        <v>800524.1738703329</v>
       </c>
       <c r="AF5" t="n">
         <v>1.007111189892334e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.6125</v>
       </c>
       <c r="AH5" t="n">
-        <v>595067.2948631346</v>
+        <v>724123.2702588822</v>
       </c>
     </row>
     <row r="6">
@@ -14497,28 +14497,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>465.6010035861819</v>
+        <v>560.3593850632664</v>
       </c>
       <c r="AB6" t="n">
-        <v>637.0558339731915</v>
+        <v>766.7084319548883</v>
       </c>
       <c r="AC6" t="n">
-        <v>576.2561192922681</v>
+        <v>693.5348552911556</v>
       </c>
       <c r="AD6" t="n">
-        <v>465601.0035861819</v>
+        <v>560359.3850632664</v>
       </c>
       <c r="AE6" t="n">
-        <v>637055.8339731916</v>
+        <v>766708.4319548883</v>
       </c>
       <c r="AF6" t="n">
         <v>1.031373527239727e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.12916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>576256.1192922681</v>
+        <v>693534.8552911556</v>
       </c>
     </row>
     <row r="7">
@@ -14603,28 +14603,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>444.9440194993725</v>
+        <v>549.1839600750786</v>
       </c>
       <c r="AB7" t="n">
-        <v>608.792037023799</v>
+        <v>751.4177224610953</v>
       </c>
       <c r="AC7" t="n">
-        <v>550.6897794552372</v>
+        <v>679.7034696508048</v>
       </c>
       <c r="AD7" t="n">
-        <v>444944.0194993725</v>
+        <v>549183.9600750786</v>
       </c>
       <c r="AE7" t="n">
-        <v>608792.037023799</v>
+        <v>751417.7224610953</v>
       </c>
       <c r="AF7" t="n">
         <v>1.04776430544772e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>550689.7794552372</v>
+        <v>679703.4696508048</v>
       </c>
     </row>
     <row r="8">
@@ -14709,28 +14709,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>435.6870986765823</v>
+        <v>530.5127999613712</v>
       </c>
       <c r="AB8" t="n">
-        <v>596.1263095675333</v>
+        <v>725.8710174800714</v>
       </c>
       <c r="AC8" t="n">
-        <v>539.2328512509374</v>
+        <v>656.5949063381443</v>
       </c>
       <c r="AD8" t="n">
-        <v>435687.0986765823</v>
+        <v>530512.7999613712</v>
       </c>
       <c r="AE8" t="n">
-        <v>596126.3095675333</v>
+        <v>725871.0174800714</v>
       </c>
       <c r="AF8" t="n">
         <v>1.059870564124141e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.5875</v>
       </c>
       <c r="AH8" t="n">
-        <v>539232.8512509374</v>
+        <v>656594.9063381442</v>
       </c>
     </row>
     <row r="9">
@@ -14815,28 +14815,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>428.3650176561534</v>
+        <v>523.089233714457</v>
       </c>
       <c r="AB9" t="n">
-        <v>586.1079152879659</v>
+        <v>715.7137666364147</v>
       </c>
       <c r="AC9" t="n">
-        <v>530.1705984605073</v>
+        <v>647.407049259215</v>
       </c>
       <c r="AD9" t="n">
-        <v>428365.0176561534</v>
+        <v>523089.233714457</v>
       </c>
       <c r="AE9" t="n">
-        <v>586107.9152879659</v>
+        <v>715713.7666364147</v>
       </c>
       <c r="AF9" t="n">
         <v>1.067194103323457e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.45</v>
       </c>
       <c r="AH9" t="n">
-        <v>530170.5984605073</v>
+        <v>647407.049259215</v>
       </c>
     </row>
     <row r="10">
@@ -14921,28 +14921,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>422.5110782364989</v>
+        <v>517.2352942948025</v>
       </c>
       <c r="AB10" t="n">
-        <v>578.0982971164143</v>
+        <v>707.7041484648632</v>
       </c>
       <c r="AC10" t="n">
-        <v>522.9254070056789</v>
+        <v>640.1618578043866</v>
       </c>
       <c r="AD10" t="n">
-        <v>422511.0782364989</v>
+        <v>517235.2942948025</v>
       </c>
       <c r="AE10" t="n">
-        <v>578098.2971164143</v>
+        <v>707704.1484648632</v>
       </c>
       <c r="AF10" t="n">
         <v>1.073421602642603e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.3375</v>
       </c>
       <c r="AH10" t="n">
-        <v>522925.4070056789</v>
+        <v>640161.8578043866</v>
       </c>
     </row>
     <row r="11">
@@ -15027,28 +15027,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>420.2841386305611</v>
+        <v>515.0083546888648</v>
       </c>
       <c r="AB11" t="n">
-        <v>575.0513001019286</v>
+        <v>704.6571514503775</v>
       </c>
       <c r="AC11" t="n">
-        <v>520.1692111097685</v>
+        <v>637.4056619084763</v>
       </c>
       <c r="AD11" t="n">
-        <v>420284.1386305611</v>
+        <v>515008.3546888648</v>
       </c>
       <c r="AE11" t="n">
-        <v>575051.3001019286</v>
+        <v>704657.1514503774</v>
       </c>
       <c r="AF11" t="n">
         <v>1.076460622310346e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.28333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>520169.2111097685</v>
+        <v>637405.6619084763</v>
       </c>
     </row>
     <row r="12">
@@ -15133,28 +15133,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>421.599766184955</v>
+        <v>516.3239822432586</v>
       </c>
       <c r="AB12" t="n">
-        <v>576.8513997632416</v>
+        <v>706.4572511116905</v>
       </c>
       <c r="AC12" t="n">
-        <v>521.7975117858616</v>
+        <v>639.0339625845694</v>
       </c>
       <c r="AD12" t="n">
-        <v>421599.766184955</v>
+        <v>516323.9822432586</v>
       </c>
       <c r="AE12" t="n">
-        <v>576851.3997632416</v>
+        <v>706457.2511116905</v>
       </c>
       <c r="AF12" t="n">
         <v>1.076659902288559e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.27916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>521797.5117858616</v>
+        <v>639033.9625845694</v>
       </c>
     </row>
   </sheetData>
@@ -15430,28 +15430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>522.1431042159996</v>
+        <v>642.3751002825221</v>
       </c>
       <c r="AB2" t="n">
-        <v>714.4192305163377</v>
+        <v>878.9259517958642</v>
       </c>
       <c r="AC2" t="n">
-        <v>646.2360618495452</v>
+        <v>795.042492536787</v>
       </c>
       <c r="AD2" t="n">
-        <v>522143.1042159996</v>
+        <v>642375.1002825222</v>
       </c>
       <c r="AE2" t="n">
-        <v>714419.2305163378</v>
+        <v>878925.9517958642</v>
       </c>
       <c r="AF2" t="n">
         <v>1.110667512543231e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.72083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>646236.0618495452</v>
+        <v>795042.4925367869</v>
       </c>
     </row>
     <row r="3">
@@ -15536,28 +15536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.2325838867066</v>
+        <v>503.9620935708748</v>
       </c>
       <c r="AB3" t="n">
-        <v>550.3523665229972</v>
+        <v>689.5431696620967</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.8275090864394</v>
+        <v>623.7341373294624</v>
       </c>
       <c r="AD3" t="n">
-        <v>402232.5838867066</v>
+        <v>503962.0935708748</v>
       </c>
       <c r="AE3" t="n">
-        <v>550352.3665229972</v>
+        <v>689543.1696620968</v>
       </c>
       <c r="AF3" t="n">
         <v>1.308869213879849e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.975</v>
       </c>
       <c r="AH3" t="n">
-        <v>497827.5090864394</v>
+        <v>623734.1373294624</v>
       </c>
     </row>
     <row r="4">
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>366.7678689524951</v>
+        <v>468.4632132178824</v>
       </c>
       <c r="AB4" t="n">
-        <v>501.8279789572096</v>
+        <v>640.9720354630614</v>
       </c>
       <c r="AC4" t="n">
-        <v>453.9342209655248</v>
+        <v>579.798564008368</v>
       </c>
       <c r="AD4" t="n">
-        <v>366767.868952495</v>
+        <v>468463.2132178824</v>
       </c>
       <c r="AE4" t="n">
-        <v>501827.9789572096</v>
+        <v>640972.0354630614</v>
       </c>
       <c r="AF4" t="n">
         <v>1.377001048714312e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.9375</v>
       </c>
       <c r="AH4" t="n">
-        <v>453934.2209655248</v>
+        <v>579798.5640083679</v>
       </c>
     </row>
     <row r="5">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>361.3473892443437</v>
+        <v>453.8598211561155</v>
       </c>
       <c r="AB5" t="n">
-        <v>494.4114394858295</v>
+        <v>620.9910301879635</v>
       </c>
       <c r="AC5" t="n">
-        <v>447.2255056121147</v>
+        <v>561.7245178332083</v>
       </c>
       <c r="AD5" t="n">
-        <v>361347.3892443437</v>
+        <v>453859.8211561155</v>
       </c>
       <c r="AE5" t="n">
-        <v>494411.4394858295</v>
+        <v>620991.0301879635</v>
       </c>
       <c r="AF5" t="n">
         <v>1.390838268554966e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.74166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>447225.5056121147</v>
+        <v>561724.5178332083</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1879.609365214283</v>
+        <v>2102.880559868518</v>
       </c>
       <c r="AB2" t="n">
-        <v>2571.764455998998</v>
+        <v>2877.25395455485</v>
       </c>
       <c r="AC2" t="n">
-        <v>2326.318865812537</v>
+        <v>2602.652875383423</v>
       </c>
       <c r="AD2" t="n">
-        <v>1879609.365214283</v>
+        <v>2102880.559868518</v>
       </c>
       <c r="AE2" t="n">
-        <v>2571764.455998998</v>
+        <v>2877253.95455485</v>
       </c>
       <c r="AF2" t="n">
         <v>3.742521726593957e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.77916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2326318.865812537</v>
+        <v>2602652.875383423</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>859.8228666268975</v>
+        <v>986.0057853227219</v>
       </c>
       <c r="AB3" t="n">
-        <v>1176.447578826641</v>
+        <v>1349.096614983756</v>
       </c>
       <c r="AC3" t="n">
-        <v>1064.169073057973</v>
+        <v>1220.340727518697</v>
       </c>
       <c r="AD3" t="n">
-        <v>859822.8666268975</v>
+        <v>986005.7853227218</v>
       </c>
       <c r="AE3" t="n">
-        <v>1176447.578826641</v>
+        <v>1349096.614983756</v>
       </c>
       <c r="AF3" t="n">
         <v>6.204823500931217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.00833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1064169.073057973</v>
+        <v>1220340.727518697</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>701.9349075075415</v>
+        <v>818.4420518934628</v>
       </c>
       <c r="AB4" t="n">
-        <v>960.4183076343843</v>
+        <v>1119.828522515654</v>
       </c>
       <c r="AC4" t="n">
-        <v>868.7573323093186</v>
+        <v>1012.953660015961</v>
       </c>
       <c r="AD4" t="n">
-        <v>701934.9075075416</v>
+        <v>818442.0518934628</v>
       </c>
       <c r="AE4" t="n">
-        <v>960418.3076343843</v>
+        <v>1119828.522515654</v>
       </c>
       <c r="AF4" t="n">
         <v>7.075598303518635e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.68333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>868757.3323093186</v>
+        <v>1012953.660015961</v>
       </c>
     </row>
     <row r="5">
@@ -16363,28 +16363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>642.7747844079807</v>
+        <v>749.5056802873706</v>
       </c>
       <c r="AB5" t="n">
-        <v>879.4728172491358</v>
+        <v>1025.506737626125</v>
       </c>
       <c r="AC5" t="n">
-        <v>795.537165918729</v>
+        <v>927.6338138948325</v>
       </c>
       <c r="AD5" t="n">
-        <v>642774.7844079807</v>
+        <v>749505.6802873707</v>
       </c>
       <c r="AE5" t="n">
-        <v>879472.8172491358</v>
+        <v>1025506.737626124</v>
       </c>
       <c r="AF5" t="n">
         <v>7.540950010952187e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.225</v>
       </c>
       <c r="AH5" t="n">
-        <v>795537.165918729</v>
+        <v>927633.8138948325</v>
       </c>
     </row>
     <row r="6">
@@ -16469,28 +16469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>606.5856451457761</v>
+        <v>713.2823756063852</v>
       </c>
       <c r="AB6" t="n">
-        <v>829.957240358442</v>
+        <v>975.944414102183</v>
       </c>
       <c r="AC6" t="n">
-        <v>750.7472861909345</v>
+        <v>882.8016489668579</v>
       </c>
       <c r="AD6" t="n">
-        <v>606585.6451457761</v>
+        <v>713282.3756063853</v>
       </c>
       <c r="AE6" t="n">
-        <v>829957.2403584421</v>
+        <v>975944.4141021831</v>
       </c>
       <c r="AF6" t="n">
         <v>7.82249382703126e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.425</v>
       </c>
       <c r="AH6" t="n">
-        <v>750747.2861909345</v>
+        <v>882801.6489668579</v>
       </c>
     </row>
     <row r="7">
@@ -16575,28 +16575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>579.1625481925396</v>
+        <v>685.9265984608533</v>
       </c>
       <c r="AB7" t="n">
-        <v>792.4357492853712</v>
+        <v>938.5150329599538</v>
       </c>
       <c r="AC7" t="n">
-        <v>716.8067935641341</v>
+        <v>848.9444754283768</v>
       </c>
       <c r="AD7" t="n">
-        <v>579162.5481925396</v>
+        <v>685926.5984608532</v>
       </c>
       <c r="AE7" t="n">
-        <v>792435.7492853713</v>
+        <v>938515.0329599539</v>
       </c>
       <c r="AF7" t="n">
         <v>8.015150238319652e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.90833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>716806.793564134</v>
+        <v>848944.4754283768</v>
       </c>
     </row>
     <row r="8">
@@ -16681,28 +16681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>565.9803007127742</v>
+        <v>672.7443509810879</v>
       </c>
       <c r="AB8" t="n">
-        <v>774.3992167238421</v>
+        <v>920.4785003984246</v>
       </c>
       <c r="AC8" t="n">
-        <v>700.4916423558449</v>
+        <v>832.6293242200874</v>
       </c>
       <c r="AD8" t="n">
-        <v>565980.3007127743</v>
+        <v>672744.3509810879</v>
       </c>
       <c r="AE8" t="n">
-        <v>774399.2167238421</v>
+        <v>920478.5003984246</v>
       </c>
       <c r="AF8" t="n">
         <v>8.162357433583854e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.53333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>700491.6423558448</v>
+        <v>832629.3242200874</v>
       </c>
     </row>
     <row r="9">
@@ -16787,28 +16787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>556.2194329411476</v>
+        <v>653.241400121711</v>
       </c>
       <c r="AB9" t="n">
-        <v>761.0439668196079</v>
+        <v>893.7937026231576</v>
       </c>
       <c r="AC9" t="n">
-        <v>688.4109987582598</v>
+        <v>808.4912860921429</v>
       </c>
       <c r="AD9" t="n">
-        <v>556219.4329411476</v>
+        <v>653241.400121711</v>
       </c>
       <c r="AE9" t="n">
-        <v>761043.9668196079</v>
+        <v>893793.7026231576</v>
       </c>
       <c r="AF9" t="n">
         <v>8.266528645533111e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.275</v>
       </c>
       <c r="AH9" t="n">
-        <v>688410.9987582598</v>
+        <v>808491.2860921429</v>
       </c>
     </row>
     <row r="10">
@@ -16893,28 +16893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>548.4276815263323</v>
+        <v>645.4496487068956</v>
       </c>
       <c r="AB10" t="n">
-        <v>750.3829487860456</v>
+        <v>883.1326845895956</v>
       </c>
       <c r="AC10" t="n">
-        <v>678.7674533229879</v>
+        <v>798.8477406568711</v>
       </c>
       <c r="AD10" t="n">
-        <v>548427.6815263323</v>
+        <v>645449.6487068955</v>
       </c>
       <c r="AE10" t="n">
-        <v>750382.9487860457</v>
+        <v>883132.6845895955</v>
       </c>
       <c r="AF10" t="n">
         <v>8.348980763099126e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.07083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>678767.4533229879</v>
+        <v>798847.7406568711</v>
       </c>
     </row>
     <row r="11">
@@ -16999,28 +16999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>533.4184767642662</v>
+        <v>640.148361613799</v>
       </c>
       <c r="AB11" t="n">
-        <v>729.8466926712056</v>
+        <v>875.8792297125403</v>
       </c>
       <c r="AC11" t="n">
-        <v>660.1911486689316</v>
+        <v>792.2865453329944</v>
       </c>
       <c r="AD11" t="n">
-        <v>533418.4767642661</v>
+        <v>640148.361613799</v>
       </c>
       <c r="AE11" t="n">
-        <v>729846.6926712056</v>
+        <v>875879.2297125403</v>
       </c>
       <c r="AF11" t="n">
         <v>8.404887320863398e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.9375</v>
       </c>
       <c r="AH11" t="n">
-        <v>660191.1486689317</v>
+        <v>792286.5453329943</v>
       </c>
     </row>
     <row r="12">
@@ -17105,28 +17105,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>527.7713095172629</v>
+        <v>634.5011943667959</v>
       </c>
       <c r="AB12" t="n">
-        <v>722.11998930842</v>
+        <v>868.1525263497546</v>
       </c>
       <c r="AC12" t="n">
-        <v>653.201871030594</v>
+        <v>785.2972676946567</v>
       </c>
       <c r="AD12" t="n">
-        <v>527771.309517263</v>
+        <v>634501.1943667958</v>
       </c>
       <c r="AE12" t="n">
-        <v>722119.98930842</v>
+        <v>868152.5263497545</v>
       </c>
       <c r="AF12" t="n">
         <v>8.453151975048382e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.825</v>
       </c>
       <c r="AH12" t="n">
-        <v>653201.871030594</v>
+        <v>785297.2676946567</v>
       </c>
     </row>
     <row r="13">
@@ -17211,28 +17211,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>521.45777413267</v>
+        <v>618.5470611209377</v>
       </c>
       <c r="AB13" t="n">
-        <v>713.4815316616966</v>
+        <v>846.3233773960877</v>
       </c>
       <c r="AC13" t="n">
-        <v>645.3878556575224</v>
+        <v>765.5514620797247</v>
       </c>
       <c r="AD13" t="n">
-        <v>521457.77413267</v>
+        <v>618547.0611209377</v>
       </c>
       <c r="AE13" t="n">
-        <v>713481.5316616966</v>
+        <v>846323.3773960877</v>
       </c>
       <c r="AF13" t="n">
         <v>8.517504847295028e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.675</v>
       </c>
       <c r="AH13" t="n">
-        <v>645387.8556575225</v>
+        <v>765551.4620797248</v>
       </c>
     </row>
     <row r="14">
@@ -17317,28 +17317,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>518.3525471085644</v>
+        <v>615.4418340968319</v>
       </c>
       <c r="AB14" t="n">
-        <v>709.2328230543676</v>
+        <v>842.0746687887586</v>
       </c>
       <c r="AC14" t="n">
-        <v>641.544637836577</v>
+        <v>761.7082442587791</v>
       </c>
       <c r="AD14" t="n">
-        <v>518352.5471085644</v>
+        <v>615441.834096832</v>
       </c>
       <c r="AE14" t="n">
-        <v>709232.8230543676</v>
+        <v>842074.6687887586</v>
       </c>
       <c r="AF14" t="n">
         <v>8.542843790742144e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.61666666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>641544.6378365769</v>
+        <v>761708.2442587791</v>
       </c>
     </row>
     <row r="15">
@@ -17423,28 +17423,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>512.1256276346342</v>
+        <v>609.2149146229018</v>
       </c>
       <c r="AB15" t="n">
-        <v>700.7128771178374</v>
+        <v>833.5547228522285</v>
       </c>
       <c r="AC15" t="n">
-        <v>633.8378235824099</v>
+        <v>754.0014300046121</v>
       </c>
       <c r="AD15" t="n">
-        <v>512125.6276346341</v>
+        <v>609214.9146229018</v>
       </c>
       <c r="AE15" t="n">
-        <v>700712.8771178373</v>
+        <v>833554.7228522284</v>
       </c>
       <c r="AF15" t="n">
         <v>8.591510650378668e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.50416666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>633837.8235824099</v>
+        <v>754001.4300046121</v>
       </c>
     </row>
     <row r="16">
@@ -17529,28 +17529,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>508.0819371775447</v>
+        <v>605.0697389393272</v>
       </c>
       <c r="AB16" t="n">
-        <v>695.1801214394151</v>
+        <v>827.8831106097168</v>
       </c>
       <c r="AC16" t="n">
-        <v>628.8331063406649</v>
+        <v>748.8711084743683</v>
       </c>
       <c r="AD16" t="n">
-        <v>508081.9371775447</v>
+        <v>605069.7389393272</v>
       </c>
       <c r="AE16" t="n">
-        <v>695180.121439415</v>
+        <v>827883.1106097169</v>
       </c>
       <c r="AF16" t="n">
         <v>8.620469442889659e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.44166666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>628833.1063406649</v>
+        <v>748871.1084743682</v>
       </c>
     </row>
     <row r="17">
@@ -17635,28 +17635,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>505.6214063968947</v>
+        <v>602.6092081586772</v>
       </c>
       <c r="AB17" t="n">
-        <v>691.8135146743728</v>
+        <v>824.5165038446747</v>
       </c>
       <c r="AC17" t="n">
-        <v>625.7878038002159</v>
+        <v>745.8258059339192</v>
       </c>
       <c r="AD17" t="n">
-        <v>505621.4063968947</v>
+        <v>602609.2081586772</v>
       </c>
       <c r="AE17" t="n">
-        <v>691813.5146743727</v>
+        <v>824516.5038446747</v>
       </c>
       <c r="AF17" t="n">
         <v>8.630524579178197e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.41666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>625787.8038002159</v>
+        <v>745825.8059339193</v>
       </c>
     </row>
     <row r="18">
@@ -17741,28 +17741,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>501.680240931423</v>
+        <v>598.6680426932054</v>
       </c>
       <c r="AB18" t="n">
-        <v>686.4210382125653</v>
+        <v>819.1240273828672</v>
       </c>
       <c r="AC18" t="n">
-        <v>620.9099777235351</v>
+        <v>740.9479798572385</v>
       </c>
       <c r="AD18" t="n">
-        <v>501680.240931423</v>
+        <v>598668.0426932054</v>
       </c>
       <c r="AE18" t="n">
-        <v>686421.0382125654</v>
+        <v>819124.0273828672</v>
       </c>
       <c r="AF18" t="n">
         <v>8.661092193495353e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.35</v>
       </c>
       <c r="AH18" t="n">
-        <v>620909.9777235352</v>
+        <v>740947.9798572385</v>
       </c>
     </row>
     <row r="19">
@@ -17847,28 +17847,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>497.7343372921708</v>
+        <v>594.7221390539534</v>
       </c>
       <c r="AB19" t="n">
-        <v>681.022078772358</v>
+        <v>813.7250679426598</v>
       </c>
       <c r="AC19" t="n">
-        <v>616.0262873948141</v>
+        <v>736.0642895285174</v>
       </c>
       <c r="AD19" t="n">
-        <v>497734.3372921709</v>
+        <v>594722.1390539533</v>
       </c>
       <c r="AE19" t="n">
-        <v>681022.078772358</v>
+        <v>813725.0679426598</v>
       </c>
       <c r="AF19" t="n">
         <v>8.681604671523973e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.30416666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>616026.2873948141</v>
+        <v>736064.2895285174</v>
       </c>
     </row>
     <row r="20">
@@ -17953,28 +17953,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>494.3175945145443</v>
+        <v>591.3053962763269</v>
       </c>
       <c r="AB20" t="n">
-        <v>676.3471405679564</v>
+        <v>809.0501297382583</v>
       </c>
       <c r="AC20" t="n">
-        <v>611.7975187313236</v>
+        <v>731.8355208650269</v>
       </c>
       <c r="AD20" t="n">
-        <v>494317.5945145444</v>
+        <v>591305.3962763269</v>
       </c>
       <c r="AE20" t="n">
-        <v>676347.1405679565</v>
+        <v>809050.1297382583</v>
       </c>
       <c r="AF20" t="n">
         <v>8.691257602360968e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.28333333333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>611797.5187313237</v>
+        <v>731835.5208650269</v>
       </c>
     </row>
     <row r="21">
@@ -18059,28 +18059,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>491.5079951197275</v>
+        <v>588.4957968815099</v>
       </c>
       <c r="AB21" t="n">
-        <v>672.5029227251906</v>
+        <v>805.2059118954925</v>
       </c>
       <c r="AC21" t="n">
-        <v>608.3201876440777</v>
+        <v>728.358189777781</v>
       </c>
       <c r="AD21" t="n">
-        <v>491507.9951197274</v>
+        <v>588495.7968815099</v>
       </c>
       <c r="AE21" t="n">
-        <v>672502.9227251906</v>
+        <v>805205.9118954925</v>
       </c>
       <c r="AF21" t="n">
         <v>8.706139204068006e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.25</v>
       </c>
       <c r="AH21" t="n">
-        <v>608320.1876440777</v>
+        <v>728358.189777781</v>
       </c>
     </row>
     <row r="22">
@@ -18165,28 +18165,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>489.4889891002242</v>
+        <v>586.4767908620067</v>
       </c>
       <c r="AB22" t="n">
-        <v>669.7404296170472</v>
+        <v>802.4434187873491</v>
       </c>
       <c r="AC22" t="n">
-        <v>605.8213430009921</v>
+        <v>725.8593451346956</v>
       </c>
       <c r="AD22" t="n">
-        <v>489488.9891002242</v>
+        <v>586476.7908620067</v>
       </c>
       <c r="AE22" t="n">
-        <v>669740.4296170472</v>
+        <v>802443.418787349</v>
       </c>
       <c r="AF22" t="n">
         <v>8.722629627581208e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.2125</v>
       </c>
       <c r="AH22" t="n">
-        <v>605821.3430009921</v>
+        <v>725859.3451346955</v>
       </c>
     </row>
     <row r="23">
@@ -18271,28 +18271,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>488.8142742809189</v>
+        <v>585.8020760427013</v>
       </c>
       <c r="AB23" t="n">
-        <v>668.8172550349565</v>
+        <v>801.5202442052585</v>
       </c>
       <c r="AC23" t="n">
-        <v>604.9862749053326</v>
+        <v>725.0242770390358</v>
       </c>
       <c r="AD23" t="n">
-        <v>488814.2742809189</v>
+        <v>585802.0760427013</v>
       </c>
       <c r="AE23" t="n">
-        <v>668817.2550349565</v>
+        <v>801520.2442052584</v>
       </c>
       <c r="AF23" t="n">
         <v>8.723836243935834e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.20833333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>604986.2749053326</v>
+        <v>725024.2770390358</v>
       </c>
     </row>
     <row r="24">
@@ -18377,28 +18377,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>488.9692331459196</v>
+        <v>585.9570349077021</v>
       </c>
       <c r="AB24" t="n">
-        <v>669.0292765903533</v>
+        <v>801.7322657606551</v>
       </c>
       <c r="AC24" t="n">
-        <v>605.1780614210563</v>
+        <v>725.2160635547596</v>
       </c>
       <c r="AD24" t="n">
-        <v>488969.2331459196</v>
+        <v>585957.0349077021</v>
       </c>
       <c r="AE24" t="n">
-        <v>669029.2765903533</v>
+        <v>801732.265760655</v>
       </c>
       <c r="AF24" t="n">
         <v>8.719814189420418e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19.22083333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>605178.0614210563</v>
+        <v>725216.0635547596</v>
       </c>
     </row>
   </sheetData>
@@ -18674,28 +18674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.7765882904185</v>
+        <v>564.9493234214752</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.2453914260282</v>
+        <v>772.9885881103785</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.8591645952193</v>
+        <v>699.2156421574205</v>
       </c>
       <c r="AD2" t="n">
-        <v>454776.5882904185</v>
+        <v>564949.3234214752</v>
       </c>
       <c r="AE2" t="n">
-        <v>622245.3914260282</v>
+        <v>772988.5881103785</v>
       </c>
       <c r="AF2" t="n">
         <v>1.28153229413602e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.44166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>562859.1645952193</v>
+        <v>699215.6421574205</v>
       </c>
     </row>
     <row r="3">
@@ -18780,28 +18780,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>365.1164199189607</v>
+        <v>456.9442837425412</v>
       </c>
       <c r="AB3" t="n">
-        <v>499.5683935327384</v>
+        <v>625.2113279755968</v>
       </c>
       <c r="AC3" t="n">
-        <v>451.8902872026171</v>
+        <v>565.5420363232149</v>
       </c>
       <c r="AD3" t="n">
-        <v>365116.4199189607</v>
+        <v>456944.2837425413</v>
       </c>
       <c r="AE3" t="n">
-        <v>499568.3935327384</v>
+        <v>625211.3279755968</v>
       </c>
       <c r="AF3" t="n">
         <v>1.471725385102592e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.4125</v>
       </c>
       <c r="AH3" t="n">
-        <v>451890.287202617</v>
+        <v>565542.0363232149</v>
       </c>
     </row>
     <row r="4">
@@ -18886,28 +18886,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>346.2184594223261</v>
+        <v>447.2348305791779</v>
       </c>
       <c r="AB4" t="n">
-        <v>473.7113702620667</v>
+        <v>611.9264258066409</v>
       </c>
       <c r="AC4" t="n">
-        <v>428.5010219423382</v>
+        <v>553.525026571787</v>
       </c>
       <c r="AD4" t="n">
-        <v>346218.4594223261</v>
+        <v>447234.8305791779</v>
       </c>
       <c r="AE4" t="n">
-        <v>473711.3702620667</v>
+        <v>611926.4258066409</v>
       </c>
       <c r="AF4" t="n">
         <v>1.503376168625839e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>19.98333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>428501.0219423382</v>
+        <v>553525.026571787</v>
       </c>
     </row>
   </sheetData>
@@ -19183,28 +19183,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1246.220783590263</v>
+        <v>1418.745451887233</v>
       </c>
       <c r="AB2" t="n">
-        <v>1705.13425548892</v>
+        <v>1941.190117904025</v>
       </c>
       <c r="AC2" t="n">
-        <v>1542.398635316015</v>
+        <v>1755.925657528706</v>
       </c>
       <c r="AD2" t="n">
-        <v>1246220.783590263</v>
+        <v>1418745.451887233</v>
       </c>
       <c r="AE2" t="n">
-        <v>1705134.25548892</v>
+        <v>1941190.117904025</v>
       </c>
       <c r="AF2" t="n">
         <v>5.148126305467332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.275</v>
       </c>
       <c r="AH2" t="n">
-        <v>1542398.635316015</v>
+        <v>1755925.657528706</v>
       </c>
     </row>
     <row r="3">
@@ -19289,28 +19289,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>691.0002412066741</v>
+        <v>815.6158449746031</v>
       </c>
       <c r="AB3" t="n">
-        <v>945.4570147981066</v>
+        <v>1115.96158152582</v>
       </c>
       <c r="AC3" t="n">
-        <v>855.2239242630292</v>
+        <v>1009.455774446912</v>
       </c>
       <c r="AD3" t="n">
-        <v>691000.2412066741</v>
+        <v>815615.844974603</v>
       </c>
       <c r="AE3" t="n">
-        <v>945457.0147981066</v>
+        <v>1115961.58152582</v>
       </c>
       <c r="AF3" t="n">
         <v>7.523874328909686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.82083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>855223.9242630291</v>
+        <v>1009455.774446912</v>
       </c>
     </row>
     <row r="4">
@@ -19395,28 +19395,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>594.8506395977479</v>
+        <v>700.256201409567</v>
       </c>
       <c r="AB4" t="n">
-        <v>813.9008880557234</v>
+        <v>958.1214278918492</v>
       </c>
       <c r="AC4" t="n">
-        <v>736.2233296167553</v>
+        <v>866.6796635457202</v>
       </c>
       <c r="AD4" t="n">
-        <v>594850.6395977479</v>
+        <v>700256.201409567</v>
       </c>
       <c r="AE4" t="n">
-        <v>813900.8880557234</v>
+        <v>958121.4278918492</v>
       </c>
       <c r="AF4" t="n">
         <v>8.350299410069411e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.3625</v>
       </c>
       <c r="AH4" t="n">
-        <v>736223.3296167554</v>
+        <v>866679.6635457203</v>
       </c>
     </row>
     <row r="5">
@@ -19501,28 +19501,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>552.4074232843556</v>
+        <v>657.7788196773939</v>
       </c>
       <c r="AB5" t="n">
-        <v>755.8282070331882</v>
+        <v>900.0020002360662</v>
       </c>
       <c r="AC5" t="n">
-        <v>683.693023765491</v>
+        <v>814.1070724942758</v>
       </c>
       <c r="AD5" t="n">
-        <v>552407.4232843556</v>
+        <v>657778.8196773939</v>
       </c>
       <c r="AE5" t="n">
-        <v>755828.2070331882</v>
+        <v>900002.0002360663</v>
       </c>
       <c r="AF5" t="n">
         <v>8.770682667188621e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.29166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>683693.0237654911</v>
+        <v>814107.0724942759</v>
       </c>
     </row>
     <row r="6">
@@ -19607,28 +19607,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>522.9669950300166</v>
+        <v>628.4057112307594</v>
       </c>
       <c r="AB6" t="n">
-        <v>715.5465142755731</v>
+        <v>859.8124174092926</v>
       </c>
       <c r="AC6" t="n">
-        <v>647.255759228952</v>
+        <v>777.7531270460561</v>
       </c>
       <c r="AD6" t="n">
-        <v>522966.9950300166</v>
+        <v>628405.7112307594</v>
       </c>
       <c r="AE6" t="n">
-        <v>715546.5142755732</v>
+        <v>859812.4174092927</v>
       </c>
       <c r="AF6" t="n">
         <v>9.035102839577036e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>647255.759228952</v>
+        <v>777753.1270460561</v>
       </c>
     </row>
     <row r="7">
@@ -19713,28 +19713,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>510.0802182382265</v>
+        <v>605.8973362664527</v>
       </c>
       <c r="AB7" t="n">
-        <v>697.9142577445784</v>
+        <v>829.0154657837071</v>
       </c>
       <c r="AC7" t="n">
-        <v>631.3063005142478</v>
+        <v>749.8953932598233</v>
       </c>
       <c r="AD7" t="n">
-        <v>510080.2182382265</v>
+        <v>605897.3362664527</v>
       </c>
       <c r="AE7" t="n">
-        <v>697914.2577445784</v>
+        <v>829015.4657837071</v>
       </c>
       <c r="AF7" t="n">
         <v>9.208992715656198e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.27916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>631306.3005142479</v>
+        <v>749895.3932598233</v>
       </c>
     </row>
     <row r="8">
@@ -19819,28 +19819,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>500.4920168371988</v>
+        <v>596.3091348654249</v>
       </c>
       <c r="AB8" t="n">
-        <v>684.7952575861003</v>
+        <v>815.8964656252292</v>
       </c>
       <c r="AC8" t="n">
-        <v>619.4393593182626</v>
+        <v>738.0284520638381</v>
       </c>
       <c r="AD8" t="n">
-        <v>500492.0168371988</v>
+        <v>596309.1348654248</v>
       </c>
       <c r="AE8" t="n">
-        <v>684795.2575861004</v>
+        <v>815896.4656252292</v>
       </c>
       <c r="AF8" t="n">
         <v>9.335376594662186e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.00416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>619439.3593182627</v>
+        <v>738028.4520638381</v>
       </c>
     </row>
     <row r="9">
@@ -19925,28 +19925,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>481.791387842239</v>
+        <v>577.6758256781695</v>
       </c>
       <c r="AB9" t="n">
-        <v>659.2082319816718</v>
+        <v>790.4015499516421</v>
       </c>
       <c r="AC9" t="n">
-        <v>596.2943235259047</v>
+        <v>714.9667353597991</v>
       </c>
       <c r="AD9" t="n">
-        <v>481791.387842239</v>
+        <v>577675.8256781695</v>
       </c>
       <c r="AE9" t="n">
-        <v>659208.2319816718</v>
+        <v>790401.5499516421</v>
       </c>
       <c r="AF9" t="n">
         <v>9.434870286645622e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.79166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>596294.3235259047</v>
+        <v>714966.7353597991</v>
       </c>
     </row>
     <row r="10">
@@ -20031,28 +20031,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>475.3015727032808</v>
+        <v>571.1860105392115</v>
       </c>
       <c r="AB10" t="n">
-        <v>650.3285805981121</v>
+        <v>781.5218985680824</v>
       </c>
       <c r="AC10" t="n">
-        <v>588.2621336077231</v>
+        <v>706.9345454416175</v>
       </c>
       <c r="AD10" t="n">
-        <v>475301.5727032808</v>
+        <v>571186.0105392114</v>
       </c>
       <c r="AE10" t="n">
-        <v>650328.5805981121</v>
+        <v>781521.8985680824</v>
       </c>
       <c r="AF10" t="n">
         <v>9.509714640525056e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.6375</v>
       </c>
       <c r="AH10" t="n">
-        <v>588262.1336077231</v>
+        <v>706934.5454416175</v>
       </c>
     </row>
     <row r="11">
@@ -20137,28 +20137,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>469.2623001962385</v>
+        <v>565.146738032169</v>
       </c>
       <c r="AB11" t="n">
-        <v>642.0653815200775</v>
+        <v>773.2586994900478</v>
       </c>
       <c r="AC11" t="n">
-        <v>580.7875626522233</v>
+        <v>699.4599744861179</v>
       </c>
       <c r="AD11" t="n">
-        <v>469262.3001962384</v>
+        <v>565146.7380321689</v>
       </c>
       <c r="AE11" t="n">
-        <v>642065.3815200775</v>
+        <v>773258.6994900478</v>
       </c>
       <c r="AF11" t="n">
         <v>9.567976712407248e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.51666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>580787.5626522233</v>
+        <v>699459.9744861178</v>
       </c>
     </row>
     <row r="12">
@@ -20243,28 +20243,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>462.6167933419171</v>
+        <v>558.3997459513624</v>
       </c>
       <c r="AB12" t="n">
-        <v>632.9727058629243</v>
+        <v>764.0271672688052</v>
       </c>
       <c r="AC12" t="n">
-        <v>572.5626791981383</v>
+        <v>691.1094867435338</v>
       </c>
       <c r="AD12" t="n">
-        <v>462616.7933419171</v>
+        <v>558399.7459513624</v>
       </c>
       <c r="AE12" t="n">
-        <v>632972.7058629242</v>
+        <v>764027.1672688052</v>
       </c>
       <c r="AF12" t="n">
         <v>9.617275388615259e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.41666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>572562.6791981383</v>
+        <v>691109.4867435338</v>
       </c>
     </row>
     <row r="13">
@@ -20349,28 +20349,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>457.4308848012771</v>
+        <v>553.2138374107224</v>
       </c>
       <c r="AB13" t="n">
-        <v>625.8771170114827</v>
+        <v>756.9315784173637</v>
       </c>
       <c r="AC13" t="n">
-        <v>566.1442833879568</v>
+        <v>684.6910909333523</v>
       </c>
       <c r="AD13" t="n">
-        <v>457430.8848012771</v>
+        <v>553213.8374107224</v>
       </c>
       <c r="AE13" t="n">
-        <v>625877.1170114827</v>
+        <v>756931.5784173637</v>
       </c>
       <c r="AF13" t="n">
         <v>9.65895517850021e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>566144.2833879568</v>
+        <v>684691.0909333522</v>
       </c>
     </row>
     <row r="14">
@@ -20455,28 +20455,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>453.0822697434388</v>
+        <v>548.8652223528841</v>
       </c>
       <c r="AB14" t="n">
-        <v>619.9271500419917</v>
+        <v>750.9816114478729</v>
       </c>
       <c r="AC14" t="n">
-        <v>560.762172915203</v>
+        <v>679.3089804605986</v>
       </c>
       <c r="AD14" t="n">
-        <v>453082.2697434388</v>
+        <v>548865.2223528841</v>
       </c>
       <c r="AE14" t="n">
-        <v>619927.1500419917</v>
+        <v>750981.6114478728</v>
       </c>
       <c r="AF14" t="n">
         <v>9.691223402927272e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.26666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>560762.172915203</v>
+        <v>679308.9804605986</v>
       </c>
     </row>
     <row r="15">
@@ -20561,28 +20561,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>449.2846782482218</v>
+        <v>545.0676308576669</v>
       </c>
       <c r="AB15" t="n">
-        <v>614.7311178203233</v>
+        <v>745.7855792262044</v>
       </c>
       <c r="AC15" t="n">
-        <v>556.0620427160936</v>
+        <v>674.6088502614891</v>
       </c>
       <c r="AD15" t="n">
-        <v>449284.6782482218</v>
+        <v>545067.630857667</v>
       </c>
       <c r="AE15" t="n">
-        <v>614731.1178203233</v>
+        <v>745785.5792262044</v>
       </c>
       <c r="AF15" t="n">
         <v>9.715424571247569e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.22083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>556062.0427160936</v>
+        <v>674608.8502614892</v>
       </c>
     </row>
     <row r="16">
@@ -20667,28 +20667,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>450.629748500437</v>
+        <v>546.4127011098823</v>
       </c>
       <c r="AB16" t="n">
-        <v>616.5715022797157</v>
+        <v>747.6259636855968</v>
       </c>
       <c r="AC16" t="n">
-        <v>557.7267834656775</v>
+        <v>676.273591011073</v>
       </c>
       <c r="AD16" t="n">
-        <v>450629.748500437</v>
+        <v>546412.7011098823</v>
       </c>
       <c r="AE16" t="n">
-        <v>616571.5022797157</v>
+        <v>747625.9636855968</v>
       </c>
       <c r="AF16" t="n">
         <v>9.71452823168015e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.22083333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>557726.7834656775</v>
+        <v>676273.591011073</v>
       </c>
     </row>
     <row r="17">
@@ -20773,28 +20773,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>452.0396967986488</v>
+        <v>547.8226494080941</v>
       </c>
       <c r="AB17" t="n">
-        <v>618.500655743858</v>
+        <v>749.5551171497391</v>
       </c>
       <c r="AC17" t="n">
-        <v>559.471821230786</v>
+        <v>678.0186287761813</v>
       </c>
       <c r="AD17" t="n">
-        <v>452039.6967986488</v>
+        <v>547822.6494080941</v>
       </c>
       <c r="AE17" t="n">
-        <v>618500.6557438581</v>
+        <v>749555.1171497391</v>
       </c>
       <c r="AF17" t="n">
         <v>9.71452823168015e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.22083333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>559471.8212307859</v>
+        <v>678018.6287761814</v>
       </c>
     </row>
   </sheetData>
@@ -21070,28 +21070,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1526.271165931639</v>
+        <v>1719.225654792534</v>
       </c>
       <c r="AB2" t="n">
-        <v>2088.311543559291</v>
+        <v>2352.32038777003</v>
       </c>
       <c r="AC2" t="n">
-        <v>1889.006020805652</v>
+        <v>2127.818231463657</v>
       </c>
       <c r="AD2" t="n">
-        <v>1526271.165931639</v>
+        <v>1719225.654792534</v>
       </c>
       <c r="AE2" t="n">
-        <v>2088311.543559291</v>
+        <v>2352320.38777003</v>
       </c>
       <c r="AF2" t="n">
         <v>4.391081000159168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.14166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1889006.020805652</v>
+        <v>2127818.231463657</v>
       </c>
     </row>
     <row r="3">
@@ -21176,28 +21176,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>769.3637859146371</v>
+        <v>904.4107211450948</v>
       </c>
       <c r="AB3" t="n">
-        <v>1052.67747382314</v>
+        <v>1237.454648455751</v>
       </c>
       <c r="AC3" t="n">
-        <v>952.2114131635731</v>
+        <v>1119.35371358564</v>
       </c>
       <c r="AD3" t="n">
-        <v>769363.7859146371</v>
+        <v>904410.7211450948</v>
       </c>
       <c r="AE3" t="n">
-        <v>1052677.47382314</v>
+        <v>1237454.648455751</v>
       </c>
       <c r="AF3" t="n">
         <v>6.801522188878525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.91666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>952211.413163573</v>
+        <v>1119353.71358564</v>
       </c>
     </row>
     <row r="4">
@@ -21282,28 +21282,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>642.125383058486</v>
+        <v>757.9043028408645</v>
       </c>
       <c r="AB4" t="n">
-        <v>878.5842776731917</v>
+        <v>1036.998103524892</v>
       </c>
       <c r="AC4" t="n">
-        <v>794.7334273128399</v>
+        <v>938.0284599604546</v>
       </c>
       <c r="AD4" t="n">
-        <v>642125.383058486</v>
+        <v>757904.3028408645</v>
       </c>
       <c r="AE4" t="n">
-        <v>878584.2776731916</v>
+        <v>1036998.103524892</v>
       </c>
       <c r="AF4" t="n">
         <v>7.666201337657461e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.99166666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>794733.4273128399</v>
+        <v>938028.4599604546</v>
       </c>
     </row>
     <row r="5">
@@ -21388,28 +21388,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>591.8720501814059</v>
+        <v>698.0340449491354</v>
       </c>
       <c r="AB5" t="n">
-        <v>809.8254506101938</v>
+        <v>955.0809753880625</v>
       </c>
       <c r="AC5" t="n">
-        <v>732.5368462011145</v>
+        <v>863.9293875615932</v>
       </c>
       <c r="AD5" t="n">
-        <v>591872.050181406</v>
+        <v>698034.0449491354</v>
       </c>
       <c r="AE5" t="n">
-        <v>809825.4506101938</v>
+        <v>955080.9753880625</v>
       </c>
       <c r="AF5" t="n">
         <v>8.111654930448174e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.72916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>732536.8462011145</v>
+        <v>863929.3875615932</v>
       </c>
     </row>
     <row r="6">
@@ -21494,28 +21494,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>569.3606708681834</v>
+        <v>665.8384208135593</v>
       </c>
       <c r="AB6" t="n">
-        <v>779.024388301879</v>
+        <v>911.0295020750752</v>
       </c>
       <c r="AC6" t="n">
-        <v>704.675394049943</v>
+        <v>824.0821250349661</v>
       </c>
       <c r="AD6" t="n">
-        <v>569360.6708681835</v>
+        <v>665838.4208135593</v>
       </c>
       <c r="AE6" t="n">
-        <v>779024.3883018789</v>
+        <v>911029.5020750753</v>
       </c>
       <c r="AF6" t="n">
         <v>8.382395955506157e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.02916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>704675.394049943</v>
+        <v>824082.1250349662</v>
       </c>
     </row>
     <row r="7">
@@ -21600,28 +21600,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>544.6599750356379</v>
+        <v>650.7878043845864</v>
       </c>
       <c r="AB7" t="n">
-        <v>745.2278065459984</v>
+        <v>890.4365846906195</v>
       </c>
       <c r="AC7" t="n">
-        <v>674.1043106230433</v>
+        <v>805.4545667833418</v>
       </c>
       <c r="AD7" t="n">
-        <v>544659.9750356378</v>
+        <v>650787.8043845864</v>
       </c>
       <c r="AE7" t="n">
-        <v>745227.8065459984</v>
+        <v>890436.5846906195</v>
       </c>
       <c r="AF7" t="n">
         <v>8.565146147420295e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.57916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>674104.3106230432</v>
+        <v>805454.5667833418</v>
       </c>
     </row>
     <row r="8">
@@ -21706,28 +21706,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>533.5508565924163</v>
+        <v>629.9944411190114</v>
       </c>
       <c r="AB8" t="n">
-        <v>730.0278205922665</v>
+        <v>861.9861877322151</v>
       </c>
       <c r="AC8" t="n">
-        <v>660.3549899954212</v>
+        <v>779.7194357802645</v>
       </c>
       <c r="AD8" t="n">
-        <v>533550.8565924163</v>
+        <v>629994.4411190114</v>
       </c>
       <c r="AE8" t="n">
-        <v>730027.8205922665</v>
+        <v>861986.187732215</v>
       </c>
       <c r="AF8" t="n">
         <v>8.700093627097635e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.25833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>660354.9899954211</v>
+        <v>779719.4357802644</v>
       </c>
     </row>
     <row r="9">
@@ -21812,28 +21812,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>525.011608353484</v>
+        <v>621.4551928800792</v>
       </c>
       <c r="AB9" t="n">
-        <v>718.344044426715</v>
+        <v>850.3024115666635</v>
       </c>
       <c r="AC9" t="n">
-        <v>649.786297028827</v>
+        <v>769.1507428136703</v>
       </c>
       <c r="AD9" t="n">
-        <v>525011.608353484</v>
+        <v>621455.1928800792</v>
       </c>
       <c r="AE9" t="n">
-        <v>718344.044426715</v>
+        <v>850302.4115666635</v>
       </c>
       <c r="AF9" t="n">
         <v>8.795276018719582e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.04166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>649786.297028827</v>
+        <v>769150.7428136703</v>
       </c>
     </row>
     <row r="10">
@@ -21918,28 +21918,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>507.0731220766895</v>
+        <v>613.1667860068574</v>
       </c>
       <c r="AB10" t="n">
-        <v>693.7998161126437</v>
+        <v>838.9618476240171</v>
       </c>
       <c r="AC10" t="n">
-        <v>627.5845354170099</v>
+        <v>758.8925063771286</v>
       </c>
       <c r="AD10" t="n">
-        <v>507073.1220766895</v>
+        <v>613166.7860068574</v>
       </c>
       <c r="AE10" t="n">
-        <v>693799.8161126437</v>
+        <v>838961.847624017</v>
       </c>
       <c r="AF10" t="n">
         <v>8.881997753308468e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.84583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>627584.5354170098</v>
+        <v>758892.5063771287</v>
       </c>
     </row>
     <row r="11">
@@ -22024,28 +22024,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>501.8975356458748</v>
+        <v>598.4084399801743</v>
       </c>
       <c r="AB11" t="n">
-        <v>686.7183504272444</v>
+        <v>818.7688274980344</v>
       </c>
       <c r="AC11" t="n">
-        <v>621.1789148777258</v>
+        <v>740.6266797508881</v>
       </c>
       <c r="AD11" t="n">
-        <v>501897.5356458748</v>
+        <v>598408.4399801743</v>
       </c>
       <c r="AE11" t="n">
-        <v>686718.3504272444</v>
+        <v>818768.8274980343</v>
       </c>
       <c r="AF11" t="n">
         <v>8.936568991171716e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.725</v>
       </c>
       <c r="AH11" t="n">
-        <v>621178.9148777258</v>
+        <v>740626.6797508881</v>
       </c>
     </row>
     <row r="12">
@@ -22130,28 +22130,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>495.7979548266974</v>
+        <v>592.3088591609967</v>
       </c>
       <c r="AB12" t="n">
-        <v>678.3726348559319</v>
+        <v>810.4231119267218</v>
       </c>
       <c r="AC12" t="n">
-        <v>613.6297026872538</v>
+        <v>733.0774675604163</v>
       </c>
       <c r="AD12" t="n">
-        <v>495797.9548266974</v>
+        <v>592308.8591609967</v>
       </c>
       <c r="AE12" t="n">
-        <v>678372.6348559319</v>
+        <v>810423.1119267219</v>
       </c>
       <c r="AF12" t="n">
         <v>8.993678426144884e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.6</v>
       </c>
       <c r="AH12" t="n">
-        <v>613629.7026872538</v>
+        <v>733077.4675604163</v>
       </c>
     </row>
     <row r="13">
@@ -22236,28 +22236,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>490.7736964396796</v>
+        <v>587.1831155474938</v>
       </c>
       <c r="AB13" t="n">
-        <v>671.4982228761776</v>
+        <v>803.4098433828784</v>
       </c>
       <c r="AC13" t="n">
-        <v>607.4113749385496</v>
+        <v>726.7335355232129</v>
       </c>
       <c r="AD13" t="n">
-        <v>490773.6964396796</v>
+        <v>587183.1155474938</v>
       </c>
       <c r="AE13" t="n">
-        <v>671498.2228761776</v>
+        <v>803409.8433828785</v>
       </c>
       <c r="AF13" t="n">
         <v>9.040212039826725e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.49583333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>607411.3749385496</v>
+        <v>726733.535523213</v>
       </c>
     </row>
     <row r="14">
@@ -22342,28 +22342,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>486.5167554988861</v>
+        <v>582.9261746067004</v>
       </c>
       <c r="AB14" t="n">
-        <v>665.6736884780044</v>
+        <v>797.5853089847049</v>
       </c>
       <c r="AC14" t="n">
-        <v>602.1427259285524</v>
+        <v>721.4648865132158</v>
       </c>
       <c r="AD14" t="n">
-        <v>486516.7554988861</v>
+        <v>582926.1746067004</v>
       </c>
       <c r="AE14" t="n">
-        <v>665673.6884780043</v>
+        <v>797585.3089847049</v>
       </c>
       <c r="AF14" t="n">
         <v>9.06686310948087e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.44166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>602142.7259285524</v>
+        <v>721464.8865132158</v>
       </c>
     </row>
     <row r="15">
@@ -22448,28 +22448,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>482.0963462826809</v>
+        <v>578.5057653904951</v>
       </c>
       <c r="AB15" t="n">
-        <v>659.6254895737011</v>
+        <v>791.5371100804016</v>
       </c>
       <c r="AC15" t="n">
-        <v>596.6717586389755</v>
+        <v>715.9939192236388</v>
       </c>
       <c r="AD15" t="n">
-        <v>482096.3462826809</v>
+        <v>578505.7653904951</v>
       </c>
       <c r="AE15" t="n">
-        <v>659625.4895737011</v>
+        <v>791537.1100804016</v>
       </c>
       <c r="AF15" t="n">
         <v>9.097744507651546e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.375</v>
       </c>
       <c r="AH15" t="n">
-        <v>596671.7586389754</v>
+        <v>715993.9192236388</v>
       </c>
     </row>
     <row r="16">
@@ -22554,28 +22554,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>477.5096915780167</v>
+        <v>573.9191106858309</v>
       </c>
       <c r="AB16" t="n">
-        <v>653.3498262578552</v>
+        <v>785.2614467645558</v>
       </c>
       <c r="AC16" t="n">
-        <v>590.9950358220451</v>
+        <v>710.3171964067086</v>
       </c>
       <c r="AD16" t="n">
-        <v>477509.6915780167</v>
+        <v>573919.1106858309</v>
       </c>
       <c r="AE16" t="n">
-        <v>653349.8262578552</v>
+        <v>785261.4467645558</v>
       </c>
       <c r="AF16" t="n">
         <v>9.126510741563958e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.3125</v>
       </c>
       <c r="AH16" t="n">
-        <v>590995.0358220451</v>
+        <v>710317.1964067086</v>
       </c>
     </row>
     <row r="17">
@@ -22660,28 +22660,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>472.6042958207551</v>
+        <v>569.0137149285695</v>
       </c>
       <c r="AB17" t="n">
-        <v>646.6380473719826</v>
+        <v>778.5496678786832</v>
       </c>
       <c r="AC17" t="n">
-        <v>584.9238196929992</v>
+        <v>704.2459802776626</v>
       </c>
       <c r="AD17" t="n">
-        <v>472604.2958207551</v>
+        <v>569013.7149285695</v>
       </c>
       <c r="AE17" t="n">
-        <v>646638.0473719826</v>
+        <v>778549.6678786832</v>
       </c>
       <c r="AF17" t="n">
         <v>9.159930336844551e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.24166666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>584923.8196929992</v>
+        <v>704245.9802776626</v>
       </c>
     </row>
     <row r="18">
@@ -22766,28 +22766,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>470.1797794910381</v>
+        <v>566.5891985988524</v>
       </c>
       <c r="AB18" t="n">
-        <v>643.3207171675522</v>
+        <v>775.2323376742529</v>
       </c>
       <c r="AC18" t="n">
-        <v>581.9230908273777</v>
+        <v>701.2452514120411</v>
       </c>
       <c r="AD18" t="n">
-        <v>470179.7794910381</v>
+        <v>566589.1985988524</v>
       </c>
       <c r="AE18" t="n">
-        <v>643320.7171675522</v>
+        <v>775232.3376742529</v>
       </c>
       <c r="AF18" t="n">
         <v>9.176428618059024e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.20833333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>581923.0908273776</v>
+        <v>701245.251412041</v>
       </c>
     </row>
     <row r="19">
@@ -22872,28 +22872,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>469.9757948485395</v>
+        <v>566.3852139563537</v>
       </c>
       <c r="AB19" t="n">
-        <v>643.0416163805186</v>
+        <v>774.9532368872191</v>
       </c>
       <c r="AC19" t="n">
-        <v>581.670627027738</v>
+        <v>700.9927876124013</v>
       </c>
       <c r="AD19" t="n">
-        <v>469975.7948485395</v>
+        <v>566385.2139563537</v>
       </c>
       <c r="AE19" t="n">
-        <v>643041.6163805185</v>
+        <v>774953.2368872191</v>
       </c>
       <c r="AF19" t="n">
         <v>9.167544928174308e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.22916666666667</v>
       </c>
       <c r="AH19" t="n">
-        <v>581670.6270277379</v>
+        <v>700992.7876124013</v>
       </c>
     </row>
     <row r="20">
@@ -22978,28 +22978,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>470.8804258320176</v>
+        <v>567.2898449398318</v>
       </c>
       <c r="AB20" t="n">
-        <v>644.2793724016152</v>
+        <v>776.1909929083159</v>
       </c>
       <c r="AC20" t="n">
-        <v>582.7902533513828</v>
+        <v>702.1124139360462</v>
       </c>
       <c r="AD20" t="n">
-        <v>470880.4258320176</v>
+        <v>567289.8449398319</v>
       </c>
       <c r="AE20" t="n">
-        <v>644279.3724016153</v>
+        <v>776190.992908316</v>
       </c>
       <c r="AF20" t="n">
         <v>9.169237059580921e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.225</v>
       </c>
       <c r="AH20" t="n">
-        <v>582790.2533513828</v>
+        <v>702112.4139360462</v>
       </c>
     </row>
   </sheetData>
@@ -23275,28 +23275,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2354.105055696295</v>
+        <v>2607.803114447081</v>
       </c>
       <c r="AB2" t="n">
-        <v>3220.990392989139</v>
+        <v>3568.111269340418</v>
       </c>
       <c r="AC2" t="n">
-        <v>2913.583590570543</v>
+        <v>3227.575737670052</v>
       </c>
       <c r="AD2" t="n">
-        <v>2354105.055696295</v>
+        <v>2607803.114447081</v>
       </c>
       <c r="AE2" t="n">
-        <v>3220990.392989139</v>
+        <v>3568111.269340418</v>
       </c>
       <c r="AF2" t="n">
         <v>3.183766970272719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.32916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2913583.590570543</v>
+        <v>3227575.737670052</v>
       </c>
     </row>
     <row r="3">
@@ -23381,28 +23381,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>948.3752087252723</v>
+        <v>1084.987578592365</v>
       </c>
       <c r="AB3" t="n">
-        <v>1297.608799939253</v>
+        <v>1484.527871303809</v>
       </c>
       <c r="AC3" t="n">
-        <v>1173.766837278439</v>
+        <v>1342.846614814526</v>
       </c>
       <c r="AD3" t="n">
-        <v>948375.2087252723</v>
+        <v>1084987.578592365</v>
       </c>
       <c r="AE3" t="n">
-        <v>1297608.799939253</v>
+        <v>1484527.871303809</v>
       </c>
       <c r="AF3" t="n">
         <v>5.677634442457593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.22083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1173766.837278439</v>
+        <v>1342846.614814526</v>
       </c>
     </row>
     <row r="4">
@@ -23487,28 +23487,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>761.0060438118626</v>
+        <v>878.0927437254126</v>
       </c>
       <c r="AB4" t="n">
-        <v>1041.242042360565</v>
+        <v>1201.445230682922</v>
       </c>
       <c r="AC4" t="n">
-        <v>941.8673632300571</v>
+        <v>1086.780984105515</v>
       </c>
       <c r="AD4" t="n">
-        <v>761006.0438118626</v>
+        <v>878092.7437254125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1041242.042360565</v>
+        <v>1201445.230682922</v>
       </c>
       <c r="AF4" t="n">
         <v>6.584809980913125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>941867.3632300571</v>
+        <v>1086780.984105515</v>
       </c>
     </row>
     <row r="5">
@@ -23593,28 +23593,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>684.5222933036998</v>
+        <v>801.6421476061734</v>
       </c>
       <c r="AB5" t="n">
-        <v>936.5936006903655</v>
+        <v>1096.842152310315</v>
       </c>
       <c r="AC5" t="n">
-        <v>847.2064219578508</v>
+        <v>992.1610767214477</v>
       </c>
       <c r="AD5" t="n">
-        <v>684522.2933036998</v>
+        <v>801642.1476061733</v>
       </c>
       <c r="AE5" t="n">
-        <v>936593.6006903655</v>
+        <v>1096842.152310316</v>
       </c>
       <c r="AF5" t="n">
         <v>7.050895929454075e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.725</v>
       </c>
       <c r="AH5" t="n">
-        <v>847206.4219578508</v>
+        <v>992161.0767214476</v>
       </c>
     </row>
     <row r="6">
@@ -23699,28 +23699,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>643.3190295360287</v>
+        <v>760.4047184197213</v>
       </c>
       <c r="AB6" t="n">
-        <v>880.2174774437314</v>
+        <v>1040.419282430433</v>
       </c>
       <c r="AC6" t="n">
-        <v>796.2107567894897</v>
+        <v>941.1231263529064</v>
       </c>
       <c r="AD6" t="n">
-        <v>643319.0295360286</v>
+        <v>760404.7184197214</v>
       </c>
       <c r="AE6" t="n">
-        <v>880217.4774437314</v>
+        <v>1040419.282430434</v>
       </c>
       <c r="AF6" t="n">
         <v>7.34508384251829e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.81666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>796210.7567894896</v>
+        <v>941123.1263529065</v>
       </c>
     </row>
     <row r="7">
@@ -23805,28 +23805,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>623.1769625950677</v>
+        <v>730.4666621130656</v>
       </c>
       <c r="AB7" t="n">
-        <v>852.6582128498299</v>
+        <v>999.4567130178383</v>
       </c>
       <c r="AC7" t="n">
-        <v>771.2817097287592</v>
+        <v>904.0699670737221</v>
       </c>
       <c r="AD7" t="n">
-        <v>623176.9625950677</v>
+        <v>730466.6621130656</v>
       </c>
       <c r="AE7" t="n">
-        <v>852658.2128498298</v>
+        <v>999456.7130178383</v>
       </c>
       <c r="AF7" t="n">
         <v>7.546977508346672e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.23333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>771281.7097287592</v>
+        <v>904069.967073722</v>
       </c>
     </row>
     <row r="8">
@@ -23911,28 +23911,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>598.8099116000667</v>
+        <v>706.1669309257691</v>
       </c>
       <c r="AB8" t="n">
-        <v>819.3181386800492</v>
+        <v>966.2087487788992</v>
       </c>
       <c r="AC8" t="n">
-        <v>741.1235654446543</v>
+        <v>873.9951418779365</v>
       </c>
       <c r="AD8" t="n">
-        <v>598809.9116000667</v>
+        <v>706166.930925769</v>
       </c>
       <c r="AE8" t="n">
-        <v>819318.1386800492</v>
+        <v>966208.7487788992</v>
       </c>
       <c r="AF8" t="n">
         <v>7.693494625833556e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.82916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>741123.5654446543</v>
+        <v>873995.1418779364</v>
       </c>
     </row>
     <row r="9">
@@ -24017,28 +24017,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>587.9352800930045</v>
+        <v>695.2922994187069</v>
       </c>
       <c r="AB9" t="n">
-        <v>804.4389880972041</v>
+        <v>951.3295981960543</v>
       </c>
       <c r="AC9" t="n">
-        <v>727.6644601104169</v>
+        <v>860.536036543699</v>
       </c>
       <c r="AD9" t="n">
-        <v>587935.2800930045</v>
+        <v>695292.2994187069</v>
       </c>
       <c r="AE9" t="n">
-        <v>804438.988097204</v>
+        <v>951329.5981960543</v>
       </c>
       <c r="AF9" t="n">
         <v>7.805401400607001e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.52916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>727664.460110417</v>
+        <v>860536.036543699</v>
       </c>
     </row>
     <row r="10">
@@ -24123,28 +24123,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>580.2663480398202</v>
+        <v>677.8273779998277</v>
       </c>
       <c r="AB10" t="n">
-        <v>793.9460169326333</v>
+        <v>927.4333222127899</v>
       </c>
       <c r="AC10" t="n">
-        <v>718.1729233868152</v>
+        <v>838.9203876016434</v>
       </c>
       <c r="AD10" t="n">
-        <v>580266.3480398202</v>
+        <v>677827.3779998277</v>
       </c>
       <c r="AE10" t="n">
-        <v>793946.0169326332</v>
+        <v>927433.3222127899</v>
       </c>
       <c r="AF10" t="n">
         <v>7.88692798566532e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.31666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>718172.9233868152</v>
+        <v>838920.3876016433</v>
       </c>
     </row>
     <row r="11">
@@ -24229,28 +24229,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>572.9743290242803</v>
+        <v>670.5353589842879</v>
       </c>
       <c r="AB11" t="n">
-        <v>783.9687548143971</v>
+        <v>917.4560600945538</v>
       </c>
       <c r="AC11" t="n">
-        <v>709.1478771619683</v>
+        <v>829.8953413767964</v>
       </c>
       <c r="AD11" t="n">
-        <v>572974.3290242803</v>
+        <v>670535.3589842878</v>
       </c>
       <c r="AE11" t="n">
-        <v>783968.7548143971</v>
+        <v>917456.0600945537</v>
       </c>
       <c r="AF11" t="n">
         <v>7.955764111728712e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.14166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>709147.8771619683</v>
+        <v>829895.3413767964</v>
       </c>
     </row>
     <row r="12">
@@ -24335,28 +24335,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>567.4151579547715</v>
+        <v>664.9761879147792</v>
       </c>
       <c r="AB12" t="n">
-        <v>776.3624517037769</v>
+        <v>909.8497569839335</v>
       </c>
       <c r="AC12" t="n">
-        <v>702.2675089447121</v>
+        <v>823.0149731595402</v>
       </c>
       <c r="AD12" t="n">
-        <v>567415.1579547715</v>
+        <v>664976.1879147792</v>
       </c>
       <c r="AE12" t="n">
-        <v>776362.4517037768</v>
+        <v>909849.7569839335</v>
       </c>
       <c r="AF12" t="n">
         <v>8.009217863252797e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20.00416666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>702267.5089447121</v>
+        <v>823014.9731595402</v>
       </c>
     </row>
     <row r="13">
@@ -24441,28 +24441,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>551.1672981978452</v>
+        <v>658.4901521047668</v>
       </c>
       <c r="AB13" t="n">
-        <v>754.1314131793671</v>
+        <v>900.9752766449695</v>
       </c>
       <c r="AC13" t="n">
-        <v>682.1581695356136</v>
+        <v>814.9874607687157</v>
       </c>
       <c r="AD13" t="n">
-        <v>551167.2981978452</v>
+        <v>658490.1521047668</v>
       </c>
       <c r="AE13" t="n">
-        <v>754131.4131793671</v>
+        <v>900975.2766449696</v>
       </c>
       <c r="AF13" t="n">
         <v>8.068440005229124e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.85833333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>682158.1695356136</v>
+        <v>814987.4607687157</v>
       </c>
     </row>
     <row r="14">
@@ -24547,28 +24547,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>546.6679156970239</v>
+        <v>644.2962654647358</v>
       </c>
       <c r="AB14" t="n">
-        <v>747.9751595429968</v>
+        <v>881.554574753995</v>
       </c>
       <c r="AC14" t="n">
-        <v>676.5894601059422</v>
+        <v>797.4202434090895</v>
       </c>
       <c r="AD14" t="n">
-        <v>546667.9156970239</v>
+        <v>644296.2654647358</v>
       </c>
       <c r="AE14" t="n">
-        <v>747975.1595429968</v>
+        <v>881554.5747539949</v>
       </c>
       <c r="AF14" t="n">
         <v>8.108434179031316e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.7625</v>
       </c>
       <c r="AH14" t="n">
-        <v>676589.4601059422</v>
+        <v>797420.2434090895</v>
       </c>
     </row>
     <row r="15">
@@ -24653,28 +24653,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>542.8516454882671</v>
+        <v>640.479995255979</v>
       </c>
       <c r="AB15" t="n">
-        <v>742.7535702814166</v>
+        <v>876.3329854924145</v>
       </c>
       <c r="AC15" t="n">
-        <v>671.8662119949406</v>
+        <v>792.696995298088</v>
       </c>
       <c r="AD15" t="n">
-        <v>542851.6454882671</v>
+        <v>640479.995255979</v>
       </c>
       <c r="AE15" t="n">
-        <v>742753.5702814166</v>
+        <v>876332.9854924146</v>
       </c>
       <c r="AF15" t="n">
         <v>8.138814368746445e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH15" t="n">
-        <v>671866.2119949406</v>
+        <v>792696.9952980881</v>
       </c>
     </row>
     <row r="16">
@@ -24759,28 +24759,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>539.4280324629357</v>
+        <v>637.0563822306476</v>
       </c>
       <c r="AB16" t="n">
-        <v>738.0692319010113</v>
+        <v>871.6486471120095</v>
       </c>
       <c r="AC16" t="n">
-        <v>667.6289402950511</v>
+        <v>788.4597235981983</v>
       </c>
       <c r="AD16" t="n">
-        <v>539428.0324629357</v>
+        <v>637056.3822306476</v>
       </c>
       <c r="AE16" t="n">
-        <v>738069.2319010113</v>
+        <v>871648.6471120095</v>
       </c>
       <c r="AF16" t="n">
         <v>8.165348964826745e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.625</v>
       </c>
       <c r="AH16" t="n">
-        <v>667628.9402950511</v>
+        <v>788459.7235981983</v>
       </c>
     </row>
     <row r="17">
@@ -24865,28 +24865,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>535.1557154182684</v>
+        <v>632.7840651859804</v>
       </c>
       <c r="AB17" t="n">
-        <v>732.2236592391719</v>
+        <v>865.8030744501699</v>
       </c>
       <c r="AC17" t="n">
-        <v>662.3412608837448</v>
+        <v>783.1720441868921</v>
       </c>
       <c r="AD17" t="n">
-        <v>535155.7154182685</v>
+        <v>632784.0651859804</v>
       </c>
       <c r="AE17" t="n">
-        <v>732223.6592391719</v>
+        <v>865803.0744501699</v>
       </c>
       <c r="AF17" t="n">
         <v>8.194190917087943e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.55416666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>662341.2608837448</v>
+        <v>783172.0441868921</v>
       </c>
     </row>
     <row r="18">
@@ -24971,28 +24971,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>531.1171347437429</v>
+        <v>628.6439992849696</v>
       </c>
       <c r="AB18" t="n">
-        <v>726.6978949906812</v>
+        <v>860.1384536375901</v>
       </c>
       <c r="AC18" t="n">
-        <v>657.3428678196713</v>
+        <v>778.0480468343196</v>
       </c>
       <c r="AD18" t="n">
-        <v>531117.1347437429</v>
+        <v>628643.9992849696</v>
       </c>
       <c r="AE18" t="n">
-        <v>726697.8949906812</v>
+        <v>860138.4536375902</v>
       </c>
       <c r="AF18" t="n">
         <v>8.224955666166555e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.48333333333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>657342.8678196713</v>
+        <v>778048.0468343196</v>
       </c>
     </row>
     <row r="19">
@@ -25077,28 +25077,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>529.164613296154</v>
+        <v>626.6914778373807</v>
       </c>
       <c r="AB19" t="n">
-        <v>724.0263690069233</v>
+        <v>857.4669276538322</v>
       </c>
       <c r="AC19" t="n">
-        <v>654.9263085262929</v>
+        <v>775.6314875409412</v>
       </c>
       <c r="AD19" t="n">
-        <v>529164.6132961541</v>
+        <v>626691.4778373807</v>
       </c>
       <c r="AE19" t="n">
-        <v>724026.3690069234</v>
+        <v>857466.9276538321</v>
       </c>
       <c r="AF19" t="n">
         <v>8.238030684524964e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.45</v>
       </c>
       <c r="AH19" t="n">
-        <v>654926.3085262929</v>
+        <v>775631.4875409412</v>
       </c>
     </row>
     <row r="20">
@@ -25183,28 +25183,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>526.4890606008389</v>
+        <v>624.0159251420656</v>
       </c>
       <c r="AB20" t="n">
-        <v>720.3655597721387</v>
+        <v>853.8061184190477</v>
       </c>
       <c r="AC20" t="n">
-        <v>651.6148817868981</v>
+        <v>772.3200608015466</v>
       </c>
       <c r="AD20" t="n">
-        <v>526489.0606008389</v>
+        <v>624015.9251420656</v>
       </c>
       <c r="AE20" t="n">
-        <v>720365.5597721387</v>
+        <v>853806.1184190477</v>
       </c>
       <c r="AF20" t="n">
         <v>8.253028499700787e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.41666666666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>651614.8817868981</v>
+        <v>772320.0608015466</v>
       </c>
     </row>
     <row r="21">
@@ -25289,28 +25289,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>522.7703517785967</v>
+        <v>620.2972163198235</v>
       </c>
       <c r="AB21" t="n">
-        <v>715.2774583036926</v>
+        <v>848.7180169506014</v>
       </c>
       <c r="AC21" t="n">
-        <v>647.0123815814052</v>
+        <v>767.7175605960535</v>
       </c>
       <c r="AD21" t="n">
-        <v>522770.3517785968</v>
+        <v>620297.2163198235</v>
       </c>
       <c r="AE21" t="n">
-        <v>715277.4583036926</v>
+        <v>848718.0169506014</v>
       </c>
       <c r="AF21" t="n">
         <v>8.266872636786162e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.38333333333334</v>
       </c>
       <c r="AH21" t="n">
-        <v>647012.3815814052</v>
+        <v>767717.5605960535</v>
       </c>
     </row>
     <row r="22">
@@ -25395,28 +25395,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>518.2587953216371</v>
+        <v>615.7856598628638</v>
       </c>
       <c r="AB22" t="n">
-        <v>709.1045477234567</v>
+        <v>842.5451063703655</v>
       </c>
       <c r="AC22" t="n">
-        <v>641.4286049232127</v>
+        <v>762.1337839378609</v>
       </c>
       <c r="AD22" t="n">
-        <v>518258.7953216371</v>
+        <v>615785.6598628638</v>
       </c>
       <c r="AE22" t="n">
-        <v>709104.5477234566</v>
+        <v>842545.1063703655</v>
       </c>
       <c r="AF22" t="n">
         <v>8.298406504591738e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.30833333333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>641428.6049232127</v>
+        <v>762133.783937861</v>
       </c>
     </row>
     <row r="23">
@@ -25501,28 +25501,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>516.604443952285</v>
+        <v>614.1313084935117</v>
       </c>
       <c r="AB23" t="n">
-        <v>706.8409911950778</v>
+        <v>840.2815498419865</v>
       </c>
       <c r="AC23" t="n">
-        <v>639.3810790529808</v>
+        <v>760.0862580676289</v>
       </c>
       <c r="AD23" t="n">
-        <v>516604.443952285</v>
+        <v>614131.3084935118</v>
       </c>
       <c r="AE23" t="n">
-        <v>706840.9911950778</v>
+        <v>840281.5498419865</v>
       </c>
       <c r="AF23" t="n">
         <v>8.298406504591738e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.30833333333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>639381.0790529808</v>
+        <v>760086.258067629</v>
       </c>
     </row>
     <row r="24">
@@ -25607,28 +25607,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>512.008158395825</v>
+        <v>609.5350229370518</v>
       </c>
       <c r="AB24" t="n">
-        <v>700.5521505229217</v>
+        <v>833.9927091698305</v>
       </c>
       <c r="AC24" t="n">
-        <v>633.6924365081319</v>
+        <v>754.3976155227803</v>
       </c>
       <c r="AD24" t="n">
-        <v>512008.1583958251</v>
+        <v>609535.0229370518</v>
       </c>
       <c r="AE24" t="n">
-        <v>700552.1505229217</v>
+        <v>833992.7091698305</v>
       </c>
       <c r="AF24" t="n">
         <v>8.317634472765869e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19.26666666666667</v>
       </c>
       <c r="AH24" t="n">
-        <v>633692.4365081319</v>
+        <v>754397.6155227802</v>
       </c>
     </row>
     <row r="25">
@@ -25713,28 +25713,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>511.5661614449194</v>
+        <v>609.0930259861461</v>
       </c>
       <c r="AB25" t="n">
-        <v>699.9473907951633</v>
+        <v>833.3879494420722</v>
       </c>
       <c r="AC25" t="n">
-        <v>633.1453942000051</v>
+        <v>753.8505732146534</v>
       </c>
       <c r="AD25" t="n">
-        <v>511566.1614449194</v>
+        <v>609093.0259861462</v>
       </c>
       <c r="AE25" t="n">
-        <v>699947.3907951633</v>
+        <v>833387.9494420722</v>
       </c>
       <c r="AF25" t="n">
         <v>8.324556541308556e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>19.24583333333333</v>
       </c>
       <c r="AH25" t="n">
-        <v>633145.3942000051</v>
+        <v>753850.5732146534</v>
       </c>
     </row>
     <row r="26">
@@ -25819,28 +25819,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>509.0177086188652</v>
+        <v>606.5445731600919</v>
       </c>
       <c r="AB26" t="n">
-        <v>696.4604852087519</v>
+        <v>829.901043855661</v>
       </c>
       <c r="AC26" t="n">
-        <v>629.9912739888582</v>
+        <v>750.6964530035065</v>
       </c>
       <c r="AD26" t="n">
-        <v>509017.7086188652</v>
+        <v>606544.5731600919</v>
       </c>
       <c r="AE26" t="n">
-        <v>696460.485208752</v>
+        <v>829901.0438556609</v>
       </c>
       <c r="AF26" t="n">
         <v>8.340323475211345e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19.2125</v>
       </c>
       <c r="AH26" t="n">
-        <v>629991.2739888582</v>
+        <v>750696.4530035064</v>
       </c>
     </row>
     <row r="27">
@@ -25925,28 +25925,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>509.5315933083309</v>
+        <v>607.0584578495575</v>
       </c>
       <c r="AB27" t="n">
-        <v>697.1636049118715</v>
+        <v>830.6041635587802</v>
       </c>
       <c r="AC27" t="n">
-        <v>630.6272889343467</v>
+        <v>751.3324679489949</v>
       </c>
       <c r="AD27" t="n">
-        <v>509531.5933083309</v>
+        <v>607058.4578495575</v>
       </c>
       <c r="AE27" t="n">
-        <v>697163.6049118715</v>
+        <v>830604.1635587802</v>
       </c>
       <c r="AF27" t="n">
         <v>8.340323475211345e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>20</v>
+        <v>19.2125</v>
       </c>
       <c r="AH27" t="n">
-        <v>630627.2889343466</v>
+        <v>751332.4679489949</v>
       </c>
     </row>
     <row r="28">
@@ -26031,28 +26031,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>510.9038190388948</v>
+        <v>608.4306835801217</v>
       </c>
       <c r="AB28" t="n">
-        <v>699.0411446947559</v>
+        <v>832.4817033416648</v>
       </c>
       <c r="AC28" t="n">
-        <v>632.3256389554963</v>
+        <v>753.0308179701444</v>
       </c>
       <c r="AD28" t="n">
-        <v>510903.8190388948</v>
+        <v>608430.6835801217</v>
       </c>
       <c r="AE28" t="n">
-        <v>699041.1446947559</v>
+        <v>832481.7033416647</v>
       </c>
       <c r="AF28" t="n">
         <v>8.33840067839393e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>20</v>
+        <v>19.21666666666667</v>
       </c>
       <c r="AH28" t="n">
-        <v>632325.6389554963</v>
+        <v>753030.8179701444</v>
       </c>
     </row>
   </sheetData>
@@ -26328,28 +26328,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1013.770037102188</v>
+        <v>1175.571485499911</v>
       </c>
       <c r="AB2" t="n">
-        <v>1387.084889140763</v>
+        <v>1608.468769014642</v>
       </c>
       <c r="AC2" t="n">
-        <v>1254.703454107037</v>
+        <v>1454.95876719998</v>
       </c>
       <c r="AD2" t="n">
-        <v>1013770.037102188</v>
+        <v>1175571.485499911</v>
       </c>
       <c r="AE2" t="n">
-        <v>1387084.889140763</v>
+        <v>1608468.769014643</v>
       </c>
       <c r="AF2" t="n">
         <v>6.069811434581524e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.90833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1254703.454107037</v>
+        <v>1454958.76719998</v>
       </c>
     </row>
     <row r="3">
@@ -26434,28 +26434,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>618.7498874440366</v>
+        <v>742.4382024661538</v>
       </c>
       <c r="AB3" t="n">
-        <v>846.6008933194177</v>
+        <v>1015.836702676019</v>
       </c>
       <c r="AC3" t="n">
-        <v>765.8024922728281</v>
+        <v>918.8866735083861</v>
       </c>
       <c r="AD3" t="n">
-        <v>618749.8874440367</v>
+        <v>742438.2024661538</v>
       </c>
       <c r="AE3" t="n">
-        <v>846600.8933194176</v>
+        <v>1015836.702676019</v>
       </c>
       <c r="AF3" t="n">
         <v>8.375774075789732e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.85</v>
       </c>
       <c r="AH3" t="n">
-        <v>765802.4922728281</v>
+        <v>918886.6735083861</v>
       </c>
     </row>
     <row r="4">
@@ -26540,28 +26540,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>539.4819629470046</v>
+        <v>653.6505359799157</v>
       </c>
       <c r="AB4" t="n">
-        <v>738.1430219685593</v>
+        <v>894.3535003541537</v>
       </c>
       <c r="AC4" t="n">
-        <v>667.6956879421173</v>
+        <v>808.997657513374</v>
       </c>
       <c r="AD4" t="n">
-        <v>539481.9629470046</v>
+        <v>653650.5359799158</v>
       </c>
       <c r="AE4" t="n">
-        <v>738143.0219685594</v>
+        <v>894353.5003541537</v>
       </c>
       <c r="AF4" t="n">
         <v>9.166800761443275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.79166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>667695.6879421172</v>
+        <v>808997.657513374</v>
       </c>
     </row>
     <row r="5">
@@ -26646,28 +26646,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>501.5313450759248</v>
+        <v>606.2143415384107</v>
       </c>
       <c r="AB5" t="n">
-        <v>686.2173123342511</v>
+        <v>829.4492063820858</v>
       </c>
       <c r="AC5" t="n">
-        <v>620.7256951571163</v>
+        <v>750.2877382642515</v>
       </c>
       <c r="AD5" t="n">
-        <v>501531.3450759248</v>
+        <v>606214.3415384108</v>
       </c>
       <c r="AE5" t="n">
-        <v>686217.3123342511</v>
+        <v>829449.2063820858</v>
       </c>
       <c r="AF5" t="n">
         <v>9.59203753124612e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.825</v>
       </c>
       <c r="AH5" t="n">
-        <v>620725.6951571163</v>
+        <v>750287.7382642515</v>
       </c>
     </row>
     <row r="6">
@@ -26752,28 +26752,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>485.3154549954514</v>
+        <v>580.4455550798075</v>
       </c>
       <c r="AB6" t="n">
-        <v>664.0300161315671</v>
+        <v>794.1912159108005</v>
       </c>
       <c r="AC6" t="n">
-        <v>600.6559233639506</v>
+        <v>718.3947209186451</v>
       </c>
       <c r="AD6" t="n">
-        <v>485315.4549954514</v>
+        <v>580445.5550798075</v>
       </c>
       <c r="AE6" t="n">
-        <v>664030.0161315671</v>
+        <v>794191.2159108005</v>
       </c>
       <c r="AF6" t="n">
         <v>9.837016098742459e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.30416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>600655.9233639506</v>
+        <v>718394.7209186452</v>
       </c>
     </row>
     <row r="7">
@@ -26858,28 +26858,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>463.9303084804467</v>
+        <v>568.5791395241519</v>
       </c>
       <c r="AB7" t="n">
-        <v>634.7699152236586</v>
+        <v>777.9550626382454</v>
       </c>
       <c r="AC7" t="n">
-        <v>574.1883654198833</v>
+        <v>703.7081233268385</v>
       </c>
       <c r="AD7" t="n">
-        <v>463930.3084804467</v>
+        <v>568579.1395241518</v>
       </c>
       <c r="AE7" t="n">
-        <v>634769.9152236586</v>
+        <v>777955.0626382454</v>
       </c>
       <c r="AF7" t="n">
         <v>1.000193317744841e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.97083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>574188.3654198833</v>
+        <v>703708.1233268385</v>
       </c>
     </row>
     <row r="8">
@@ -26964,28 +26964,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>455.3217019058471</v>
+        <v>550.5191217979077</v>
       </c>
       <c r="AB8" t="n">
-        <v>622.9912399233732</v>
+        <v>753.2445496334482</v>
       </c>
       <c r="AC8" t="n">
-        <v>563.5338303587826</v>
+        <v>681.3559470017963</v>
       </c>
       <c r="AD8" t="n">
-        <v>455321.7019058471</v>
+        <v>550519.1217979077</v>
       </c>
       <c r="AE8" t="n">
-        <v>622991.2399233732</v>
+        <v>753244.5496334481</v>
       </c>
       <c r="AF8" t="n">
         <v>1.011075927298984e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.75833333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>563533.8303587826</v>
+        <v>681355.9470017962</v>
       </c>
     </row>
     <row r="9">
@@ -27070,28 +27070,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>448.0735501338781</v>
+        <v>543.2709700259388</v>
       </c>
       <c r="AB9" t="n">
-        <v>613.073998903077</v>
+        <v>743.327308613152</v>
       </c>
       <c r="AC9" t="n">
-        <v>554.5630769025283</v>
+        <v>672.3851935455419</v>
       </c>
       <c r="AD9" t="n">
-        <v>448073.5501338781</v>
+        <v>543270.9700259388</v>
       </c>
       <c r="AE9" t="n">
-        <v>613073.9989030771</v>
+        <v>743327.308613152</v>
       </c>
       <c r="AF9" t="n">
         <v>1.01984913235805e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.5875</v>
       </c>
       <c r="AH9" t="n">
-        <v>554563.0769025283</v>
+        <v>672385.193545542</v>
       </c>
     </row>
     <row r="10">
@@ -27176,28 +27176,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>439.6412099805073</v>
+        <v>534.7371446460827</v>
       </c>
       <c r="AB10" t="n">
-        <v>601.5364990966425</v>
+        <v>731.6509522426283</v>
       </c>
       <c r="AC10" t="n">
-        <v>544.1266998846372</v>
+        <v>661.823212239152</v>
       </c>
       <c r="AD10" t="n">
-        <v>439641.2099805073</v>
+        <v>534737.1446460827</v>
       </c>
       <c r="AE10" t="n">
-        <v>601536.4990966425</v>
+        <v>731650.9522426282</v>
       </c>
       <c r="AF10" t="n">
         <v>1.027855281237089e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.43333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>544126.6998846373</v>
+        <v>661823.2122391519</v>
       </c>
     </row>
     <row r="11">
@@ -27282,28 +27282,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>433.6999788698764</v>
+        <v>528.7959135354519</v>
       </c>
       <c r="AB11" t="n">
-        <v>593.4074445824594</v>
+        <v>723.521897728445</v>
       </c>
       <c r="AC11" t="n">
-        <v>536.7734709240881</v>
+        <v>654.4699832786027</v>
       </c>
       <c r="AD11" t="n">
-        <v>433699.9788698764</v>
+        <v>528795.9135354519</v>
       </c>
       <c r="AE11" t="n">
-        <v>593407.4445824594</v>
+        <v>723521.897728445</v>
       </c>
       <c r="AF11" t="n">
         <v>1.034135553711066e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.31666666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>536773.470924088</v>
+        <v>654469.9832786027</v>
       </c>
     </row>
     <row r="12">
@@ -27388,28 +27388,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>429.8219827632319</v>
+        <v>524.9179174288072</v>
       </c>
       <c r="AB12" t="n">
-        <v>588.1013992242347</v>
+        <v>718.2158523702202</v>
       </c>
       <c r="AC12" t="n">
-        <v>531.9738270877709</v>
+        <v>649.6703394422856</v>
       </c>
       <c r="AD12" t="n">
-        <v>429821.9827632318</v>
+        <v>524917.9174288072</v>
       </c>
       <c r="AE12" t="n">
-        <v>588101.3992242346</v>
+        <v>718215.8523702202</v>
       </c>
       <c r="AF12" t="n">
         <v>1.036868191352414e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.26666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>531973.8270877709</v>
+        <v>649670.3394422856</v>
       </c>
     </row>
     <row r="13">
@@ -27494,28 +27494,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>430.7450028942999</v>
+        <v>525.8409375598754</v>
       </c>
       <c r="AB13" t="n">
-        <v>589.3643160883364</v>
+        <v>719.478769234322</v>
       </c>
       <c r="AC13" t="n">
-        <v>533.1162129388775</v>
+        <v>650.8127252933923</v>
       </c>
       <c r="AD13" t="n">
-        <v>430745.0028942999</v>
+        <v>525840.9375598754</v>
       </c>
       <c r="AE13" t="n">
-        <v>589364.3160883364</v>
+        <v>719478.769234322</v>
       </c>
       <c r="AF13" t="n">
         <v>1.036916132363666e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.2625</v>
       </c>
       <c r="AH13" t="n">
-        <v>533116.2129388775</v>
+        <v>650812.7252933923</v>
       </c>
     </row>
   </sheetData>
@@ -27791,28 +27791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.473246547608</v>
+        <v>886.4530816585295</v>
       </c>
       <c r="AB2" t="n">
-        <v>1019.98938388496</v>
+        <v>1212.884213875091</v>
       </c>
       <c r="AC2" t="n">
-        <v>922.64302865107</v>
+        <v>1097.128246796537</v>
       </c>
       <c r="AD2" t="n">
-        <v>745473.2465476081</v>
+        <v>886453.0816585296</v>
       </c>
       <c r="AE2" t="n">
-        <v>1019989.38388496</v>
+        <v>1212884.213875091</v>
       </c>
       <c r="AF2" t="n">
         <v>7.953881791406984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.55416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>922643.0286510701</v>
+        <v>1097128.246796537</v>
       </c>
     </row>
     <row r="3">
@@ -27897,28 +27897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>516.9564399742408</v>
+        <v>620.2993872216514</v>
       </c>
       <c r="AB3" t="n">
-        <v>707.3226076812861</v>
+        <v>848.7209872742555</v>
       </c>
       <c r="AC3" t="n">
-        <v>639.8167307376982</v>
+        <v>767.7202474361869</v>
       </c>
       <c r="AD3" t="n">
-        <v>516956.4399742407</v>
+        <v>620299.3872216514</v>
       </c>
       <c r="AE3" t="n">
-        <v>707322.6076812861</v>
+        <v>848720.9872742556</v>
       </c>
       <c r="AF3" t="n">
         <v>1.013055576804245e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.42083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>639816.7307376983</v>
+        <v>767720.2474361869</v>
       </c>
     </row>
     <row r="4">
@@ -28003,28 +28003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.9133978361365</v>
+        <v>561.2894994724708</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.5373126327502</v>
+        <v>767.9810555233133</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.7414708657208</v>
+        <v>694.6860214523487</v>
       </c>
       <c r="AD4" t="n">
-        <v>457913.3978361365</v>
+        <v>561289.4994724707</v>
       </c>
       <c r="AE4" t="n">
-        <v>626537.3126327501</v>
+        <v>767981.0555233133</v>
       </c>
       <c r="AF4" t="n">
         <v>1.087301255646657e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.89166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>566741.4708657208</v>
+        <v>694686.0214523487</v>
       </c>
     </row>
     <row r="5">
@@ -28109,28 +28109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>437.3155926291035</v>
+        <v>531.2576065078673</v>
       </c>
       <c r="AB5" t="n">
-        <v>598.3544868374555</v>
+        <v>726.8900946555331</v>
       </c>
       <c r="AC5" t="n">
-        <v>541.2483744094847</v>
+        <v>657.5167242182636</v>
       </c>
       <c r="AD5" t="n">
-        <v>437315.5926291036</v>
+        <v>531257.6065078673</v>
       </c>
       <c r="AE5" t="n">
-        <v>598354.4868374555</v>
+        <v>726890.0946555331</v>
       </c>
       <c r="AF5" t="n">
         <v>1.125950437951554e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.17083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>541248.3744094847</v>
+        <v>657516.7242182635</v>
       </c>
     </row>
     <row r="6">
@@ -28215,28 +28215,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>414.1011429640977</v>
+        <v>508.1104766505658</v>
       </c>
       <c r="AB6" t="n">
-        <v>566.5914526565559</v>
+        <v>695.219170405475</v>
       </c>
       <c r="AC6" t="n">
-        <v>512.5167596311118</v>
+        <v>628.8684285282097</v>
       </c>
       <c r="AD6" t="n">
-        <v>414101.1429640977</v>
+        <v>508110.4766505657</v>
       </c>
       <c r="AE6" t="n">
-        <v>566591.4526565559</v>
+        <v>695219.170405475</v>
       </c>
       <c r="AF6" t="n">
         <v>1.149281679173692e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.7625</v>
       </c>
       <c r="AH6" t="n">
-        <v>512516.7596311118</v>
+        <v>628868.4285282097</v>
       </c>
     </row>
     <row r="7">
@@ -28321,28 +28321,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>404.353423246991</v>
+        <v>498.3627569334591</v>
       </c>
       <c r="AB7" t="n">
-        <v>553.2541925005673</v>
+        <v>681.8819102494863</v>
       </c>
       <c r="AC7" t="n">
-        <v>500.4523888654485</v>
+        <v>616.8040577625464</v>
       </c>
       <c r="AD7" t="n">
-        <v>404353.423246991</v>
+        <v>498362.7569334591</v>
       </c>
       <c r="AE7" t="n">
-        <v>553254.1925005673</v>
+        <v>681881.9102494863</v>
       </c>
       <c r="AF7" t="n">
         <v>1.163345838601991e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.525</v>
       </c>
       <c r="AH7" t="n">
-        <v>500452.3888654485</v>
+        <v>616804.0577625465</v>
       </c>
     </row>
     <row r="8">
@@ -28427,28 +28427,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>398.0575459028564</v>
+        <v>491.9653943628392</v>
       </c>
       <c r="AB8" t="n">
-        <v>544.6398953638169</v>
+        <v>673.1287565486466</v>
       </c>
       <c r="AC8" t="n">
-        <v>492.6602281571875</v>
+        <v>608.8862927657865</v>
       </c>
       <c r="AD8" t="n">
-        <v>398057.5459028564</v>
+        <v>491965.3943628392</v>
       </c>
       <c r="AE8" t="n">
-        <v>544639.8953638169</v>
+        <v>673128.7565486466</v>
       </c>
       <c r="AF8" t="n">
         <v>1.171250114249678e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.39166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>492660.2281571875</v>
+        <v>608886.2927657865</v>
       </c>
     </row>
     <row r="9">
@@ -28533,28 +28533,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>399.0913119076316</v>
+        <v>492.9991603676145</v>
       </c>
       <c r="AB9" t="n">
-        <v>546.0543396180877</v>
+        <v>674.5432008029175</v>
       </c>
       <c r="AC9" t="n">
-        <v>493.9396798370157</v>
+        <v>610.1657444456148</v>
       </c>
       <c r="AD9" t="n">
-        <v>399091.3119076316</v>
+        <v>492999.1603676145</v>
       </c>
       <c r="AE9" t="n">
-        <v>546054.3396180877</v>
+        <v>674543.2008029175</v>
       </c>
       <c r="AF9" t="n">
         <v>1.172122310183215e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.37916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>493939.6798370157</v>
+        <v>610165.7444456147</v>
       </c>
     </row>
   </sheetData>
@@ -53923,28 +53923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>589.7073246329237</v>
+        <v>719.9225376424943</v>
       </c>
       <c r="AB2" t="n">
-        <v>806.863577613809</v>
+        <v>985.0297767432617</v>
       </c>
       <c r="AC2" t="n">
-        <v>729.8576502064899</v>
+        <v>891.0199173488586</v>
       </c>
       <c r="AD2" t="n">
-        <v>589707.3246329237</v>
+        <v>719922.5376424943</v>
       </c>
       <c r="AE2" t="n">
-        <v>806863.5776138089</v>
+        <v>985029.7767432616</v>
       </c>
       <c r="AF2" t="n">
         <v>9.831864971597253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.94583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>729857.6502064898</v>
+        <v>891019.9173488586</v>
       </c>
     </row>
     <row r="3">
@@ -54029,28 +54029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>443.7961240741839</v>
+        <v>546.0602804418741</v>
       </c>
       <c r="AB3" t="n">
-        <v>607.2214358614839</v>
+        <v>747.1437661799253</v>
       </c>
       <c r="AC3" t="n">
-        <v>549.2690742635009</v>
+        <v>675.8374137585743</v>
       </c>
       <c r="AD3" t="n">
-        <v>443796.1240741839</v>
+        <v>546060.2804418741</v>
       </c>
       <c r="AE3" t="n">
-        <v>607221.4358614839</v>
+        <v>747143.7661799253</v>
       </c>
       <c r="AF3" t="n">
         <v>1.190843321466437e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.42083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>549269.0742635009</v>
+        <v>675837.4137585743</v>
       </c>
     </row>
     <row r="4">
@@ -54135,28 +54135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.976638842311</v>
+        <v>497.9689932111297</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.1069035724159</v>
+        <v>681.343145352966</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.2237183893872</v>
+        <v>616.3167118315887</v>
       </c>
       <c r="AD4" t="n">
-        <v>404976.638842311</v>
+        <v>497968.9932111297</v>
       </c>
       <c r="AE4" t="n">
-        <v>554106.9035724159</v>
+        <v>681343.1453529659</v>
       </c>
       <c r="AF4" t="n">
         <v>1.259592912768452e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.25</v>
       </c>
       <c r="AH4" t="n">
-        <v>501223.7183893872</v>
+        <v>616316.7118315886</v>
       </c>
     </row>
     <row r="5">
@@ -54241,28 +54241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.184086815384</v>
+        <v>472.2437609919071</v>
       </c>
       <c r="AB5" t="n">
-        <v>518.816396002087</v>
+        <v>646.1447477134785</v>
       </c>
       <c r="AC5" t="n">
-        <v>469.3012873310321</v>
+        <v>584.4775998615524</v>
       </c>
       <c r="AD5" t="n">
-        <v>379184.086815384</v>
+        <v>472243.7609919071</v>
       </c>
       <c r="AE5" t="n">
-        <v>518816.396002087</v>
+        <v>646144.7477134785</v>
       </c>
       <c r="AF5" t="n">
         <v>1.293814659462866e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>19.71666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>469301.2873310321</v>
+        <v>584477.5998615525</v>
       </c>
     </row>
     <row r="6">
@@ -54347,28 +54347,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>374.5655486844949</v>
+        <v>467.625222861018</v>
       </c>
       <c r="AB6" t="n">
-        <v>512.4971083758826</v>
+        <v>639.825460087274</v>
       </c>
       <c r="AC6" t="n">
-        <v>463.5851036466968</v>
+        <v>578.7614161772171</v>
       </c>
       <c r="AD6" t="n">
-        <v>374565.5486844949</v>
+        <v>467625.222861018</v>
       </c>
       <c r="AE6" t="n">
-        <v>512497.1083758826</v>
+        <v>639825.460087274</v>
       </c>
       <c r="AF6" t="n">
         <v>1.303303694771693e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.57083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>463585.1036466968</v>
+        <v>578761.4161772172</v>
       </c>
     </row>
     <row r="7">
@@ -54453,28 +54453,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>376.2041565800062</v>
+        <v>469.2638307565293</v>
       </c>
       <c r="AB7" t="n">
-        <v>514.7391239887995</v>
+        <v>642.067475700191</v>
       </c>
       <c r="AC7" t="n">
-        <v>465.6131444362056</v>
+        <v>580.789456966726</v>
       </c>
       <c r="AD7" t="n">
-        <v>376204.1565800062</v>
+        <v>469263.8307565294</v>
       </c>
       <c r="AE7" t="n">
-        <v>514739.1239887995</v>
+        <v>642067.475700191</v>
       </c>
       <c r="AF7" t="n">
         <v>1.30287515769323e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.57916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>465613.1444362056</v>
+        <v>580789.456966726</v>
       </c>
     </row>
   </sheetData>
@@ -54750,28 +54750,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>385.8480305773246</v>
+        <v>486.0755807436986</v>
       </c>
       <c r="AB2" t="n">
-        <v>527.9342978496239</v>
+        <v>665.0700537147002</v>
       </c>
       <c r="AC2" t="n">
-        <v>477.5489894232957</v>
+        <v>601.5967012198514</v>
       </c>
       <c r="AD2" t="n">
-        <v>385848.0305773246</v>
+        <v>486075.5807436986</v>
       </c>
       <c r="AE2" t="n">
-        <v>527934.297849624</v>
+        <v>665070.0537147002</v>
       </c>
       <c r="AF2" t="n">
         <v>1.526094784185594e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.10833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>477548.9894232957</v>
+        <v>601596.7012198514</v>
       </c>
     </row>
     <row r="3">
@@ -54856,28 +54856,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.5635366530819</v>
+        <v>428.673371367267</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.8693231009425</v>
+        <v>586.5298184391172</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.7891631418541</v>
+        <v>530.5522357670574</v>
       </c>
       <c r="AD3" t="n">
-        <v>337563.5366530819</v>
+        <v>428673.371367267</v>
       </c>
       <c r="AE3" t="n">
-        <v>461869.3231009425</v>
+        <v>586529.8184391172</v>
       </c>
       <c r="AF3" t="n">
         <v>1.650057597990143e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.44583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>417789.1631418541</v>
+        <v>530552.2357670574</v>
       </c>
     </row>
   </sheetData>
@@ -55153,28 +55153,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1380.472216484216</v>
+        <v>1563.193165328638</v>
       </c>
       <c r="AB2" t="n">
-        <v>1888.822988729639</v>
+        <v>2138.829852017918</v>
       </c>
       <c r="AC2" t="n">
-        <v>1708.556373664996</v>
+        <v>1934.702932807878</v>
       </c>
       <c r="AD2" t="n">
-        <v>1380472.216484216</v>
+        <v>1563193.165328638</v>
       </c>
       <c r="AE2" t="n">
-        <v>1888822.988729639</v>
+        <v>2138829.852017918</v>
       </c>
       <c r="AF2" t="n">
         <v>4.749883294463711e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.15833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1708556.373664996</v>
+        <v>1934702.932807878</v>
       </c>
     </row>
     <row r="3">
@@ -55259,28 +55259,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>734.9736295421014</v>
+        <v>859.9378018144398</v>
       </c>
       <c r="AB3" t="n">
-        <v>1005.623344687615</v>
+        <v>1176.604838220819</v>
       </c>
       <c r="AC3" t="n">
-        <v>909.6480640718572</v>
+        <v>1064.311323836286</v>
       </c>
       <c r="AD3" t="n">
-        <v>734973.6295421014</v>
+        <v>859937.8018144398</v>
       </c>
       <c r="AE3" t="n">
-        <v>1005623.344687615</v>
+        <v>1176604.838220819</v>
       </c>
       <c r="AF3" t="n">
         <v>7.142658752599686e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>909648.0640718573</v>
+        <v>1064311.323836286</v>
       </c>
     </row>
     <row r="4">
@@ -55365,28 +55365,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>618.9711347962448</v>
+        <v>734.3821916840702</v>
       </c>
       <c r="AB4" t="n">
-        <v>846.9036137074532</v>
+        <v>1004.81411331786</v>
       </c>
       <c r="AC4" t="n">
-        <v>766.0763214519003</v>
+        <v>908.9160646082685</v>
       </c>
       <c r="AD4" t="n">
-        <v>618971.1347962448</v>
+        <v>734382.1916840703</v>
       </c>
       <c r="AE4" t="n">
-        <v>846903.6137074532</v>
+        <v>1004814.11331786</v>
       </c>
       <c r="AF4" t="n">
         <v>7.986502488063019e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.69166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>766076.3214519003</v>
+        <v>908916.0646082684</v>
       </c>
     </row>
     <row r="5">
@@ -55471,28 +55471,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>573.0309098712611</v>
+        <v>678.8556969856501</v>
       </c>
       <c r="AB5" t="n">
-        <v>784.046171225407</v>
+        <v>928.840313615424</v>
       </c>
       <c r="AC5" t="n">
-        <v>709.2179050593659</v>
+        <v>840.193097719535</v>
       </c>
       <c r="AD5" t="n">
-        <v>573030.9098712611</v>
+        <v>678855.6969856501</v>
       </c>
       <c r="AE5" t="n">
-        <v>784046.1712254069</v>
+        <v>928840.313615424</v>
       </c>
       <c r="AF5" t="n">
         <v>8.417123775747917e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.53333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>709217.9050593659</v>
+        <v>840193.097719535</v>
       </c>
     </row>
     <row r="6">
@@ -55577,28 +55577,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>542.0672147173273</v>
+        <v>647.8578364129357</v>
       </c>
       <c r="AB6" t="n">
-        <v>741.6802774939737</v>
+        <v>886.4276732507429</v>
       </c>
       <c r="AC6" t="n">
-        <v>670.8953527647552</v>
+        <v>801.8282602247444</v>
       </c>
       <c r="AD6" t="n">
-        <v>542067.2147173273</v>
+        <v>647857.8364129358</v>
       </c>
       <c r="AE6" t="n">
-        <v>741680.2774939737</v>
+        <v>886427.673250743</v>
       </c>
       <c r="AF6" t="n">
         <v>8.685065910307408e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.86666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>670895.3527647553</v>
+        <v>801828.2602247444</v>
       </c>
     </row>
     <row r="7">
@@ -55683,28 +55683,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>527.1517201141849</v>
+        <v>623.2887522286525</v>
       </c>
       <c r="AB7" t="n">
-        <v>721.2722397527734</v>
+        <v>852.8111683583111</v>
       </c>
       <c r="AC7" t="n">
-        <v>652.4350295027143</v>
+        <v>771.4200673781852</v>
       </c>
       <c r="AD7" t="n">
-        <v>527151.7201141849</v>
+        <v>623288.7522286525</v>
       </c>
       <c r="AE7" t="n">
-        <v>721272.2397527734</v>
+        <v>852811.1683583111</v>
       </c>
       <c r="AF7" t="n">
         <v>8.874278294290165e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.42083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>652435.0295027143</v>
+        <v>771420.0673781852</v>
       </c>
     </row>
     <row r="8">
@@ -55789,28 +55789,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>517.4840923857653</v>
+        <v>613.621124500233</v>
       </c>
       <c r="AB8" t="n">
-        <v>708.0445649891155</v>
+        <v>839.5834935946532</v>
       </c>
       <c r="AC8" t="n">
-        <v>640.469785453342</v>
+        <v>759.4548233288128</v>
       </c>
       <c r="AD8" t="n">
-        <v>517484.0923857653</v>
+        <v>613621.124500233</v>
       </c>
       <c r="AE8" t="n">
-        <v>708044.5649891156</v>
+        <v>839583.4935946532</v>
       </c>
       <c r="AF8" t="n">
         <v>8.994330289644743e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.15</v>
       </c>
       <c r="AH8" t="n">
-        <v>640469.7854533419</v>
+        <v>759454.8233288128</v>
       </c>
     </row>
     <row r="9">
@@ -55895,28 +55895,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>499.6430020431966</v>
+        <v>605.3994583200242</v>
       </c>
       <c r="AB9" t="n">
-        <v>683.6335980890574</v>
+        <v>828.334247212579</v>
       </c>
       <c r="AC9" t="n">
-        <v>618.3885669732181</v>
+        <v>749.2791892330274</v>
       </c>
       <c r="AD9" t="n">
-        <v>499643.0020431966</v>
+        <v>605399.4583200242</v>
       </c>
       <c r="AE9" t="n">
-        <v>683633.5980890574</v>
+        <v>828334.247212579</v>
       </c>
       <c r="AF9" t="n">
         <v>9.090023909130275e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.9375</v>
       </c>
       <c r="AH9" t="n">
-        <v>618388.5669732181</v>
+        <v>749279.1892330274</v>
       </c>
     </row>
     <row r="10">
@@ -56001,28 +56001,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>491.4201132112572</v>
+        <v>587.624465133429</v>
       </c>
       <c r="AB10" t="n">
-        <v>672.3826788209454</v>
+        <v>804.0137173573247</v>
       </c>
       <c r="AC10" t="n">
-        <v>608.2114196492904</v>
+        <v>727.2797766130805</v>
       </c>
       <c r="AD10" t="n">
-        <v>491420.1132112572</v>
+        <v>587624.465133429</v>
       </c>
       <c r="AE10" t="n">
-        <v>672382.6788209454</v>
+        <v>804013.7173573247</v>
       </c>
       <c r="AF10" t="n">
         <v>9.181367818639191e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.74166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>608211.4196492904</v>
+        <v>727279.7766130804</v>
       </c>
     </row>
     <row r="11">
@@ -56107,28 +56107,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>484.9930833296257</v>
+        <v>581.1974352517975</v>
       </c>
       <c r="AB11" t="n">
-        <v>663.5889329963501</v>
+        <v>795.2199715327292</v>
       </c>
       <c r="AC11" t="n">
-        <v>600.2569365840945</v>
+        <v>719.3252935478848</v>
       </c>
       <c r="AD11" t="n">
-        <v>484993.0833296257</v>
+        <v>581197.4352517975</v>
       </c>
       <c r="AE11" t="n">
-        <v>663588.9329963501</v>
+        <v>795219.9715327292</v>
       </c>
       <c r="AF11" t="n">
         <v>9.245308555295437e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.60416666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>600256.9365840945</v>
+        <v>719325.2935478848</v>
       </c>
     </row>
     <row r="12">
@@ -56213,28 +56213,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>480.0566480575289</v>
+        <v>576.2609999797008</v>
       </c>
       <c r="AB12" t="n">
-        <v>656.8346844769134</v>
+        <v>788.4657230132925</v>
       </c>
       <c r="AC12" t="n">
-        <v>594.1473040637056</v>
+        <v>713.2156610274958</v>
       </c>
       <c r="AD12" t="n">
-        <v>480056.6480575289</v>
+        <v>576260.9999797009</v>
       </c>
       <c r="AE12" t="n">
-        <v>656834.6844769134</v>
+        <v>788465.7230132925</v>
       </c>
       <c r="AF12" t="n">
         <v>9.283151032091987e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.525</v>
       </c>
       <c r="AH12" t="n">
-        <v>594147.3040637056</v>
+        <v>713215.6610274957</v>
       </c>
     </row>
     <row r="13">
@@ -56319,28 +56319,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>475.0222889412352</v>
+        <v>571.1251556369217</v>
       </c>
       <c r="AB13" t="n">
-        <v>649.9464522337511</v>
+        <v>781.438634206041</v>
       </c>
       <c r="AC13" t="n">
-        <v>587.9164750381361</v>
+        <v>706.8592277134271</v>
       </c>
       <c r="AD13" t="n">
-        <v>475022.2889412352</v>
+        <v>571125.1556369218</v>
       </c>
       <c r="AE13" t="n">
-        <v>649946.4522337511</v>
+        <v>781438.634206041</v>
       </c>
       <c r="AF13" t="n">
         <v>9.328822986846445e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.42916666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>587916.4750381361</v>
+        <v>706859.2277134272</v>
       </c>
     </row>
     <row r="14">
@@ -56425,28 +56425,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>469.4240942748024</v>
+        <v>565.5269609704891</v>
       </c>
       <c r="AB14" t="n">
-        <v>642.2867553162197</v>
+        <v>773.7789372885095</v>
       </c>
       <c r="AC14" t="n">
-        <v>580.9878088439617</v>
+        <v>699.9305615192527</v>
       </c>
       <c r="AD14" t="n">
-        <v>469424.0942748024</v>
+        <v>565526.9609704891</v>
       </c>
       <c r="AE14" t="n">
-        <v>642286.7553162196</v>
+        <v>773778.9372885094</v>
       </c>
       <c r="AF14" t="n">
         <v>9.37362499960558e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>580987.8088439617</v>
+        <v>699930.5615192527</v>
       </c>
     </row>
     <row r="15">
@@ -56531,28 +56531,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>464.6709445982905</v>
+        <v>560.7738112939772</v>
       </c>
       <c r="AB15" t="n">
-        <v>635.7832862346518</v>
+        <v>767.2754682069417</v>
       </c>
       <c r="AC15" t="n">
-        <v>575.1050217238625</v>
+        <v>694.0477743991537</v>
       </c>
       <c r="AD15" t="n">
-        <v>464670.9445982905</v>
+        <v>560773.8112939772</v>
       </c>
       <c r="AE15" t="n">
-        <v>635783.2862346518</v>
+        <v>767275.4682069417</v>
       </c>
       <c r="AF15" t="n">
         <v>9.405812853432532e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>575105.0217238625</v>
+        <v>694047.7743991537</v>
       </c>
     </row>
     <row r="16">
@@ -56637,28 +56637,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>462.2482380034145</v>
+        <v>558.3511046991013</v>
       </c>
       <c r="AB16" t="n">
-        <v>632.468432189271</v>
+        <v>763.9606141615608</v>
       </c>
       <c r="AC16" t="n">
-        <v>572.1065326961458</v>
+        <v>691.049285371437</v>
       </c>
       <c r="AD16" t="n">
-        <v>462248.2380034145</v>
+        <v>558351.1046991013</v>
       </c>
       <c r="AE16" t="n">
-        <v>632468.432189271</v>
+        <v>763960.6141615608</v>
       </c>
       <c r="AF16" t="n">
         <v>9.41625215737641e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.24583333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>572106.5326961458</v>
+        <v>691049.285371437</v>
       </c>
     </row>
     <row r="17">
@@ -56743,28 +56743,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>460.9213049451177</v>
+        <v>557.0241716408043</v>
       </c>
       <c r="AB17" t="n">
-        <v>630.6528638387542</v>
+        <v>762.145045811044</v>
       </c>
       <c r="AC17" t="n">
-        <v>570.4642396408362</v>
+        <v>689.4069923161273</v>
       </c>
       <c r="AD17" t="n">
-        <v>460921.3049451177</v>
+        <v>557024.1716408043</v>
       </c>
       <c r="AE17" t="n">
-        <v>630652.8638387542</v>
+        <v>762145.0458110441</v>
       </c>
       <c r="AF17" t="n">
         <v>9.431041171296902e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.21666666666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>570464.2396408363</v>
+        <v>689406.9923161273</v>
       </c>
     </row>
     <row r="18">
@@ -56849,28 +56849,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>461.3895347879132</v>
+        <v>557.4924014835998</v>
       </c>
       <c r="AB18" t="n">
-        <v>631.2935165665099</v>
+        <v>762.7856985387997</v>
       </c>
       <c r="AC18" t="n">
-        <v>571.0437493714167</v>
+        <v>689.9865020467078</v>
       </c>
       <c r="AD18" t="n">
-        <v>461389.5347879132</v>
+        <v>557492.4014835998</v>
       </c>
       <c r="AE18" t="n">
-        <v>631293.5165665098</v>
+        <v>762785.6985387997</v>
       </c>
       <c r="AF18" t="n">
         <v>9.427126432317947e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.225</v>
       </c>
       <c r="AH18" t="n">
-        <v>571043.7493714166</v>
+        <v>689986.5020467078</v>
       </c>
     </row>
   </sheetData>
@@ -57146,28 +57146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2103.395512375507</v>
+        <v>2336.965918180063</v>
       </c>
       <c r="AB2" t="n">
-        <v>2877.958535293014</v>
+        <v>3197.539868914046</v>
       </c>
       <c r="AC2" t="n">
-        <v>2603.290211924821</v>
+        <v>2892.371151600161</v>
       </c>
       <c r="AD2" t="n">
-        <v>2103395.512375507</v>
+        <v>2336965.918180063</v>
       </c>
       <c r="AE2" t="n">
-        <v>2877958.535293014</v>
+        <v>3197539.868914046</v>
       </c>
       <c r="AF2" t="n">
         <v>3.451662672593053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.44583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2603290.211924821</v>
+        <v>2892371.151600161</v>
       </c>
     </row>
     <row r="3">
@@ -57252,28 +57252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>897.5700030217462</v>
+        <v>1033.878606123185</v>
       </c>
       <c r="AB3" t="n">
-        <v>1228.094876128201</v>
+        <v>1414.598320402746</v>
       </c>
       <c r="AC3" t="n">
-        <v>1110.887224792509</v>
+        <v>1279.591042104719</v>
       </c>
       <c r="AD3" t="n">
-        <v>897570.0030217462</v>
+        <v>1033878.606123185</v>
       </c>
       <c r="AE3" t="n">
-        <v>1228094.876128201</v>
+        <v>1414598.320402746</v>
       </c>
       <c r="AF3" t="n">
         <v>5.936451036989919e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.5875</v>
       </c>
       <c r="AH3" t="n">
-        <v>1110887.224792509</v>
+        <v>1279591.042104719</v>
       </c>
     </row>
     <row r="4">
@@ -57358,28 +57358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>736.1563914091751</v>
+        <v>852.9250171169897</v>
       </c>
       <c r="AB4" t="n">
-        <v>1007.241651653917</v>
+        <v>1167.009636815542</v>
       </c>
       <c r="AC4" t="n">
-        <v>911.1119220926029</v>
+        <v>1055.631874986178</v>
       </c>
       <c r="AD4" t="n">
-        <v>736156.391409175</v>
+        <v>852925.0171169897</v>
       </c>
       <c r="AE4" t="n">
-        <v>1007241.651653916</v>
+        <v>1167009.636815542</v>
       </c>
       <c r="AF4" t="n">
         <v>6.821966409496426e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.00416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>911111.9220926028</v>
+        <v>1055631.874986178</v>
       </c>
     </row>
     <row r="5">
@@ -57464,28 +57464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>663.3779230002181</v>
+        <v>780.0782178704711</v>
       </c>
       <c r="AB5" t="n">
-        <v>907.6629404173593</v>
+        <v>1067.33743231249</v>
       </c>
       <c r="AC5" t="n">
-        <v>821.0368632968638</v>
+        <v>965.4722457900795</v>
       </c>
       <c r="AD5" t="n">
-        <v>663377.9230002181</v>
+        <v>780078.2178704711</v>
       </c>
       <c r="AE5" t="n">
-        <v>907662.9404173594</v>
+        <v>1067337.43231249</v>
       </c>
       <c r="AF5" t="n">
         <v>7.290468106801245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.4625</v>
       </c>
       <c r="AH5" t="n">
-        <v>821036.8632968637</v>
+        <v>965472.2457900795</v>
       </c>
     </row>
     <row r="6">
@@ -57570,28 +57570,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>623.7520092654537</v>
+        <v>730.8516259880129</v>
       </c>
       <c r="AB6" t="n">
-        <v>853.4450170735207</v>
+        <v>999.9834375749489</v>
       </c>
       <c r="AC6" t="n">
-        <v>771.9934224616275</v>
+        <v>904.5464217783646</v>
       </c>
       <c r="AD6" t="n">
-        <v>623752.0092654537</v>
+        <v>730851.6259880129</v>
       </c>
       <c r="AE6" t="n">
-        <v>853445.0170735207</v>
+        <v>999983.4375749489</v>
       </c>
       <c r="AF6" t="n">
         <v>7.585246859300082e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.59166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>771993.4224616275</v>
+        <v>904546.4217783646</v>
       </c>
     </row>
     <row r="7">
@@ -57676,28 +57676,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>606.5158262740163</v>
+        <v>703.8459598146919</v>
       </c>
       <c r="AB7" t="n">
-        <v>829.8617110979092</v>
+        <v>963.0330937107049</v>
       </c>
       <c r="AC7" t="n">
-        <v>750.6608741089506</v>
+        <v>871.1225668723905</v>
       </c>
       <c r="AD7" t="n">
-        <v>606515.8262740163</v>
+        <v>703845.9598146919</v>
       </c>
       <c r="AE7" t="n">
-        <v>829861.7110979091</v>
+        <v>963033.0937107048</v>
       </c>
       <c r="AF7" t="n">
         <v>7.768009685849361e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.08333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>750660.8741089506</v>
+        <v>871122.5668723905</v>
       </c>
     </row>
     <row r="8">
@@ -57782,28 +57782,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>582.1930883159253</v>
+        <v>689.2585396197036</v>
       </c>
       <c r="AB8" t="n">
-        <v>796.5822679801821</v>
+        <v>943.0739418483626</v>
       </c>
       <c r="AC8" t="n">
-        <v>720.5575743343877</v>
+        <v>853.0682884509445</v>
       </c>
       <c r="AD8" t="n">
-        <v>582193.0883159252</v>
+        <v>689258.5396197035</v>
       </c>
       <c r="AE8" t="n">
-        <v>796582.2679801821</v>
+        <v>943073.9418483626</v>
       </c>
       <c r="AF8" t="n">
         <v>7.922473752158752e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.67083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>720557.5743343877</v>
+        <v>853068.2884509445</v>
       </c>
     </row>
     <row r="9">
@@ -57888,28 +57888,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>572.4303677377859</v>
+        <v>669.7263358596807</v>
       </c>
       <c r="AB9" t="n">
-        <v>783.224482984337</v>
+        <v>916.3491189638848</v>
       </c>
       <c r="AC9" t="n">
-        <v>708.4746375907771</v>
+        <v>828.8940451540369</v>
       </c>
       <c r="AD9" t="n">
-        <v>572430.3677377859</v>
+        <v>669726.3358596807</v>
       </c>
       <c r="AE9" t="n">
-        <v>783224.482984337</v>
+        <v>916349.1189638849</v>
       </c>
       <c r="AF9" t="n">
         <v>8.027414988048339e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>708474.6375907771</v>
+        <v>828894.045154037</v>
       </c>
     </row>
     <row r="10">
@@ -57994,28 +57994,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>564.4278902898162</v>
+        <v>661.7238584117109</v>
       </c>
       <c r="AB10" t="n">
-        <v>772.2751402956366</v>
+        <v>905.3997762751844</v>
       </c>
       <c r="AC10" t="n">
-        <v>698.5702848007872</v>
+        <v>818.9896923640471</v>
       </c>
       <c r="AD10" t="n">
-        <v>564427.8902898162</v>
+        <v>661723.8584117109</v>
       </c>
       <c r="AE10" t="n">
-        <v>772275.1402956366</v>
+        <v>905399.7762751845</v>
       </c>
       <c r="AF10" t="n">
         <v>8.109166962074684e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.19583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>698570.2848007872</v>
+        <v>818989.692364047</v>
       </c>
     </row>
     <row r="11">
@@ -58100,28 +58100,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>557.6730736671059</v>
+        <v>654.9690417890007</v>
       </c>
       <c r="AB11" t="n">
-        <v>763.0329021909669</v>
+        <v>896.1575381705146</v>
       </c>
       <c r="AC11" t="n">
-        <v>690.2101129292646</v>
+        <v>810.6295204925244</v>
       </c>
       <c r="AD11" t="n">
-        <v>557673.0736671059</v>
+        <v>654969.0417890007</v>
       </c>
       <c r="AE11" t="n">
-        <v>763032.9021909669</v>
+        <v>896157.5381705146</v>
       </c>
       <c r="AF11" t="n">
         <v>8.179913862674403e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.02083333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>690210.1129292645</v>
+        <v>810629.5204925244</v>
       </c>
     </row>
     <row r="12">
@@ -58206,28 +58206,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>541.4759850998904</v>
+        <v>648.5072709848881</v>
       </c>
       <c r="AB12" t="n">
-        <v>740.8713310481867</v>
+        <v>887.3162582831194</v>
       </c>
       <c r="AC12" t="n">
-        <v>670.1636110323907</v>
+        <v>802.6320399487679</v>
       </c>
       <c r="AD12" t="n">
-        <v>541475.9850998904</v>
+        <v>648507.2709848881</v>
       </c>
       <c r="AE12" t="n">
-        <v>740871.3310481866</v>
+        <v>887316.2582831194</v>
       </c>
       <c r="AF12" t="n">
         <v>8.238476574837505e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.87916666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>670163.6110323907</v>
+        <v>802632.0399487679</v>
       </c>
     </row>
     <row r="13">
@@ -58312,28 +58312,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>537.3751701707246</v>
+        <v>634.738458100324</v>
       </c>
       <c r="AB13" t="n">
-        <v>735.2604151469158</v>
+        <v>868.477161057305</v>
       </c>
       <c r="AC13" t="n">
-        <v>665.0881930697672</v>
+        <v>785.5909197213463</v>
       </c>
       <c r="AD13" t="n">
-        <v>537375.1701707246</v>
+        <v>634738.458100324</v>
       </c>
       <c r="AE13" t="n">
-        <v>735260.4151469157</v>
+        <v>868477.1610573051</v>
       </c>
       <c r="AF13" t="n">
         <v>8.276208255157358e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.7875</v>
       </c>
       <c r="AH13" t="n">
-        <v>665088.1930697672</v>
+        <v>785590.9197213462</v>
       </c>
     </row>
     <row r="14">
@@ -58418,28 +58418,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>532.4962644840351</v>
+        <v>629.8595524136342</v>
       </c>
       <c r="AB14" t="n">
-        <v>728.5848811442592</v>
+        <v>861.8016270546485</v>
       </c>
       <c r="AC14" t="n">
-        <v>659.0497626631534</v>
+        <v>779.5524893147324</v>
       </c>
       <c r="AD14" t="n">
-        <v>532496.2644840351</v>
+        <v>629859.5524136343</v>
       </c>
       <c r="AE14" t="n">
-        <v>728584.8811442591</v>
+        <v>861801.6270546485</v>
       </c>
       <c r="AF14" t="n">
         <v>8.319049433853855e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.6875</v>
       </c>
       <c r="AH14" t="n">
-        <v>659049.7626631533</v>
+        <v>779552.4893147324</v>
       </c>
     </row>
     <row r="15">
@@ -58524,28 +58524,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>528.0465929943958</v>
+        <v>625.409880923995</v>
       </c>
       <c r="AB15" t="n">
-        <v>722.4966443064832</v>
+        <v>855.7133902168725</v>
       </c>
       <c r="AC15" t="n">
-        <v>653.5425786042807</v>
+        <v>774.0453052558596</v>
       </c>
       <c r="AD15" t="n">
-        <v>528046.5929943959</v>
+        <v>625409.880923995</v>
       </c>
       <c r="AE15" t="n">
-        <v>722496.6443064832</v>
+        <v>855713.3902168726</v>
       </c>
       <c r="AF15" t="n">
         <v>8.346955155757077e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.62083333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>653542.5786042807</v>
+        <v>774045.3052558596</v>
       </c>
     </row>
     <row r="16">
@@ -58630,28 +58630,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>525.132085876759</v>
+        <v>622.4953738063583</v>
       </c>
       <c r="AB16" t="n">
-        <v>718.5088870891531</v>
+        <v>851.7256329995424</v>
       </c>
       <c r="AC16" t="n">
-        <v>649.9354073389203</v>
+        <v>770.4381339904992</v>
       </c>
       <c r="AD16" t="n">
-        <v>525132.085876759</v>
+        <v>622495.3738063583</v>
       </c>
       <c r="AE16" t="n">
-        <v>718508.8870891531</v>
+        <v>851725.6329995424</v>
       </c>
       <c r="AF16" t="n">
         <v>8.37328872431364e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>20</v>
+        <v>19.55833333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>649935.4073389203</v>
+        <v>770438.1339904992</v>
       </c>
     </row>
     <row r="17">
@@ -58736,28 +58736,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>520.8191056003304</v>
+        <v>618.0809083034445</v>
       </c>
       <c r="AB17" t="n">
-        <v>712.6076771996826</v>
+        <v>845.6855665459826</v>
       </c>
       <c r="AC17" t="n">
-        <v>644.5974006389007</v>
+        <v>764.9745230019807</v>
       </c>
       <c r="AD17" t="n">
-        <v>520819.1056003304</v>
+        <v>618080.9083034445</v>
       </c>
       <c r="AE17" t="n">
-        <v>712607.6771996826</v>
+        <v>845685.5665459826</v>
       </c>
       <c r="AF17" t="n">
         <v>8.405124829583515e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>19.48333333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>644597.4006389007</v>
+        <v>764974.5230019807</v>
       </c>
     </row>
     <row r="18">
@@ -58842,28 +58842,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>516.8254059082583</v>
+        <v>614.0872086113724</v>
       </c>
       <c r="AB18" t="n">
-        <v>707.1433210913939</v>
+        <v>840.2212104376941</v>
       </c>
       <c r="AC18" t="n">
-        <v>639.654555008315</v>
+        <v>760.0316773713951</v>
       </c>
       <c r="AD18" t="n">
-        <v>516825.4059082583</v>
+        <v>614087.2086113724</v>
       </c>
       <c r="AE18" t="n">
-        <v>707143.3210913939</v>
+        <v>840221.2104376941</v>
       </c>
       <c r="AF18" t="n">
         <v>8.435781819843396e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>20</v>
+        <v>19.4125</v>
       </c>
       <c r="AH18" t="n">
-        <v>639654.555008315</v>
+        <v>760031.6773713951</v>
       </c>
     </row>
     <row r="19">
@@ -58948,28 +58948,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>513.8801743481534</v>
+        <v>611.1419770512674</v>
       </c>
       <c r="AB19" t="n">
-        <v>703.1135253364123</v>
+        <v>836.1914146827124</v>
       </c>
       <c r="AC19" t="n">
-        <v>636.0093573043351</v>
+        <v>756.3864796674152</v>
       </c>
       <c r="AD19" t="n">
-        <v>513880.1743481534</v>
+        <v>611141.9770512674</v>
       </c>
       <c r="AE19" t="n">
-        <v>703113.5253364122</v>
+        <v>836191.4146827124</v>
       </c>
       <c r="AF19" t="n">
         <v>8.448359046616678e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>19.38333333333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>636009.3573043351</v>
+        <v>756386.4796674151</v>
       </c>
     </row>
     <row r="20">
@@ -59054,28 +59054,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>510.8377996848347</v>
+        <v>608.0996023879487</v>
       </c>
       <c r="AB20" t="n">
-        <v>698.9508141019624</v>
+        <v>832.0287034482624</v>
       </c>
       <c r="AC20" t="n">
-        <v>632.2439293876992</v>
+        <v>752.6210517507792</v>
       </c>
       <c r="AD20" t="n">
-        <v>510837.7996848347</v>
+        <v>608099.6023879488</v>
       </c>
       <c r="AE20" t="n">
-        <v>698950.8141019624</v>
+        <v>832028.7034482624</v>
       </c>
       <c r="AF20" t="n">
         <v>8.463687541746618e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19.35</v>
       </c>
       <c r="AH20" t="n">
-        <v>632243.9293876991</v>
+        <v>752621.0517507792</v>
       </c>
     </row>
     <row r="21">
@@ -59160,28 +59160,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>507.2544968455925</v>
+        <v>604.5162995487065</v>
       </c>
       <c r="AB21" t="n">
-        <v>694.0479810731468</v>
+        <v>827.125870419447</v>
       </c>
       <c r="AC21" t="n">
-        <v>627.8090158619843</v>
+        <v>748.1861382250644</v>
       </c>
       <c r="AD21" t="n">
-        <v>507254.4968455925</v>
+        <v>604516.2995487065</v>
       </c>
       <c r="AE21" t="n">
-        <v>694047.9810731468</v>
+        <v>827125.870419447</v>
       </c>
       <c r="AF21" t="n">
         <v>8.475085653509905e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>20</v>
+        <v>19.32083333333333</v>
       </c>
       <c r="AH21" t="n">
-        <v>627809.0158619843</v>
+        <v>748186.1382250644</v>
       </c>
     </row>
     <row r="22">
@@ -59266,28 +59266,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>503.9393552744581</v>
+        <v>601.2011579775722</v>
       </c>
       <c r="AB22" t="n">
-        <v>689.5120581217968</v>
+        <v>822.5899474680969</v>
       </c>
       <c r="AC22" t="n">
-        <v>623.7059950309033</v>
+        <v>744.0831173939833</v>
       </c>
       <c r="AD22" t="n">
-        <v>503939.3552744581</v>
+        <v>601201.1579775722</v>
       </c>
       <c r="AE22" t="n">
-        <v>689512.0581217968</v>
+        <v>822589.9474680969</v>
       </c>
       <c r="AF22" t="n">
         <v>8.495916685353157e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>20</v>
+        <v>19.275</v>
       </c>
       <c r="AH22" t="n">
-        <v>623705.9950309033</v>
+        <v>744083.1173939833</v>
       </c>
     </row>
     <row r="23">
@@ -59372,28 +59372,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>500.7729870224962</v>
+        <v>598.0347897256102</v>
       </c>
       <c r="AB23" t="n">
-        <v>685.1796933891541</v>
+        <v>818.2575827354541</v>
       </c>
       <c r="AC23" t="n">
-        <v>619.7871051078318</v>
+        <v>740.1642274709118</v>
       </c>
       <c r="AD23" t="n">
-        <v>500772.9870224962</v>
+        <v>598034.7897256102</v>
       </c>
       <c r="AE23" t="n">
-        <v>685179.693389154</v>
+        <v>818257.5827354541</v>
       </c>
       <c r="AF23" t="n">
         <v>8.510852142146432e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>20</v>
+        <v>19.24166666666667</v>
       </c>
       <c r="AH23" t="n">
-        <v>619787.1051078319</v>
+        <v>740164.2274709118</v>
       </c>
     </row>
     <row r="24">
@@ -59478,28 +59478,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>499.8908703468309</v>
+        <v>597.152673049945</v>
       </c>
       <c r="AB24" t="n">
-        <v>683.9727424372677</v>
+        <v>817.0506317835678</v>
       </c>
       <c r="AC24" t="n">
-        <v>618.6953438608273</v>
+        <v>739.0724662239073</v>
       </c>
       <c r="AD24" t="n">
-        <v>499890.8703468309</v>
+        <v>597152.6730499449</v>
       </c>
       <c r="AE24" t="n">
-        <v>683972.7424372677</v>
+        <v>817050.6317835678</v>
       </c>
       <c r="AF24" t="n">
         <v>8.525787598939706e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>20</v>
+        <v>19.20833333333333</v>
       </c>
       <c r="AH24" t="n">
-        <v>618695.3438608273</v>
+        <v>739072.4662239073</v>
       </c>
     </row>
     <row r="25">
@@ -59584,28 +59584,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>499.7363714218284</v>
+        <v>596.9981741249424</v>
       </c>
       <c r="AB25" t="n">
-        <v>683.7613501920677</v>
+        <v>816.8392395383678</v>
       </c>
       <c r="AC25" t="n">
-        <v>618.5041265948183</v>
+        <v>738.8812489578983</v>
       </c>
       <c r="AD25" t="n">
-        <v>499736.3714218284</v>
+        <v>596998.1741249424</v>
       </c>
       <c r="AE25" t="n">
-        <v>683761.3501920677</v>
+        <v>816839.2395383678</v>
       </c>
       <c r="AF25" t="n">
         <v>8.523429368919716e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>19.2125</v>
       </c>
       <c r="AH25" t="n">
-        <v>618504.1265948183</v>
+        <v>738881.2489578982</v>
       </c>
     </row>
     <row r="26">
@@ -59690,28 +59690,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>500.4400112294209</v>
+        <v>597.7018139325351</v>
       </c>
       <c r="AB26" t="n">
-        <v>684.7241012192134</v>
+        <v>817.8019905655133</v>
       </c>
       <c r="AC26" t="n">
-        <v>619.3749940151625</v>
+        <v>739.7521163782426</v>
       </c>
       <c r="AD26" t="n">
-        <v>500440.0112294209</v>
+        <v>597701.813932535</v>
       </c>
       <c r="AE26" t="n">
-        <v>684724.1012192133</v>
+        <v>817801.9905655133</v>
       </c>
       <c r="AF26" t="n">
         <v>8.521071138899725e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>20</v>
+        <v>19.22083333333333</v>
       </c>
       <c r="AH26" t="n">
-        <v>619374.9940151626</v>
+        <v>739752.1163782426</v>
       </c>
     </row>
   </sheetData>
@@ -59987,28 +59987,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.2426908427697</v>
+        <v>423.4675685513931</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.643154189032</v>
+        <v>579.4070093626272</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.3024742103077</v>
+        <v>524.1092175919023</v>
       </c>
       <c r="AD2" t="n">
-        <v>324242.6908427697</v>
+        <v>423467.5685513931</v>
       </c>
       <c r="AE2" t="n">
-        <v>443643.154189032</v>
+        <v>579407.0093626272</v>
       </c>
       <c r="AF2" t="n">
         <v>1.850564478408294e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.47083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>401302.4742103077</v>
+        <v>524109.2175919022</v>
       </c>
     </row>
     <row r="3">
@@ -60093,28 +60093,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.6584291539406</v>
+        <v>425.8833068625642</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.9484739212289</v>
+        <v>582.7123290948239</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.292338866309</v>
+        <v>527.0990822479035</v>
       </c>
       <c r="AD3" t="n">
-        <v>326658.4291539406</v>
+        <v>425883.3068625642</v>
       </c>
       <c r="AE3" t="n">
-        <v>446948.4739212289</v>
+        <v>582712.3290948239</v>
       </c>
       <c r="AF3" t="n">
         <v>1.850469122893356e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.47083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>404292.338866309</v>
+        <v>527099.0822479036</v>
       </c>
     </row>
   </sheetData>
@@ -60390,28 +60390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>826.0471869314729</v>
+        <v>977.0685818621437</v>
       </c>
       <c r="AB2" t="n">
-        <v>1130.234203789537</v>
+        <v>1336.868338927403</v>
       </c>
       <c r="AC2" t="n">
-        <v>1022.366237673531</v>
+        <v>1209.279500966669</v>
       </c>
       <c r="AD2" t="n">
-        <v>826047.1869314729</v>
+        <v>977068.5818621437</v>
       </c>
       <c r="AE2" t="n">
-        <v>1130234.203789537</v>
+        <v>1336868.338927403</v>
       </c>
       <c r="AF2" t="n">
         <v>7.230826044800576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.95416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1022366.237673531</v>
+        <v>1209279.500966669</v>
       </c>
     </row>
     <row r="3">
@@ -60496,28 +60496,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>546.8143338783779</v>
+        <v>660.0974627857713</v>
       </c>
       <c r="AB3" t="n">
-        <v>748.1754953582396</v>
+        <v>903.1744700282628</v>
       </c>
       <c r="AC3" t="n">
-        <v>676.7706761521512</v>
+        <v>816.9767662220947</v>
       </c>
       <c r="AD3" t="n">
-        <v>546814.3338783778</v>
+        <v>660097.4627857713</v>
       </c>
       <c r="AE3" t="n">
-        <v>748175.4953582396</v>
+        <v>903174.4700282628</v>
       </c>
       <c r="AF3" t="n">
         <v>9.472849965089927e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.86666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>676770.6761521512</v>
+        <v>816976.7662220948</v>
       </c>
     </row>
     <row r="4">
@@ -60602,28 +60602,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>492.0290834732677</v>
+        <v>595.8017847124423</v>
       </c>
       <c r="AB4" t="n">
-        <v>673.2158987993</v>
+        <v>815.2022867632094</v>
       </c>
       <c r="AC4" t="n">
-        <v>608.9651182823425</v>
+        <v>737.4005246581232</v>
       </c>
       <c r="AD4" t="n">
-        <v>492029.0834732677</v>
+        <v>595801.7847124423</v>
       </c>
       <c r="AE4" t="n">
-        <v>673215.8987993001</v>
+        <v>815202.2867632094</v>
       </c>
       <c r="AF4" t="n">
         <v>1.022296369497111e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>608965.1182823424</v>
+        <v>737400.5246581233</v>
       </c>
     </row>
     <row r="5">
@@ -60708,28 +60708,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.8150978216473</v>
+        <v>554.1788566190883</v>
       </c>
       <c r="AB5" t="n">
-        <v>629.1393024500081</v>
+        <v>758.2519602718925</v>
       </c>
       <c r="AC5" t="n">
-        <v>569.0951304267353</v>
+        <v>685.8854573968523</v>
       </c>
       <c r="AD5" t="n">
-        <v>459815.0978216473</v>
+        <v>554178.8566190882</v>
       </c>
       <c r="AE5" t="n">
-        <v>629139.3024500081</v>
+        <v>758251.9602718925</v>
       </c>
       <c r="AF5" t="n">
         <v>1.061699433062595e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>569095.1304267353</v>
+        <v>685885.4573968523</v>
       </c>
     </row>
     <row r="6">
@@ -60814,28 +60814,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>436.2520486129976</v>
+        <v>540.0579042410958</v>
       </c>
       <c r="AB6" t="n">
-        <v>596.8992989943689</v>
+        <v>738.9310502558717</v>
       </c>
       <c r="AC6" t="n">
-        <v>539.9320676517732</v>
+        <v>668.4085079156932</v>
       </c>
       <c r="AD6" t="n">
-        <v>436252.0486129976</v>
+        <v>540057.9042410958</v>
       </c>
       <c r="AE6" t="n">
-        <v>596899.2989943689</v>
+        <v>738931.0502558717</v>
       </c>
       <c r="AF6" t="n">
         <v>1.084623906720086e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>20</v>
+        <v>19.97083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>539932.0676517732</v>
+        <v>668408.5079156932</v>
       </c>
     </row>
     <row r="7">
@@ -60920,28 +60920,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>424.541522551099</v>
+        <v>518.9726011562442</v>
       </c>
       <c r="AB7" t="n">
-        <v>580.8764406045312</v>
+        <v>710.0812083572571</v>
       </c>
       <c r="AC7" t="n">
-        <v>525.4384083784388</v>
+        <v>642.312054436875</v>
       </c>
       <c r="AD7" t="n">
-        <v>424541.522551099</v>
+        <v>518972.6011562442</v>
       </c>
       <c r="AE7" t="n">
-        <v>580876.4406045312</v>
+        <v>710081.2083572571</v>
       </c>
       <c r="AF7" t="n">
         <v>1.102298104097744e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>20</v>
+        <v>19.65</v>
       </c>
       <c r="AH7" t="n">
-        <v>525438.4083784388</v>
+        <v>642312.0544368749</v>
       </c>
     </row>
     <row r="8">
@@ -61026,28 +61026,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>416.0145455284274</v>
+        <v>510.3441389070875</v>
       </c>
       <c r="AB8" t="n">
-        <v>569.2094544584355</v>
+        <v>698.2753656470722</v>
       </c>
       <c r="AC8" t="n">
-        <v>514.8849030154086</v>
+        <v>631.6329447853458</v>
       </c>
       <c r="AD8" t="n">
-        <v>416014.5455284275</v>
+        <v>510344.1389070875</v>
       </c>
       <c r="AE8" t="n">
-        <v>569209.4544584355</v>
+        <v>698275.3656470722</v>
       </c>
       <c r="AF8" t="n">
         <v>1.113110554258194e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.45833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>514884.9030154086</v>
+        <v>631632.9447853458</v>
       </c>
     </row>
     <row r="9">
@@ -61132,28 +61132,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>410.6079961300196</v>
+        <v>504.9375895086796</v>
       </c>
       <c r="AB9" t="n">
-        <v>561.8119750514082</v>
+        <v>690.877886240045</v>
       </c>
       <c r="AC9" t="n">
-        <v>508.1934286605605</v>
+        <v>624.9414704304976</v>
       </c>
       <c r="AD9" t="n">
-        <v>410607.9961300195</v>
+        <v>504937.5895086796</v>
       </c>
       <c r="AE9" t="n">
-        <v>561811.9750514083</v>
+        <v>690877.886240045</v>
       </c>
       <c r="AF9" t="n">
         <v>1.11924454040691e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.35416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>508193.4286605605</v>
+        <v>624941.4704304975</v>
       </c>
     </row>
     <row r="10">
@@ -61238,28 +61238,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>409.893059218957</v>
+        <v>504.2226525976171</v>
       </c>
       <c r="AB10" t="n">
-        <v>560.8337668289022</v>
+        <v>689.8996780175387</v>
       </c>
       <c r="AC10" t="n">
-        <v>507.3085792578863</v>
+        <v>624.0566210278237</v>
       </c>
       <c r="AD10" t="n">
-        <v>409893.059218957</v>
+        <v>504222.6525976171</v>
       </c>
       <c r="AE10" t="n">
-        <v>560833.7668289022</v>
+        <v>689899.6780175387</v>
       </c>
       <c r="AF10" t="n">
         <v>1.120336182009648e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>507308.5792578863</v>
+        <v>624056.6210278237</v>
       </c>
     </row>
     <row r="11">
@@ -61344,28 +61344,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>411.3053833945063</v>
+        <v>505.6349767731664</v>
       </c>
       <c r="AB11" t="n">
-        <v>562.766171073234</v>
+        <v>691.8320822618705</v>
       </c>
       <c r="AC11" t="n">
-        <v>509.0565575532855</v>
+        <v>625.8045993232228</v>
       </c>
       <c r="AD11" t="n">
-        <v>411305.3833945063</v>
+        <v>505634.9767731664</v>
       </c>
       <c r="AE11" t="n">
-        <v>562766.1710732339</v>
+        <v>691832.0822618705</v>
       </c>
       <c r="AF11" t="n">
         <v>1.120284199076184e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>509056.5575532855</v>
+        <v>625804.5993232228</v>
       </c>
     </row>
   </sheetData>
@@ -61641,28 +61641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1125.704676298751</v>
+        <v>1297.65957396417</v>
       </c>
       <c r="AB2" t="n">
-        <v>1540.238800697261</v>
+        <v>1775.51507779777</v>
       </c>
       <c r="AC2" t="n">
-        <v>1393.240571297447</v>
+        <v>1606.062410723813</v>
       </c>
       <c r="AD2" t="n">
-        <v>1125704.676298751</v>
+        <v>1297659.57396417</v>
       </c>
       <c r="AE2" t="n">
-        <v>1540238.800697261</v>
+        <v>1775515.07779777</v>
       </c>
       <c r="AF2" t="n">
         <v>5.58181950832202e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.55</v>
       </c>
       <c r="AH2" t="n">
-        <v>1393240.571297447</v>
+        <v>1606062.410723813</v>
       </c>
     </row>
     <row r="3">
@@ -61747,28 +61747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>659.712545474116</v>
+        <v>774.3046010558777</v>
       </c>
       <c r="AB3" t="n">
-        <v>902.6478091811026</v>
+        <v>1059.437715072766</v>
       </c>
       <c r="AC3" t="n">
-        <v>816.5003691470143</v>
+        <v>958.3264664763924</v>
       </c>
       <c r="AD3" t="n">
-        <v>659712.545474116</v>
+        <v>774304.6010558777</v>
       </c>
       <c r="AE3" t="n">
-        <v>902647.8091811027</v>
+        <v>1059437.715072766</v>
       </c>
       <c r="AF3" t="n">
         <v>7.923971155399673e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.3375</v>
       </c>
       <c r="AH3" t="n">
-        <v>816500.3691470143</v>
+        <v>958326.4664763924</v>
       </c>
     </row>
     <row r="4">
@@ -61853,28 +61853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>572.1671306584727</v>
+        <v>677.2042382911125</v>
       </c>
       <c r="AB4" t="n">
-        <v>782.8643103992207</v>
+        <v>926.5807149723419</v>
       </c>
       <c r="AC4" t="n">
-        <v>708.1488393716786</v>
+        <v>838.149151999582</v>
       </c>
       <c r="AD4" t="n">
-        <v>572167.1306584728</v>
+        <v>677204.2382911125</v>
       </c>
       <c r="AE4" t="n">
-        <v>782864.3103992207</v>
+        <v>926580.7149723419</v>
       </c>
       <c r="AF4" t="n">
         <v>8.73446671548524e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.08333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>708148.8393716787</v>
+        <v>838149.1519995821</v>
       </c>
     </row>
     <row r="5">
@@ -61959,28 +61959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>531.5032482461246</v>
+        <v>627.0195733484228</v>
       </c>
       <c r="AB5" t="n">
-        <v>727.2261925187654</v>
+        <v>857.9158424065923</v>
       </c>
       <c r="AC5" t="n">
-        <v>657.8207453731452</v>
+        <v>776.0375584997537</v>
       </c>
       <c r="AD5" t="n">
-        <v>531503.2482461246</v>
+        <v>627019.5733484228</v>
       </c>
       <c r="AE5" t="n">
-        <v>727226.1925187655</v>
+        <v>857915.8424065923</v>
       </c>
       <c r="AF5" t="n">
         <v>9.164941227695165e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>657820.7453731452</v>
+        <v>776037.5584997537</v>
       </c>
     </row>
     <row r="6">
@@ -62065,28 +62065,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>503.8984129260726</v>
+        <v>608.8671897211508</v>
       </c>
       <c r="AB6" t="n">
-        <v>689.4560389944868</v>
+        <v>833.0789503011125</v>
       </c>
       <c r="AC6" t="n">
-        <v>623.6553222904804</v>
+        <v>753.5710645180239</v>
       </c>
       <c r="AD6" t="n">
-        <v>503898.4129260727</v>
+        <v>608867.1897211508</v>
       </c>
       <c r="AE6" t="n">
-        <v>689456.0389944868</v>
+        <v>833078.9503011125</v>
       </c>
       <c r="AF6" t="n">
         <v>9.418597176825314e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.47916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>623655.3222904804</v>
+        <v>753571.064518024</v>
       </c>
     </row>
     <row r="7">
@@ -62171,28 +62171,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>492.2299386913205</v>
+        <v>587.7120983748381</v>
       </c>
       <c r="AB7" t="n">
-        <v>673.4907177697469</v>
+        <v>804.1336210243262</v>
       </c>
       <c r="AC7" t="n">
-        <v>609.2137089159606</v>
+        <v>727.3882368423891</v>
       </c>
       <c r="AD7" t="n">
-        <v>492229.9386913205</v>
+        <v>587712.0983748381</v>
       </c>
       <c r="AE7" t="n">
-        <v>673490.7177697469</v>
+        <v>804133.6210243262</v>
       </c>
       <c r="AF7" t="n">
         <v>9.57967796203935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.13333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>609213.7089159606</v>
+        <v>727388.2368423891</v>
       </c>
     </row>
     <row r="8">
@@ -62277,28 +62277,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>472.4079379327377</v>
+        <v>577.4440345355202</v>
       </c>
       <c r="AB8" t="n">
-        <v>646.3693818468985</v>
+        <v>790.0844030843657</v>
       </c>
       <c r="AC8" t="n">
-        <v>584.6807952285548</v>
+        <v>714.6798565444174</v>
       </c>
       <c r="AD8" t="n">
-        <v>472407.9379327377</v>
+        <v>577444.0345355202</v>
       </c>
       <c r="AE8" t="n">
-        <v>646369.3818468985</v>
+        <v>790084.4030843657</v>
       </c>
       <c r="AF8" t="n">
         <v>9.714374825537294e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>19.85416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>584680.7952285548</v>
+        <v>714679.8565444173</v>
       </c>
     </row>
     <row r="9">
@@ -62383,28 +62383,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>465.2637221459521</v>
+        <v>560.813201637174</v>
       </c>
       <c r="AB9" t="n">
-        <v>636.5943506268623</v>
+        <v>767.329363812283</v>
       </c>
       <c r="AC9" t="n">
-        <v>575.8386792688163</v>
+        <v>694.096526283564</v>
       </c>
       <c r="AD9" t="n">
-        <v>465263.7221459521</v>
+        <v>560813.201637174</v>
       </c>
       <c r="AE9" t="n">
-        <v>636594.3506268623</v>
+        <v>767329.3638122829</v>
       </c>
       <c r="AF9" t="n">
         <v>9.799543976340119e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19.67916666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>575838.6792688164</v>
+        <v>694096.526283564</v>
       </c>
     </row>
     <row r="10">
@@ -62489,28 +62489,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>457.725157813375</v>
+        <v>553.2746373045969</v>
       </c>
       <c r="AB10" t="n">
-        <v>626.2797543290442</v>
+        <v>757.0147675144647</v>
       </c>
       <c r="AC10" t="n">
-        <v>566.5084935650352</v>
+        <v>684.7663405797828</v>
       </c>
       <c r="AD10" t="n">
-        <v>457725.157813375</v>
+        <v>553274.637304597</v>
       </c>
       <c r="AE10" t="n">
-        <v>626279.7543290441</v>
+        <v>757014.7675144647</v>
       </c>
       <c r="AF10" t="n">
         <v>9.878232865668814e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.525</v>
       </c>
       <c r="AH10" t="n">
-        <v>566508.4935650352</v>
+        <v>684766.3405797827</v>
       </c>
     </row>
     <row r="11">
@@ -62595,28 +62595,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>451.3559967911041</v>
+        <v>546.8039910558408</v>
       </c>
       <c r="AB11" t="n">
-        <v>617.5651872308198</v>
+        <v>748.1613438521512</v>
       </c>
       <c r="AC11" t="n">
-        <v>558.6256325196936</v>
+        <v>676.7578752459423</v>
       </c>
       <c r="AD11" t="n">
-        <v>451355.9967911041</v>
+        <v>546803.9910558409</v>
       </c>
       <c r="AE11" t="n">
-        <v>617565.1872308198</v>
+        <v>748161.3438521512</v>
       </c>
       <c r="AF11" t="n">
         <v>9.936092343116383e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19.40833333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>558625.6325196936</v>
+        <v>676757.8752459423</v>
       </c>
     </row>
     <row r="12">
@@ -62701,28 +62701,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>445.7036247442209</v>
+        <v>541.1516190089575</v>
       </c>
       <c r="AB12" t="n">
-        <v>609.8313624312187</v>
+        <v>740.4275190525502</v>
       </c>
       <c r="AC12" t="n">
-        <v>551.6299131044752</v>
+        <v>669.7621558307239</v>
       </c>
       <c r="AD12" t="n">
-        <v>445703.6247442209</v>
+        <v>541151.6190089575</v>
       </c>
       <c r="AE12" t="n">
-        <v>609831.3624312187</v>
+        <v>740427.5190525502</v>
       </c>
       <c r="AF12" t="n">
         <v>9.980065545976537e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19.325</v>
       </c>
       <c r="AH12" t="n">
-        <v>551629.9131044752</v>
+        <v>669762.1558307239</v>
       </c>
     </row>
     <row r="13">
@@ -62807,28 +62807,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>441.5305645654381</v>
+        <v>536.9785588301747</v>
       </c>
       <c r="AB13" t="n">
-        <v>604.1215973921865</v>
+        <v>734.7177540135177</v>
       </c>
       <c r="AC13" t="n">
-        <v>546.4650800270624</v>
+        <v>664.5973227533111</v>
       </c>
       <c r="AD13" t="n">
-        <v>441530.5645654381</v>
+        <v>536978.5588301747</v>
       </c>
       <c r="AE13" t="n">
-        <v>604121.5973921864</v>
+        <v>734717.7540135178</v>
       </c>
       <c r="AF13" t="n">
         <v>1.000783809515137e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>20</v>
+        <v>19.27083333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>546465.0800270624</v>
+        <v>664597.3227533111</v>
       </c>
     </row>
     <row r="14">
@@ -62913,28 +62913,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>440.4413168790291</v>
+        <v>535.8893111437658</v>
       </c>
       <c r="AB14" t="n">
-        <v>602.6312406534254</v>
+        <v>733.2273972747565</v>
       </c>
       <c r="AC14" t="n">
-        <v>545.1169608437199</v>
+        <v>663.2492035699686</v>
       </c>
       <c r="AD14" t="n">
-        <v>440441.3168790291</v>
+        <v>535889.3111437658</v>
       </c>
       <c r="AE14" t="n">
-        <v>602631.2406534253</v>
+        <v>733227.3972747566</v>
       </c>
       <c r="AF14" t="n">
         <v>1.002403874883669e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>20</v>
+        <v>19.24166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>545116.9608437199</v>
+        <v>663249.2035699686</v>
       </c>
     </row>
     <row r="15">
@@ -63019,28 +63019,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>441.5366491892347</v>
+        <v>536.9846434539712</v>
       </c>
       <c r="AB15" t="n">
-        <v>604.1299226428996</v>
+        <v>734.7260792642309</v>
       </c>
       <c r="AC15" t="n">
-        <v>546.4726107275321</v>
+        <v>664.6048534537808</v>
       </c>
       <c r="AD15" t="n">
-        <v>441536.6491892347</v>
+        <v>536984.6434539712</v>
       </c>
       <c r="AE15" t="n">
-        <v>604129.9226428996</v>
+        <v>734726.0792642309</v>
       </c>
       <c r="AF15" t="n">
         <v>1.002033574228005e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>19.24583333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>546472.6107275322</v>
+        <v>664604.8534537809</v>
       </c>
     </row>
   </sheetData>
